--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="0" windowWidth="47980" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="3220" yWindow="0" windowWidth="47980" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="0" windowWidth="47980" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="5500" yWindow="4500" windowWidth="44240" windowHeight="20200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
@@ -28,30 +28,6 @@
     <author>Mark Evans</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Mark Evans:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dud</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D85" authorId="0">
       <text>
         <r>
@@ -76,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0">
+    <comment ref="D88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,6 +61,30 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+          </rPr>
+          <t>Mark Evans:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dud</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D653" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Mark Evans:</t>
         </r>
@@ -1910,7 +1910,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2022,6 +2022,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2110,7 +2112,7 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="102" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="40% - Accent3" xfId="51" builtinId="39"/>
     <cellStyle name="60% - Accent1" xfId="50" builtinId="32"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -2168,6 +2170,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="102" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2221,6 +2224,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2573,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2625,7 +2629,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
@@ -2634,83 +2638,80 @@
       <c r="C2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="3">
-        <v>10943900</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="3">
-        <f>+D1239+D1272+D1275+D1278+D1281+D1284+D1287+D1290</f>
-        <v>12574828.800000001</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3747700</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.20786008644084833</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15393317.6</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2013</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3753400</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.13789555705175244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="3">
-        <v>713808.9</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>390</v>
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13" customHeight="1">
@@ -2741,28 +2742,23 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="13" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1382146.3</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.26932966023875116</v>
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="10">
+        <v>777900</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13" customHeight="1">
@@ -4810,25 +4806,23 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="13" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="2">
-        <v>768653.8</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2" t="s">
-        <v>384</v>
+      <c r="A86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="10">
+        <v>491700</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13" customHeight="1">
@@ -4859,14 +4853,14 @@
       <c r="A88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="6">
-        <v>2014</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" s="5">
-        <v>1501850</v>
+      <c r="B88" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
       </c>
       <c r="E88" s="35" t="s">
         <v>384</v>
@@ -4876,9 +4870,6 @@
       <c r="H88" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J88" s="11">
-        <v>0.11816827997021594</v>
-      </c>
     </row>
     <row r="89" spans="1:10" ht="13" customHeight="1">
       <c r="A89" s="2" t="s">
@@ -7642,22 +7633,25 @@
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B197" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D197" s="2">
-        <v>1459004.0999999999</v>
+      <c r="B197" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1501700</v>
       </c>
       <c r="E197" s="35" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>70</v>
+        <v>384</v>
+      </c>
+      <c r="J197" s="11">
+        <v>0.11816827997021594</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="13" customHeight="1">
@@ -7688,21 +7682,24 @@
         <v>10</v>
       </c>
       <c r="B199" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D199" s="2">
-        <v>3747592.8</v>
+      <c r="D199" s="5">
+        <v>1343000</v>
       </c>
       <c r="E199" s="35" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>70</v>
+        <v>384</v>
+      </c>
+      <c r="J199" s="11">
+        <v>0.74721051271716854</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="13" customHeight="1">
@@ -19390,23 +19387,25 @@
       </c>
     </row>
     <row r="653" spans="1:10" ht="13" customHeight="1">
-      <c r="A653" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B653" s="10">
-        <v>2012</v>
-      </c>
-      <c r="C653" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D653" s="10">
-        <v>538664.4</v>
-      </c>
-      <c r="E653" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="H653" s="10" t="s">
-        <v>391</v>
+      <c r="A653" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D653" s="3">
+        <v>0</v>
+      </c>
+      <c r="E653" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F653" s="2"/>
+      <c r="G653" s="2"/>
+      <c r="H653" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="654" spans="1:10" ht="13" customHeight="1">
@@ -19433,23 +19432,28 @@
       </c>
     </row>
     <row r="655" spans="1:10" ht="13" customHeight="1">
-      <c r="A655" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B655" s="10">
-        <v>2014</v>
-      </c>
-      <c r="C655" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D655" s="10">
-        <v>778085.1</v>
-      </c>
-      <c r="E655" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="H655" s="10" t="s">
-        <v>391</v>
+      <c r="A655" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D655" s="3">
+        <v>1382300</v>
+      </c>
+      <c r="E655" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F655" s="2"/>
+      <c r="G655" s="2"/>
+      <c r="H655" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J655" s="11">
+        <v>0.26932966023875116</v>
       </c>
     </row>
     <row r="656" spans="1:10" ht="13" customHeight="1">
@@ -26410,23 +26414,28 @@
       </c>
     </row>
     <row r="929" spans="1:10" ht="13" customHeight="1">
-      <c r="A929" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B929" s="10">
-        <v>2012</v>
-      </c>
-      <c r="C929" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D929" s="10">
-        <v>1719409</v>
-      </c>
-      <c r="E929" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="H929" s="10" t="s">
-        <v>285</v>
+      <c r="A929" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B929" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C929" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D929" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E929" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F929" s="2"/>
+      <c r="G929" s="2"/>
+      <c r="H929" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J929" s="11">
+        <v>0.21</v>
       </c>
     </row>
     <row r="930" spans="1:10" ht="13" customHeight="1">
@@ -26457,19 +26466,19 @@
         <v>10</v>
       </c>
       <c r="B931" s="10">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C931" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D931" s="10">
-        <v>3683400</v>
+        <v>0</v>
       </c>
       <c r="E931" s="36" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="H931" s="10" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
     </row>
     <row r="932" spans="1:10" ht="13" customHeight="1">
@@ -28091,13 +28100,13 @@
         <v>10</v>
       </c>
       <c r="B1001" s="10">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1001" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D1001" s="10">
-        <v>516042.2</v>
+        <v>2723300</v>
       </c>
       <c r="E1001" s="36" t="s">
         <v>308</v>
@@ -28134,13 +28143,13 @@
         <v>10</v>
       </c>
       <c r="B1003" s="10">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1003" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D1003" s="10">
-        <v>2778808.0999999996</v>
+        <v>1882000</v>
       </c>
       <c r="E1003" s="36" t="s">
         <v>308</v>
@@ -30680,7 +30689,7 @@
         <v>201</v>
       </c>
       <c r="D1106" s="10">
-        <v>932061.60000000009</v>
+        <v>0</v>
       </c>
       <c r="E1106" s="36" t="s">
         <v>389</v>
@@ -30723,7 +30732,7 @@
         <v>201</v>
       </c>
       <c r="D1108" s="10">
-        <v>1295988.5</v>
+        <v>1296000</v>
       </c>
       <c r="E1108" s="36" t="s">
         <v>389</v>
@@ -33827,22 +33836,22 @@
         <v>10</v>
       </c>
       <c r="B1232" s="10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1232" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D1232" s="10">
-        <v>255428.6</v>
+        <v>1022600</v>
       </c>
       <c r="E1232" s="36" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="H1232" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:10" ht="13" customHeight="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" ht="13" customHeight="1">
       <c r="A1233" s="10" t="s">
         <v>10</v>
       </c>
@@ -33865,27 +33874,27 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1234" spans="1:10" ht="13" customHeight="1">
+    <row r="1234" spans="1:8" ht="13" customHeight="1">
       <c r="A1234" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1234" s="10">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1234" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D1234" s="10">
-        <v>225446.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E1234" s="36" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="H1234" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:10" ht="13" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" ht="13" customHeight="1">
       <c r="A1235" s="10" t="s">
         <v>10</v>
       </c>
@@ -33908,7 +33917,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1236" spans="1:10" ht="13" customHeight="1">
+    <row r="1236" spans="1:8" ht="13" customHeight="1">
       <c r="A1236" s="10" t="s">
         <v>10</v>
       </c>
@@ -33931,7 +33940,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1237" spans="1:10" ht="13" customHeight="1">
+    <row r="1237" spans="1:8" ht="13" customHeight="1">
       <c r="A1237" s="10" t="s">
         <v>10</v>
       </c>
@@ -33954,7 +33963,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1238" spans="1:10" ht="13" customHeight="1">
+    <row r="1238" spans="1:8" ht="13" customHeight="1">
       <c r="A1238" s="10" t="s">
         <v>10</v>
       </c>
@@ -33977,32 +33986,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1239" spans="1:10" ht="13" customHeight="1">
-      <c r="A1239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1239" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1239" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1239" s="3">
-        <v>1064621.2</v>
-      </c>
-      <c r="E1239" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="F1239" s="2"/>
-      <c r="G1239" s="2"/>
-      <c r="H1239" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1239" s="11">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:10" ht="13" customHeight="1">
+    <row r="1239" spans="1:8" ht="13" customHeight="1">
+      <c r="A1239" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1239" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1239" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1239" s="10">
+        <v>3638400</v>
+      </c>
+      <c r="E1239" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1239" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" ht="13" customHeight="1">
       <c r="A1240" s="10" t="s">
         <v>10</v>
       </c>
@@ -34025,7 +34029,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1241" spans="1:10" ht="13" customHeight="1">
+    <row r="1241" spans="1:8" ht="13" customHeight="1">
       <c r="A1241" s="10" t="s">
         <v>10</v>
       </c>
@@ -34051,7 +34055,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="1242" spans="1:10" ht="13" customHeight="1">
+    <row r="1242" spans="1:8" ht="13" customHeight="1">
       <c r="A1242" s="10" t="s">
         <v>10</v>
       </c>
@@ -34077,7 +34081,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="1243" spans="1:10" ht="13" customHeight="1">
+    <row r="1243" spans="1:8" ht="13" customHeight="1">
       <c r="A1243" s="10" t="s">
         <v>10</v>
       </c>
@@ -34103,7 +34107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="1244" spans="1:10" ht="13" customHeight="1">
+    <row r="1244" spans="1:8" ht="13" customHeight="1">
       <c r="A1244" s="10" t="s">
         <v>10</v>
       </c>
@@ -34129,7 +34133,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1245" spans="1:10" ht="13" customHeight="1">
+    <row r="1245" spans="1:8" ht="13" customHeight="1">
       <c r="A1245" s="10" t="s">
         <v>10</v>
       </c>
@@ -34155,7 +34159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="1246" spans="1:10" ht="13" customHeight="1">
+    <row r="1246" spans="1:8" ht="13" customHeight="1">
       <c r="A1246" s="10" t="s">
         <v>10</v>
       </c>
@@ -34181,7 +34185,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="1247" spans="1:10" ht="13" customHeight="1">
+    <row r="1247" spans="1:8" ht="13" customHeight="1">
       <c r="A1247" s="10" t="s">
         <v>10</v>
       </c>
@@ -34207,7 +34211,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1248" spans="1:10" ht="13" customHeight="1">
+    <row r="1248" spans="1:8" ht="13" customHeight="1">
       <c r="A1248" s="10" t="s">
         <v>10</v>
       </c>
@@ -34649,7 +34653,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1265" spans="1:10" ht="13" customHeight="1">
+    <row r="1265" spans="1:8" ht="13" customHeight="1">
       <c r="A1265" s="10" t="s">
         <v>10</v>
       </c>
@@ -34675,7 +34679,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="1266" spans="1:10" ht="13" customHeight="1">
+    <row r="1266" spans="1:8" ht="13" customHeight="1">
       <c r="A1266" s="10" t="s">
         <v>10</v>
       </c>
@@ -34701,7 +34705,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="1267" spans="1:10" ht="13" customHeight="1">
+    <row r="1267" spans="1:8" ht="13" customHeight="1">
       <c r="A1267" s="10" t="s">
         <v>10</v>
       </c>
@@ -34727,7 +34731,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1268" spans="1:10" ht="13" customHeight="1">
+    <row r="1268" spans="1:8" ht="13" customHeight="1">
       <c r="A1268" s="10" t="s">
         <v>10</v>
       </c>
@@ -34753,7 +34757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1269" spans="1:10" ht="13" customHeight="1">
+    <row r="1269" spans="1:8" ht="13" customHeight="1">
       <c r="A1269" s="10" t="s">
         <v>10</v>
       </c>
@@ -34779,7 +34783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1270" spans="1:10" ht="13" customHeight="1">
+    <row r="1270" spans="1:8" ht="13" customHeight="1">
       <c r="A1270" s="10" t="s">
         <v>10</v>
       </c>
@@ -34805,7 +34809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="1271" spans="1:10" ht="13" customHeight="1">
+    <row r="1271" spans="1:8" ht="13" customHeight="1">
       <c r="A1271" s="10" t="s">
         <v>10</v>
       </c>
@@ -34828,32 +34832,27 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1272" spans="1:10" ht="13" customHeight="1">
-      <c r="A1272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1272" s="6">
-        <v>2013</v>
-      </c>
-      <c r="C1272" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1272" s="5">
-        <v>1324392.5</v>
-      </c>
-      <c r="E1272" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1272" s="2"/>
-      <c r="G1272" s="2"/>
-      <c r="H1272" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J1272" s="11">
-        <v>0.74721051271716854</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:10" ht="13" customHeight="1">
+    <row r="1272" spans="1:8" ht="13" customHeight="1">
+      <c r="A1272" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1272" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1272" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1272" s="10">
+        <v>3462200</v>
+      </c>
+      <c r="E1272" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1272" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" ht="13" customHeight="1">
       <c r="A1273" s="10" t="s">
         <v>10</v>
       </c>
@@ -34876,7 +34875,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1274" spans="1:10" ht="13" customHeight="1">
+    <row r="1274" spans="1:8" ht="13" customHeight="1">
       <c r="A1274" s="10" t="s">
         <v>10</v>
       </c>
@@ -34899,29 +34898,27 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1275" spans="1:10" ht="13" customHeight="1">
-      <c r="A1275" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1275" s="6">
-        <v>2013</v>
-      </c>
-      <c r="C1275" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1275" s="2">
-        <v>3874573.8999999994</v>
-      </c>
-      <c r="E1275" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1275" s="2"/>
-      <c r="G1275" s="2"/>
-      <c r="H1275" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:10" ht="13" customHeight="1">
+    <row r="1275" spans="1:8" ht="13" customHeight="1">
+      <c r="A1275" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1275" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1275" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1275" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1275" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1275" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" ht="13" customHeight="1">
       <c r="A1276" s="10" t="s">
         <v>10</v>
       </c>
@@ -34944,7 +34941,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1277" spans="1:10" ht="13" customHeight="1">
+    <row r="1277" spans="1:8" ht="13" customHeight="1">
       <c r="A1277" s="10" t="s">
         <v>10</v>
       </c>
@@ -34967,27 +34964,27 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1278" spans="1:10" ht="13" customHeight="1">
+    <row r="1278" spans="1:8" ht="13" customHeight="1">
       <c r="A1278" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1278" s="10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1278" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D1278" s="10">
-        <v>484004.4</v>
+        <v>227100</v>
       </c>
       <c r="E1278" s="36" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="H1278" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:10" ht="13" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" ht="13" customHeight="1">
       <c r="A1279" s="10" t="s">
         <v>10</v>
       </c>
@@ -35010,7 +35007,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1280" spans="1:10" ht="13" customHeight="1">
+    <row r="1280" spans="1:8" ht="13" customHeight="1">
       <c r="A1280" s="10" t="s">
         <v>10</v>
       </c>
@@ -35033,7 +35030,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1281" spans="1:8" ht="13" customHeight="1">
+    <row r="1281" spans="1:10" ht="13" customHeight="1">
       <c r="A1281" s="10" t="s">
         <v>10</v>
       </c>
@@ -35044,16 +35041,16 @@
         <v>201</v>
       </c>
       <c r="D1281" s="10">
-        <v>3181344</v>
+        <v>174800</v>
       </c>
       <c r="E1281" s="36" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="H1281" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:8" ht="13" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:10" ht="13" customHeight="1">
       <c r="A1282" s="10" t="s">
         <v>10</v>
       </c>
@@ -35076,7 +35073,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1283" spans="1:8" ht="13" customHeight="1">
+    <row r="1283" spans="1:10" ht="13" customHeight="1">
       <c r="A1283" s="10" t="s">
         <v>10</v>
       </c>
@@ -35099,27 +35096,27 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1284" spans="1:8" ht="13" customHeight="1">
-      <c r="A1284" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1284" s="10">
-        <v>2013</v>
-      </c>
-      <c r="C1284" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1284" s="10">
-        <v>1643916.3</v>
-      </c>
-      <c r="E1284" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1284" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:8" ht="13" customHeight="1">
+    <row r="1284" spans="1:10" ht="13" customHeight="1">
+      <c r="A1284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1284" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1284" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1284" s="3">
+        <v>10943900</v>
+      </c>
+      <c r="E1284" s="4"/>
+      <c r="F1284" s="2"/>
+      <c r="G1284" s="2"/>
+      <c r="H1284" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10" ht="13" customHeight="1">
       <c r="A1285" s="10" t="s">
         <v>10</v>
       </c>
@@ -35142,7 +35139,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" ht="13" customHeight="1">
+    <row r="1286" spans="1:10" ht="13" customHeight="1">
       <c r="A1286" s="10" t="s">
         <v>10</v>
       </c>
@@ -35165,27 +35162,30 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1287" spans="1:8" ht="13" customHeight="1">
-      <c r="A1287" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1287" s="10">
-        <v>2013</v>
-      </c>
-      <c r="C1287" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1287" s="10">
-        <v>842862.2</v>
-      </c>
-      <c r="E1287" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="H1287" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:8" ht="13" customHeight="1">
+    <row r="1287" spans="1:10" ht="13" customHeight="1">
+      <c r="A1287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1287" s="3">
+        <v>13218700</v>
+      </c>
+      <c r="E1287" s="4"/>
+      <c r="F1287" s="2"/>
+      <c r="G1287" s="2"/>
+      <c r="H1287" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1287" s="11">
+        <v>0.20786008644084833</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10" ht="13" customHeight="1">
       <c r="A1288" s="10" t="s">
         <v>10</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" ht="13" customHeight="1">
+    <row r="1289" spans="1:10" ht="13" customHeight="1">
       <c r="A1289" s="10" t="s">
         <v>10</v>
       </c>
@@ -35231,27 +35231,30 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1290" spans="1:8" ht="13" customHeight="1">
-      <c r="A1290" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1290" s="10">
-        <v>2013</v>
-      </c>
-      <c r="C1290" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1290" s="10">
-        <v>159114.29999999999</v>
-      </c>
-      <c r="E1290" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1290" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:8" ht="13" customHeight="1">
+    <row r="1290" spans="1:10" ht="13" customHeight="1">
+      <c r="A1290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1290" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1290" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1290" s="3">
+        <v>15294500</v>
+      </c>
+      <c r="E1290" s="4"/>
+      <c r="F1290" s="2"/>
+      <c r="G1290" s="2"/>
+      <c r="H1290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1290" s="11">
+        <v>0.13789555705175244</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10" ht="13" customHeight="1">
       <c r="A1291" s="10" t="s">
         <v>10</v>
       </c>
@@ -35274,11 +35277,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1292" spans="1:8" ht="40" customHeight="1"/>
+    <row r="1292" spans="1:10" ht="40" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:J1291">
-    <sortState ref="A6:J1291">
-      <sortCondition ref="F1:F1291"/>
+    <sortState ref="A2:J1290">
+      <sortCondition ref="E1:E1291"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="80" windowWidth="32580" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="10580" yWindow="4600" windowWidth="32580" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1517,6 +1517,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1551,7 +1553,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="112">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Bad" xfId="49" builtinId="27"/>
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1608,6 +1610,7 @@
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1661,6 +1664,7 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1992,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34700,6 +34704,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="4600" windowWidth="32580" windowHeight="25120" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1040" windowWidth="19440" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
@@ -1994,10 +1994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K1292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2113,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13" customHeight="1">
+    <row r="5" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>-0.13348251472436523</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" customHeight="1">
+    <row r="7" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +2419,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="13" customHeight="1">
+    <row r="17" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2446,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="13" customHeight="1">
+    <row r="18" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2473,7 @@
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="13" customHeight="1">
+    <row r="19" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2499,7 +2500,7 @@
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="13" customHeight="1">
+    <row r="20" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="13" customHeight="1">
+    <row r="21" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2554,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="13" customHeight="1">
+    <row r="22" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2581,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="13" customHeight="1">
+    <row r="23" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="13" customHeight="1">
+    <row r="24" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +2635,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="13" customHeight="1">
+    <row r="25" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2662,7 @@
       </c>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" ht="13" customHeight="1">
+    <row r="26" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2689,7 @@
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" ht="13" customHeight="1">
+    <row r="27" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2716,7 @@
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" ht="13" customHeight="1">
+    <row r="28" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2743,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" ht="13" customHeight="1">
+    <row r="29" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2769,7 +2770,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="13" customHeight="1">
+    <row r="30" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="13" customHeight="1">
+    <row r="31" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2823,7 +2824,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="13" customHeight="1">
+    <row r="32" spans="1:11" ht="13" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="13" customHeight="1">
+    <row r="33" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="13" customHeight="1">
+    <row r="34" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="13" customHeight="1">
+    <row r="35" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="13" customHeight="1">
+    <row r="36" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="13" customHeight="1">
+    <row r="37" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>-0.27583292558160222</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="13" customHeight="1">
+    <row r="41" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="13" customHeight="1">
+    <row r="42" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="13" customHeight="1">
+    <row r="43" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="13" customHeight="1">
+    <row r="44" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="13" customHeight="1">
+    <row r="45" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="13" customHeight="1">
+    <row r="46" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="13" customHeight="1">
+    <row r="47" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="13" customHeight="1">
+    <row r="48" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13" customHeight="1">
+    <row r="49" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13" customHeight="1">
+    <row r="50" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" customHeight="1">
+    <row r="51" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13" customHeight="1">
+    <row r="52" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" customHeight="1">
+    <row r="53" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13" customHeight="1">
+    <row r="54" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" customHeight="1">
+    <row r="55" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13" customHeight="1">
+    <row r="56" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13" customHeight="1">
+    <row r="57" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13" customHeight="1">
+    <row r="58" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13" customHeight="1">
+    <row r="59" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13" customHeight="1">
+    <row r="60" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13" customHeight="1">
+    <row r="61" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13" customHeight="1">
+    <row r="62" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13" customHeight="1">
+    <row r="63" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13" customHeight="1">
+    <row r="64" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="13" customHeight="1">
+    <row r="65" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="13" customHeight="1">
+    <row r="66" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="13" customHeight="1">
+    <row r="67" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="13" customHeight="1">
+    <row r="68" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="13" customHeight="1">
+    <row r="69" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="13" customHeight="1">
+    <row r="70" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="13" customHeight="1">
+    <row r="71" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="13" customHeight="1">
+    <row r="72" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="13" customHeight="1">
+    <row r="73" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>0.45886078754021464</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="13" customHeight="1">
+    <row r="77" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -4016,7 +4017,7 @@
       </c>
       <c r="J77" s="13"/>
     </row>
-    <row r="78" spans="1:10" ht="13" customHeight="1">
+    <row r="78" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="13" customHeight="1">
+    <row r="79" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="13" customHeight="1">
+    <row r="80" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="13" customHeight="1">
+    <row r="81" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="13" customHeight="1">
+    <row r="82" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="13" customHeight="1">
+    <row r="83" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>10</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="13" customHeight="1">
+    <row r="84" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>10</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="13" customHeight="1">
+    <row r="85" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>10</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="13" customHeight="1">
+    <row r="86" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>10</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="13" customHeight="1">
+    <row r="88" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>10</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>5.9620914503260236E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="13" customHeight="1">
+    <row r="90" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="13" customHeight="1">
+    <row r="91" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>-0.17665615141955837</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="13" customHeight="1">
+    <row r="92" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="13" customHeight="1">
+    <row r="93" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>10</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="13" customHeight="1">
+    <row r="94" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>10</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="13" customHeight="1">
+    <row r="95" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>10</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="13" customHeight="1">
+    <row r="96" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>10</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13" customHeight="1">
+    <row r="97" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13" customHeight="1">
+    <row r="98" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>10</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13" customHeight="1">
+    <row r="99" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13" customHeight="1">
+    <row r="100" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>10</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13" customHeight="1">
+    <row r="101" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>10</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13" customHeight="1">
+    <row r="102" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>10</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13" customHeight="1">
+    <row r="103" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A103" s="6" t="s">
         <v>10</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" customHeight="1">
+    <row r="104" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A104" s="6" t="s">
         <v>10</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13" customHeight="1">
+    <row r="105" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>10</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" customHeight="1">
+    <row r="106" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>10</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13" customHeight="1">
+    <row r="107" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" customHeight="1">
+    <row r="108" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>10</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="13" customHeight="1">
+    <row r="109" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A109" s="6" t="s">
         <v>10</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="13" customHeight="1">
+    <row r="110" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="13" customHeight="1">
+    <row r="111" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13" customHeight="1">
+    <row r="112" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A112" s="6" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" customHeight="1">
+    <row r="113" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>10</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="13" customHeight="1">
+    <row r="114" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>10</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13" customHeight="1">
+    <row r="115" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>10</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13" customHeight="1">
+    <row r="116" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A116" s="6" t="s">
         <v>10</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13" customHeight="1">
+    <row r="117" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13" customHeight="1">
+    <row r="118" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A118" s="6" t="s">
         <v>10</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13" customHeight="1">
+    <row r="119" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A119" s="6" t="s">
         <v>10</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13" customHeight="1">
+    <row r="120" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A120" s="6" t="s">
         <v>10</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13" customHeight="1">
+    <row r="121" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A121" s="6" t="s">
         <v>10</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13" customHeight="1">
+    <row r="122" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A122" s="6" t="s">
         <v>10</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" customHeight="1">
+    <row r="123" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>10</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13" customHeight="1">
+    <row r="124" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>10</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13" customHeight="1">
+    <row r="125" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>10</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13" customHeight="1">
+    <row r="126" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A126" s="6" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13" customHeight="1">
+    <row r="127" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>10</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13" customHeight="1">
+    <row r="128" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A128" s="6" t="s">
         <v>10</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13" customHeight="1">
+    <row r="129" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A129" s="6" t="s">
         <v>10</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13" customHeight="1">
+    <row r="130" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A130" s="6" t="s">
         <v>10</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13" customHeight="1">
+    <row r="131" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A131" s="6" t="s">
         <v>10</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13" customHeight="1">
+    <row r="133" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A133" s="10" t="s">
         <v>10</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13" customHeight="1">
+    <row r="134" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A134" s="6" t="s">
         <v>10</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13" customHeight="1">
+    <row r="135" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13" customHeight="1">
+    <row r="136" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A136" s="6" t="s">
         <v>10</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13" customHeight="1">
+    <row r="137" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A137" s="6" t="s">
         <v>10</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" customHeight="1">
+    <row r="138" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A138" s="6" t="s">
         <v>10</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13" customHeight="1">
+    <row r="139" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A139" s="6" t="s">
         <v>10</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" customHeight="1">
+    <row r="140" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A140" s="6" t="s">
         <v>10</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13" customHeight="1">
+    <row r="141" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A141" s="6" t="s">
         <v>10</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13" customHeight="1">
+    <row r="142" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A142" s="6" t="s">
         <v>10</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13" customHeight="1">
+    <row r="143" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A143" s="6" t="s">
         <v>10</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13" customHeight="1">
+    <row r="144" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A144" s="6" t="s">
         <v>10</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="13" customHeight="1">
+    <row r="145" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A145" s="6" t="s">
         <v>10</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="13" customHeight="1">
+    <row r="146" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A146" s="6" t="s">
         <v>10</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="13" customHeight="1">
+    <row r="147" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A147" s="6" t="s">
         <v>10</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="13" customHeight="1">
+    <row r="148" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A148" s="6" t="s">
         <v>10</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="13" customHeight="1">
+    <row r="149" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A149" s="6" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="13" customHeight="1">
+    <row r="150" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A150" s="6" t="s">
         <v>10</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="13" customHeight="1">
+    <row r="151" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>10</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="13" customHeight="1">
+    <row r="152" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>10</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="13" customHeight="1">
+    <row r="153" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>10</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="13" customHeight="1">
+    <row r="154" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A154" s="10" t="s">
         <v>10</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="13" customHeight="1">
+    <row r="155" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A155" s="10" t="s">
         <v>10</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>6.372472276581866</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="13" customHeight="1">
+    <row r="158" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A158" s="10" t="s">
         <v>10</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="13" customHeight="1">
+    <row r="159" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A159" s="10" t="s">
         <v>10</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="13" customHeight="1">
+    <row r="160" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A160" s="10" t="s">
         <v>10</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="13" customHeight="1">
+    <row r="161" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A161" s="10" t="s">
         <v>10</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13" customHeight="1">
+    <row r="162" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A162" s="10" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13" customHeight="1">
+    <row r="163" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A163" s="10" t="s">
         <v>10</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="13" customHeight="1">
+    <row r="164" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A164" s="10" t="s">
         <v>10</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="13" customHeight="1">
+    <row r="165" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A165" s="10" t="s">
         <v>10</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="13" customHeight="1">
+    <row r="166" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A166" s="10" t="s">
         <v>10</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="13" customHeight="1">
+    <row r="167" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A167" s="6" t="s">
         <v>10</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="13" customHeight="1">
+    <row r="168" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A168" s="6" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="13" customHeight="1">
+    <row r="169" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A169" s="6" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="13" customHeight="1">
+    <row r="170" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A170" s="6" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="13" customHeight="1">
+    <row r="171" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="13" customHeight="1">
+    <row r="172" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A172" s="6" t="s">
         <v>10</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="13" customHeight="1">
+    <row r="173" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A173" s="6" t="s">
         <v>10</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="13" customHeight="1">
+    <row r="174" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A174" s="6" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="13" customHeight="1">
+    <row r="175" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A175" s="6" t="s">
         <v>10</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" customHeight="1">
+    <row r="176" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A176" s="6" t="s">
         <v>10</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="13" customHeight="1">
+    <row r="177" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A177" s="6" t="s">
         <v>10</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="13" customHeight="1">
+    <row r="178" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A178" s="6" t="s">
         <v>10</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="13" customHeight="1">
+    <row r="179" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A179" s="6" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="13" customHeight="1">
+    <row r="180" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>10</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="13" customHeight="1">
+    <row r="181" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A181" s="6" t="s">
         <v>10</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="13" customHeight="1">
+    <row r="182" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A182" s="6" t="s">
         <v>10</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="13" customHeight="1">
+    <row r="183" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A183" s="6" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="13" customHeight="1">
+    <row r="184" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A184" s="6" t="s">
         <v>10</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="13" customHeight="1">
+    <row r="185" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A185" s="6" t="s">
         <v>10</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="13" customHeight="1">
+    <row r="186" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A186" s="6" t="s">
         <v>10</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="13" customHeight="1">
+    <row r="187" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A187" s="6" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="13" customHeight="1">
+    <row r="188" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A188" s="6" t="s">
         <v>10</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="13" customHeight="1">
+    <row r="189" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A189" s="6" t="s">
         <v>10</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="13" customHeight="1">
+    <row r="190" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A190" s="6" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="13" customHeight="1">
+    <row r="191" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A191" s="6" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="13" customHeight="1">
+    <row r="192" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A192" s="6" t="s">
         <v>10</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="13" customHeight="1">
+    <row r="193" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A193" s="6" t="s">
         <v>10</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="13" customHeight="1">
+    <row r="194" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A194" s="6" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="13" customHeight="1">
+    <row r="195" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A195" s="6" t="s">
         <v>10</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="13" customHeight="1">
+    <row r="196" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A196" s="6" t="s">
         <v>10</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="13" customHeight="1">
+    <row r="197" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>0.11816827997021594</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="13" customHeight="1">
+    <row r="198" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A198" s="10" t="s">
         <v>10</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="13" customHeight="1">
+    <row r="199" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A199" s="6" t="s">
         <v>10</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="13" customHeight="1">
+    <row r="293" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A293" s="10" t="s">
         <v>10</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="13" customHeight="1">
+    <row r="294" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A294" s="10" t="s">
         <v>10</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="13" customHeight="1">
+    <row r="295" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A295" s="10" t="s">
         <v>10</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="13" customHeight="1">
+    <row r="398" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A398" s="10" t="s">
         <v>10</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="13" customHeight="1">
+    <row r="399" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A399" s="10" t="s">
         <v>10</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="13" customHeight="1">
+    <row r="400" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A400" s="10" t="s">
         <v>10</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="13" customHeight="1">
+    <row r="401" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A401" s="10" t="s">
         <v>10</v>
       </c>
@@ -12350,7 +12351,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="13" customHeight="1">
+    <row r="402" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A402" s="10" t="s">
         <v>10</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="13" customHeight="1">
+    <row r="403" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A403" s="10" t="s">
         <v>10</v>
       </c>
@@ -12552,7 +12553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="13" customHeight="1">
+    <row r="410" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A410" s="10" t="s">
         <v>10</v>
       </c>
@@ -12575,7 +12576,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="13" customHeight="1">
+    <row r="411" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A411" s="10" t="s">
         <v>10</v>
       </c>
@@ -12598,7 +12599,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="13" customHeight="1">
+    <row r="412" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A412" s="10" t="s">
         <v>10</v>
       </c>
@@ -13401,7 +13402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="13" customHeight="1">
+    <row r="443" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A443" s="10" t="s">
         <v>10</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="13" customHeight="1">
+    <row r="444" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A444" s="10" t="s">
         <v>10</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="13" customHeight="1">
+    <row r="445" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A445" s="10" t="s">
         <v>10</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="13" customHeight="1">
+    <row r="461" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A461" s="10" t="s">
         <v>10</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="13" customHeight="1">
+    <row r="462" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A462" s="10" t="s">
         <v>10</v>
       </c>
@@ -13906,7 +13907,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="13" customHeight="1">
+    <row r="463" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A463" s="10" t="s">
         <v>10</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>9.7653938052127451E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="13" customHeight="1">
+    <row r="503" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A503" s="10" t="s">
         <v>10</v>
       </c>
@@ -14967,7 +14968,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="13" customHeight="1">
+    <row r="504" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A504" s="10" t="s">
         <v>10</v>
       </c>
@@ -14990,7 +14991,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="13" customHeight="1">
+    <row r="505" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A505" s="10" t="s">
         <v>10</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="13" customHeight="1">
+    <row r="608" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A608" s="10" t="s">
         <v>10</v>
       </c>
@@ -17688,7 +17689,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="13" customHeight="1">
+    <row r="609" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A609" s="10" t="s">
         <v>10</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="13" customHeight="1">
+    <row r="610" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A610" s="10" t="s">
         <v>10</v>
       </c>
@@ -18202,7 +18203,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="13" customHeight="1">
+    <row r="629" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A629" s="6" t="s">
         <v>10</v>
       </c>
@@ -18228,7 +18229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="13" customHeight="1">
+    <row r="630" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A630" s="6" t="s">
         <v>10</v>
       </c>
@@ -18255,7 +18256,7 @@
         <v>-2.1957761037486125E-2</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="13" customHeight="1">
+    <row r="631" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A631" s="6" t="s">
         <v>10</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>1.3054281593252341</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="13" customHeight="1">
+    <row r="632" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A632" s="6" t="s">
         <v>10</v>
       </c>
@@ -18308,7 +18309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="13" customHeight="1">
+    <row r="633" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A633" s="6" t="s">
         <v>10</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>1.937897009804264</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="13" customHeight="1">
+    <row r="634" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A634" s="6" t="s">
         <v>10</v>
       </c>
@@ -18362,7 +18363,7 @@
         <v>-0.14091738096295831</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="13" customHeight="1">
+    <row r="635" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A635" s="6" t="s">
         <v>10</v>
       </c>
@@ -18388,7 +18389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="13" customHeight="1">
+    <row r="636" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A636" s="6" t="s">
         <v>10</v>
       </c>
@@ -18415,7 +18416,7 @@
         <v>6.8434559452523963E-3</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="13" customHeight="1">
+    <row r="637" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A637" s="6" t="s">
         <v>10</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>7.1384928716904189E-2</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="13" customHeight="1">
+    <row r="638" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A638" s="2" t="s">
         <v>10</v>
       </c>
@@ -18466,7 +18467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="13" customHeight="1">
+    <row r="639" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A639" s="2" t="s">
         <v>10</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>0.57597046099114635</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="13" customHeight="1">
+    <row r="640" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A640" s="2" t="s">
         <v>10</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>0.70057522123893801</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="13" customHeight="1">
+    <row r="641" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A641" s="2" t="s">
         <v>10</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="13" customHeight="1">
+    <row r="642" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A642" s="2" t="s">
         <v>10</v>
       </c>
@@ -18571,7 +18572,7 @@
         <v>0.17245626900389624</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="13" customHeight="1">
+    <row r="643" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A643" s="2" t="s">
         <v>10</v>
       </c>
@@ -18598,7 +18599,7 @@
         <v>0.17754868904398771</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="13" customHeight="1">
+    <row r="644" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A644" s="10" t="s">
         <v>10</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="13" customHeight="1">
+    <row r="645" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A645" s="10" t="s">
         <v>10</v>
       </c>
@@ -18644,7 +18645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="13" customHeight="1">
+    <row r="646" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A646" s="10" t="s">
         <v>10</v>
       </c>
@@ -18667,7 +18668,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="13" customHeight="1">
+    <row r="647" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A647" s="10" t="s">
         <v>10</v>
       </c>
@@ -18690,7 +18691,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="13" customHeight="1">
+    <row r="648" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A648" s="10" t="s">
         <v>10</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="13" customHeight="1">
+    <row r="649" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A649" s="10" t="s">
         <v>10</v>
       </c>
@@ -18736,7 +18737,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="13" customHeight="1">
+    <row r="650" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A650" s="10" t="s">
         <v>10</v>
       </c>
@@ -18759,7 +18760,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="13" customHeight="1">
+    <row r="651" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A651" s="10" t="s">
         <v>10</v>
       </c>
@@ -18782,7 +18783,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="13" customHeight="1">
+    <row r="652" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A652" s="10" t="s">
         <v>10</v>
       </c>
@@ -18805,7 +18806,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="13" customHeight="1">
+    <row r="653" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A653" s="2" t="s">
         <v>10</v>
       </c>
@@ -18827,7 +18828,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="13" customHeight="1">
+    <row r="654" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A654" s="10" t="s">
         <v>10</v>
       </c>
@@ -18850,7 +18851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="13" customHeight="1">
+    <row r="655" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A655" s="2" t="s">
         <v>10</v>
       </c>
@@ -18875,7 +18876,7 @@
         <v>0.26932966023875116</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="13" customHeight="1">
+    <row r="656" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A656" s="10" t="s">
         <v>10</v>
       </c>
@@ -18898,7 +18899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="13" customHeight="1">
+    <row r="657" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A657" s="10" t="s">
         <v>10</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="13" customHeight="1">
+    <row r="658" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A658" s="10" t="s">
         <v>10</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="13" customHeight="1">
+    <row r="659" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A659" s="10" t="s">
         <v>10</v>
       </c>
@@ -18970,7 +18971,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="13" customHeight="1">
+    <row r="660" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A660" s="10" t="s">
         <v>10</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="13" customHeight="1">
+    <row r="661" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A661" s="10" t="s">
         <v>10</v>
       </c>
@@ -19022,7 +19023,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="13" customHeight="1">
+    <row r="662" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A662" s="10" t="s">
         <v>10</v>
       </c>
@@ -19048,7 +19049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="13" customHeight="1">
+    <row r="663" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A663" s="10" t="s">
         <v>10</v>
       </c>
@@ -19074,7 +19075,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="13" customHeight="1">
+    <row r="664" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A664" s="10" t="s">
         <v>10</v>
       </c>
@@ -19100,7 +19101,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="13" customHeight="1">
+    <row r="665" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A665" s="10" t="s">
         <v>10</v>
       </c>
@@ -19126,7 +19127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="13" customHeight="1">
+    <row r="666" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A666" s="10" t="s">
         <v>10</v>
       </c>
@@ -19152,7 +19153,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="13" customHeight="1">
+    <row r="667" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A667" s="10" t="s">
         <v>10</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="13" customHeight="1">
+    <row r="668" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A668" s="10" t="s">
         <v>10</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="13" customHeight="1">
+    <row r="669" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A669" s="10" t="s">
         <v>10</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="13" customHeight="1">
+    <row r="670" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A670" s="10" t="s">
         <v>10</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="13" customHeight="1">
+    <row r="671" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A671" s="10" t="s">
         <v>10</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="13" customHeight="1">
+    <row r="672" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A672" s="10" t="s">
         <v>10</v>
       </c>
@@ -19308,7 +19309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="13" customHeight="1">
+    <row r="673" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A673" s="10" t="s">
         <v>10</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="13" customHeight="1">
+    <row r="674" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A674" s="10" t="s">
         <v>10</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="13" customHeight="1">
+    <row r="675" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A675" s="10" t="s">
         <v>10</v>
       </c>
@@ -19380,7 +19381,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="13" customHeight="1">
+    <row r="676" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A676" s="10" t="s">
         <v>10</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="13" customHeight="1">
+    <row r="677" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A677" s="10" t="s">
         <v>10</v>
       </c>
@@ -19429,7 +19430,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="13" customHeight="1">
+    <row r="678" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A678" s="10" t="s">
         <v>10</v>
       </c>
@@ -19455,7 +19456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="13" customHeight="1">
+    <row r="679" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A679" s="10" t="s">
         <v>10</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="13" customHeight="1">
+    <row r="680" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A680" s="10" t="s">
         <v>10</v>
       </c>
@@ -19507,7 +19508,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="13" customHeight="1">
+    <row r="681" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A681" s="10" t="s">
         <v>10</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="13" customHeight="1">
+    <row r="682" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A682" s="10" t="s">
         <v>10</v>
       </c>
@@ -19559,7 +19560,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="13" customHeight="1">
+    <row r="683" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A683" s="10" t="s">
         <v>10</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="13" customHeight="1">
+    <row r="684" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A684" s="10" t="s">
         <v>10</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="13" customHeight="1">
+    <row r="685" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A685" s="10" t="s">
         <v>10</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="13" customHeight="1">
+    <row r="686" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A686" s="10" t="s">
         <v>10</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="13" customHeight="1">
+    <row r="687" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A687" s="10" t="s">
         <v>10</v>
       </c>
@@ -19689,7 +19690,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="13" customHeight="1">
+    <row r="688" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A688" s="10" t="s">
         <v>10</v>
       </c>
@@ -19715,7 +19716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="13" customHeight="1">
+    <row r="689" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A689" s="10" t="s">
         <v>10</v>
       </c>
@@ -19741,7 +19742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="13" customHeight="1">
+    <row r="690" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A690" s="10" t="s">
         <v>10</v>
       </c>
@@ -19767,7 +19768,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="13" customHeight="1">
+    <row r="691" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A691" s="10" t="s">
         <v>10</v>
       </c>
@@ -19793,7 +19794,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="13" customHeight="1">
+    <row r="692" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A692" s="10" t="s">
         <v>10</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="13" customHeight="1">
+    <row r="693" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A693" s="10" t="s">
         <v>10</v>
       </c>
@@ -19839,7 +19840,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="13" customHeight="1">
+    <row r="694" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A694" s="10" t="s">
         <v>10</v>
       </c>
@@ -19862,7 +19863,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="13" customHeight="1">
+    <row r="695" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A695" s="10" t="s">
         <v>10</v>
       </c>
@@ -19888,7 +19889,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="13" customHeight="1">
+    <row r="696" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A696" s="10" t="s">
         <v>10</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="13" customHeight="1">
+    <row r="697" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A697" s="10" t="s">
         <v>10</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="13" customHeight="1">
+    <row r="698" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A698" s="10" t="s">
         <v>10</v>
       </c>
@@ -19966,7 +19967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="13" customHeight="1">
+    <row r="699" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A699" s="10" t="s">
         <v>10</v>
       </c>
@@ -19992,7 +19993,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="13" customHeight="1">
+    <row r="700" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A700" s="10" t="s">
         <v>10</v>
       </c>
@@ -20018,7 +20019,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="13" customHeight="1">
+    <row r="701" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A701" s="10" t="s">
         <v>10</v>
       </c>
@@ -20044,7 +20045,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="13" customHeight="1">
+    <row r="702" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A702" s="10" t="s">
         <v>10</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="13" customHeight="1">
+    <row r="703" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A703" s="10" t="s">
         <v>10</v>
       </c>
@@ -20096,7 +20097,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="13" customHeight="1">
+    <row r="704" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A704" s="10" t="s">
         <v>10</v>
       </c>
@@ -20122,7 +20123,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="13" customHeight="1">
+    <row r="705" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A705" s="10" t="s">
         <v>10</v>
       </c>
@@ -20148,7 +20149,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="13" customHeight="1">
+    <row r="706" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A706" s="10" t="s">
         <v>10</v>
       </c>
@@ -20174,7 +20175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="13" customHeight="1">
+    <row r="707" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A707" s="10" t="s">
         <v>10</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="13" customHeight="1">
+    <row r="708" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A708" s="10" t="s">
         <v>10</v>
       </c>
@@ -20226,7 +20227,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="13" customHeight="1">
+    <row r="709" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A709" s="10" t="s">
         <v>10</v>
       </c>
@@ -20252,7 +20253,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="13" customHeight="1">
+    <row r="710" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A710" s="10" t="s">
         <v>10</v>
       </c>
@@ -20278,7 +20279,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="13" customHeight="1">
+    <row r="711" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A711" s="10" t="s">
         <v>10</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="13" customHeight="1">
+    <row r="712" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A712" s="10" t="s">
         <v>10</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="13" customHeight="1">
+    <row r="713" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A713" s="10" t="s">
         <v>10</v>
       </c>
@@ -20356,7 +20357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="13" customHeight="1">
+    <row r="714" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A714" s="10" t="s">
         <v>10</v>
       </c>
@@ -20382,7 +20383,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="13" customHeight="1">
+    <row r="715" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A715" s="10" t="s">
         <v>10</v>
       </c>
@@ -20408,7 +20409,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="13" customHeight="1">
+    <row r="716" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A716" s="10" t="s">
         <v>10</v>
       </c>
@@ -20434,7 +20435,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="13" customHeight="1">
+    <row r="717" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A717" s="10" t="s">
         <v>10</v>
       </c>
@@ -20460,7 +20461,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="13" customHeight="1">
+    <row r="718" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A718" s="10" t="s">
         <v>10</v>
       </c>
@@ -20486,7 +20487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="13" customHeight="1">
+    <row r="719" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A719" s="10" t="s">
         <v>10</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="13" customHeight="1">
+    <row r="720" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A720" s="10" t="s">
         <v>10</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="13" customHeight="1">
+    <row r="721" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A721" s="10" t="s">
         <v>10</v>
       </c>
@@ -20564,7 +20565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="13" customHeight="1">
+    <row r="722" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A722" s="10" t="s">
         <v>10</v>
       </c>
@@ -20590,7 +20591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="13" customHeight="1">
+    <row r="723" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A723" s="10" t="s">
         <v>10</v>
       </c>
@@ -20616,7 +20617,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="13" customHeight="1">
+    <row r="724" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A724" s="10" t="s">
         <v>10</v>
       </c>
@@ -20642,7 +20643,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="13" customHeight="1">
+    <row r="725" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A725" s="10" t="s">
         <v>10</v>
       </c>
@@ -20668,7 +20669,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="13" customHeight="1">
+    <row r="726" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A726" s="10" t="s">
         <v>10</v>
       </c>
@@ -20694,7 +20695,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="13" customHeight="1">
+    <row r="727" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A727" s="10" t="s">
         <v>10</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="13" customHeight="1">
+    <row r="728" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A728" s="10" t="s">
         <v>10</v>
       </c>
@@ -20746,7 +20747,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="13" customHeight="1">
+    <row r="729" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A729" s="10" t="s">
         <v>10</v>
       </c>
@@ -20772,7 +20773,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="13" customHeight="1">
+    <row r="730" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A730" s="10" t="s">
         <v>10</v>
       </c>
@@ -20798,7 +20799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="13" customHeight="1">
+    <row r="731" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A731" s="10" t="s">
         <v>10</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="13" customHeight="1">
+    <row r="732" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A732" s="10" t="s">
         <v>10</v>
       </c>
@@ -20850,7 +20851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="13" customHeight="1">
+    <row r="733" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A733" s="10" t="s">
         <v>10</v>
       </c>
@@ -20876,7 +20877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="13" customHeight="1">
+    <row r="734" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A734" s="10" t="s">
         <v>10</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="13" customHeight="1">
+    <row r="735" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A735" s="10" t="s">
         <v>10</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="13" customHeight="1">
+    <row r="736" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A736" s="10" t="s">
         <v>10</v>
       </c>
@@ -20954,7 +20955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="13" customHeight="1">
+    <row r="737" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A737" s="10" t="s">
         <v>10</v>
       </c>
@@ -20980,7 +20981,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="13" customHeight="1">
+    <row r="738" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A738" s="10" t="s">
         <v>10</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="13" customHeight="1">
+    <row r="739" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A739" s="10" t="s">
         <v>10</v>
       </c>
@@ -21032,7 +21033,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="13" customHeight="1">
+    <row r="740" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A740" s="10" t="s">
         <v>10</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="13" customHeight="1">
+    <row r="741" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A741" s="10" t="s">
         <v>10</v>
       </c>
@@ -21078,7 +21079,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="13" customHeight="1">
+    <row r="742" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A742" s="10" t="s">
         <v>10</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="13" customHeight="1">
+    <row r="743" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A743" s="10" t="s">
         <v>10</v>
       </c>
@@ -21127,7 +21128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="13" customHeight="1">
+    <row r="744" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A744" s="10" t="s">
         <v>10</v>
       </c>
@@ -21153,7 +21154,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="13" customHeight="1">
+    <row r="745" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A745" s="10" t="s">
         <v>10</v>
       </c>
@@ -21179,7 +21180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="13" customHeight="1">
+    <row r="746" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A746" s="10" t="s">
         <v>10</v>
       </c>
@@ -21205,7 +21206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="13" customHeight="1">
+    <row r="747" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A747" s="10" t="s">
         <v>10</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="13" customHeight="1">
+    <row r="748" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A748" s="10" t="s">
         <v>10</v>
       </c>
@@ -21257,7 +21258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="13" customHeight="1">
+    <row r="749" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A749" s="10" t="s">
         <v>10</v>
       </c>
@@ -21283,7 +21284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="13" customHeight="1">
+    <row r="750" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A750" s="10" t="s">
         <v>10</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="13" customHeight="1">
+    <row r="751" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A751" s="10" t="s">
         <v>10</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="13" customHeight="1">
+    <row r="752" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A752" s="10" t="s">
         <v>10</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="13" customHeight="1">
+    <row r="753" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A753" s="10" t="s">
         <v>10</v>
       </c>
@@ -21387,7 +21388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="13" customHeight="1">
+    <row r="754" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A754" s="10" t="s">
         <v>10</v>
       </c>
@@ -21413,7 +21414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="13" customHeight="1">
+    <row r="755" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A755" s="10" t="s">
         <v>10</v>
       </c>
@@ -21439,7 +21440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="13" customHeight="1">
+    <row r="756" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A756" s="10" t="s">
         <v>10</v>
       </c>
@@ -21465,7 +21466,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="13" customHeight="1">
+    <row r="757" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A757" s="10" t="s">
         <v>10</v>
       </c>
@@ -21491,7 +21492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="13" customHeight="1">
+    <row r="758" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A758" s="10" t="s">
         <v>10</v>
       </c>
@@ -21517,7 +21518,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="13" customHeight="1">
+    <row r="759" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A759" s="10" t="s">
         <v>10</v>
       </c>
@@ -21543,7 +21544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="13" customHeight="1">
+    <row r="760" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A760" s="10" t="s">
         <v>10</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="13" customHeight="1">
+    <row r="761" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A761" s="10" t="s">
         <v>10</v>
       </c>
@@ -21592,7 +21593,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="13" customHeight="1">
+    <row r="762" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A762" s="10" t="s">
         <v>10</v>
       </c>
@@ -21615,7 +21616,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="13" customHeight="1">
+    <row r="763" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A763" s="10" t="s">
         <v>10</v>
       </c>
@@ -21638,7 +21639,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="13" customHeight="1">
+    <row r="764" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A764" s="10" t="s">
         <v>10</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="13" customHeight="1">
+    <row r="765" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A765" s="10" t="s">
         <v>10</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="13" customHeight="1">
+    <row r="766" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A766" s="10" t="s">
         <v>10</v>
       </c>
@@ -21716,7 +21717,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="13" customHeight="1">
+    <row r="767" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A767" s="10" t="s">
         <v>10</v>
       </c>
@@ -21742,7 +21743,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="13" customHeight="1">
+    <row r="768" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A768" s="10" t="s">
         <v>10</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="13" customHeight="1">
+    <row r="769" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A769" s="10" t="s">
         <v>10</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="13" customHeight="1">
+    <row r="770" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A770" s="10" t="s">
         <v>10</v>
       </c>
@@ -21820,7 +21821,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="13" customHeight="1">
+    <row r="771" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A771" s="10" t="s">
         <v>10</v>
       </c>
@@ -21846,7 +21847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="13" customHeight="1">
+    <row r="772" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A772" s="10" t="s">
         <v>10</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="13" customHeight="1">
+    <row r="773" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A773" s="10" t="s">
         <v>10</v>
       </c>
@@ -21898,7 +21899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="13" customHeight="1">
+    <row r="774" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A774" s="10" t="s">
         <v>10</v>
       </c>
@@ -21924,7 +21925,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="13" customHeight="1">
+    <row r="775" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A775" s="10" t="s">
         <v>10</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="13" customHeight="1">
+    <row r="776" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A776" s="10" t="s">
         <v>10</v>
       </c>
@@ -21976,7 +21977,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="13" customHeight="1">
+    <row r="777" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A777" s="10" t="s">
         <v>10</v>
       </c>
@@ -22002,7 +22003,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="13" customHeight="1">
+    <row r="778" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A778" s="10" t="s">
         <v>10</v>
       </c>
@@ -22028,7 +22029,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="13" customHeight="1">
+    <row r="779" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A779" s="10" t="s">
         <v>10</v>
       </c>
@@ -22054,7 +22055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="13" customHeight="1">
+    <row r="780" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A780" s="10" t="s">
         <v>10</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="13" customHeight="1">
+    <row r="781" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A781" s="10" t="s">
         <v>10</v>
       </c>
@@ -22106,7 +22107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="13" customHeight="1">
+    <row r="782" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A782" s="10" t="s">
         <v>10</v>
       </c>
@@ -22132,7 +22133,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="13" customHeight="1">
+    <row r="783" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A783" s="10" t="s">
         <v>10</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="13" customHeight="1">
+    <row r="784" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A784" s="10" t="s">
         <v>10</v>
       </c>
@@ -22184,7 +22185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="785" spans="1:8" ht="13" customHeight="1">
+    <row r="785" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A785" s="10" t="s">
         <v>10</v>
       </c>
@@ -22210,7 +22211,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="13" customHeight="1">
+    <row r="786" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A786" s="10" t="s">
         <v>10</v>
       </c>
@@ -22236,7 +22237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="13" customHeight="1">
+    <row r="787" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A787" s="10" t="s">
         <v>10</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="788" spans="1:8" ht="13" customHeight="1">
+    <row r="788" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A788" s="10" t="s">
         <v>10</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="13" customHeight="1">
+    <row r="789" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A789" s="10" t="s">
         <v>10</v>
       </c>
@@ -22314,7 +22315,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="13" customHeight="1">
+    <row r="790" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A790" s="10" t="s">
         <v>10</v>
       </c>
@@ -22340,7 +22341,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="13" customHeight="1">
+    <row r="791" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A791" s="10" t="s">
         <v>10</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="792" spans="1:8" ht="13" customHeight="1">
+    <row r="792" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A792" s="10" t="s">
         <v>10</v>
       </c>
@@ -22392,7 +22393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="13" customHeight="1">
+    <row r="793" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A793" s="10" t="s">
         <v>10</v>
       </c>
@@ -22418,7 +22419,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="13" customHeight="1">
+    <row r="794" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A794" s="10" t="s">
         <v>10</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="13" customHeight="1">
+    <row r="795" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A795" s="10" t="s">
         <v>10</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="796" spans="1:8" ht="13" customHeight="1">
+    <row r="796" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A796" s="10" t="s">
         <v>10</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="797" spans="1:8" ht="13" customHeight="1">
+    <row r="797" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A797" s="10" t="s">
         <v>10</v>
       </c>
@@ -22519,7 +22520,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="13" customHeight="1">
+    <row r="798" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A798" s="10" t="s">
         <v>10</v>
       </c>
@@ -22542,7 +22543,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="13" customHeight="1">
+    <row r="799" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A799" s="10" t="s">
         <v>10</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="800" spans="1:8" ht="13" customHeight="1">
+    <row r="800" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A800" s="10" t="s">
         <v>10</v>
       </c>
@@ -22591,7 +22592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="13" customHeight="1">
+    <row r="801" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A801" s="10" t="s">
         <v>10</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="802" spans="1:8" ht="13" customHeight="1">
+    <row r="802" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A802" s="10" t="s">
         <v>10</v>
       </c>
@@ -22643,7 +22644,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="803" spans="1:8" ht="13" customHeight="1">
+    <row r="803" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A803" s="10" t="s">
         <v>10</v>
       </c>
@@ -22669,7 +22670,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="804" spans="1:8" ht="13" customHeight="1">
+    <row r="804" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A804" s="10" t="s">
         <v>10</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="13" customHeight="1">
+    <row r="805" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A805" s="10" t="s">
         <v>10</v>
       </c>
@@ -22721,7 +22722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="13" customHeight="1">
+    <row r="806" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A806" s="10" t="s">
         <v>10</v>
       </c>
@@ -22747,7 +22748,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="807" spans="1:8" ht="13" customHeight="1">
+    <row r="807" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A807" s="10" t="s">
         <v>10</v>
       </c>
@@ -22773,7 +22774,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="808" spans="1:8" ht="13" customHeight="1">
+    <row r="808" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A808" s="10" t="s">
         <v>10</v>
       </c>
@@ -22799,7 +22800,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="13" customHeight="1">
+    <row r="809" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A809" s="10" t="s">
         <v>10</v>
       </c>
@@ -22825,7 +22826,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="810" spans="1:8" ht="13" customHeight="1">
+    <row r="810" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A810" s="10" t="s">
         <v>10</v>
       </c>
@@ -22851,7 +22852,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="811" spans="1:8" ht="13" customHeight="1">
+    <row r="811" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A811" s="10" t="s">
         <v>10</v>
       </c>
@@ -22877,7 +22878,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:8" ht="13" customHeight="1">
+    <row r="812" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A812" s="10" t="s">
         <v>10</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="813" spans="1:8" ht="13" customHeight="1">
+    <row r="813" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A813" s="10" t="s">
         <v>10</v>
       </c>
@@ -22929,7 +22930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="814" spans="1:8" ht="13" customHeight="1">
+    <row r="814" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A814" s="10" t="s">
         <v>10</v>
       </c>
@@ -22955,7 +22956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="13" customHeight="1">
+    <row r="815" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A815" s="10" t="s">
         <v>10</v>
       </c>
@@ -22981,7 +22982,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="13" customHeight="1">
+    <row r="816" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A816" s="10" t="s">
         <v>10</v>
       </c>
@@ -23007,7 +23008,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="817" spans="1:8" ht="13" customHeight="1">
+    <row r="817" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A817" s="10" t="s">
         <v>10</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="818" spans="1:8" ht="13" customHeight="1">
+    <row r="818" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A818" s="10" t="s">
         <v>10</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="819" spans="1:8" ht="13" customHeight="1">
+    <row r="819" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A819" s="10" t="s">
         <v>10</v>
       </c>
@@ -23085,7 +23086,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="13" customHeight="1">
+    <row r="820" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A820" s="10" t="s">
         <v>10</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="13" customHeight="1">
+    <row r="821" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A821" s="10" t="s">
         <v>10</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="13" customHeight="1">
+    <row r="822" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A822" s="10" t="s">
         <v>10</v>
       </c>
@@ -23157,7 +23158,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="823" spans="1:8" ht="13" customHeight="1">
+    <row r="823" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A823" s="10" t="s">
         <v>10</v>
       </c>
@@ -23180,7 +23181,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="13" customHeight="1">
+    <row r="824" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A824" s="10" t="s">
         <v>10</v>
       </c>
@@ -23206,7 +23207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="825" spans="1:8" ht="13" customHeight="1">
+    <row r="825" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A825" s="10" t="s">
         <v>10</v>
       </c>
@@ -23232,7 +23233,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="826" spans="1:8" ht="13" customHeight="1">
+    <row r="826" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A826" s="10" t="s">
         <v>10</v>
       </c>
@@ -23258,7 +23259,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="13" customHeight="1">
+    <row r="827" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A827" s="10" t="s">
         <v>10</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="828" spans="1:8" ht="13" customHeight="1">
+    <row r="828" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A828" s="10" t="s">
         <v>10</v>
       </c>
@@ -23310,7 +23311,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="829" spans="1:8" ht="13" customHeight="1">
+    <row r="829" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A829" s="10" t="s">
         <v>10</v>
       </c>
@@ -23336,7 +23337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="13" customHeight="1">
+    <row r="830" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A830" s="10" t="s">
         <v>10</v>
       </c>
@@ -23362,7 +23363,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="831" spans="1:8" ht="13" customHeight="1">
+    <row r="831" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A831" s="10" t="s">
         <v>10</v>
       </c>
@@ -23388,7 +23389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="832" spans="1:8" ht="13" customHeight="1">
+    <row r="832" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A832" s="10" t="s">
         <v>10</v>
       </c>
@@ -23414,7 +23415,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="833" spans="1:8" ht="13" customHeight="1">
+    <row r="833" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A833" s="10" t="s">
         <v>10</v>
       </c>
@@ -23440,7 +23441,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="13" customHeight="1">
+    <row r="834" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A834" s="10" t="s">
         <v>10</v>
       </c>
@@ -23466,7 +23467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="13" customHeight="1">
+    <row r="835" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A835" s="10" t="s">
         <v>10</v>
       </c>
@@ -23492,7 +23493,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="13" customHeight="1">
+    <row r="836" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A836" s="10" t="s">
         <v>10</v>
       </c>
@@ -23518,7 +23519,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="13" customHeight="1">
+    <row r="837" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A837" s="10" t="s">
         <v>10</v>
       </c>
@@ -23544,7 +23545,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="838" spans="1:8" ht="13" customHeight="1">
+    <row r="838" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A838" s="10" t="s">
         <v>10</v>
       </c>
@@ -23570,7 +23571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="13" customHeight="1">
+    <row r="839" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A839" s="10" t="s">
         <v>10</v>
       </c>
@@ -23596,7 +23597,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="13" customHeight="1">
+    <row r="840" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A840" s="10" t="s">
         <v>10</v>
       </c>
@@ -23622,7 +23623,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="13" customHeight="1">
+    <row r="841" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A841" s="10" t="s">
         <v>10</v>
       </c>
@@ -23648,7 +23649,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="13" customHeight="1">
+    <row r="842" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A842" s="10" t="s">
         <v>10</v>
       </c>
@@ -23674,7 +23675,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="843" spans="1:8" ht="13" customHeight="1">
+    <row r="843" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A843" s="10" t="s">
         <v>10</v>
       </c>
@@ -23700,7 +23701,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="844" spans="1:8" ht="13" customHeight="1">
+    <row r="844" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A844" s="10" t="s">
         <v>10</v>
       </c>
@@ -23726,7 +23727,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="845" spans="1:8" ht="13" customHeight="1">
+    <row r="845" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A845" s="10" t="s">
         <v>10</v>
       </c>
@@ -23752,7 +23753,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="846" spans="1:8" ht="13" customHeight="1">
+    <row r="846" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A846" s="10" t="s">
         <v>10</v>
       </c>
@@ -23778,7 +23779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="847" spans="1:8" ht="13" customHeight="1">
+    <row r="847" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A847" s="10" t="s">
         <v>10</v>
       </c>
@@ -23804,7 +23805,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="848" spans="1:8" ht="13" customHeight="1">
+    <row r="848" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A848" s="10" t="s">
         <v>10</v>
       </c>
@@ -23830,7 +23831,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="13" customHeight="1">
+    <row r="849" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A849" s="10" t="s">
         <v>10</v>
       </c>
@@ -23856,7 +23857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="13" customHeight="1">
+    <row r="850" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A850" s="10" t="s">
         <v>10</v>
       </c>
@@ -23882,7 +23883,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="13" customHeight="1">
+    <row r="851" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A851" s="10" t="s">
         <v>10</v>
       </c>
@@ -23908,7 +23909,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="852" spans="1:8" ht="13" customHeight="1">
+    <row r="852" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A852" s="10" t="s">
         <v>10</v>
       </c>
@@ -23934,7 +23935,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="13" customHeight="1">
+    <row r="853" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A853" s="10" t="s">
         <v>10</v>
       </c>
@@ -23960,7 +23961,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="854" spans="1:8" ht="13" customHeight="1">
+    <row r="854" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A854" s="10" t="s">
         <v>10</v>
       </c>
@@ -23986,7 +23987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="13" customHeight="1">
+    <row r="855" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A855" s="10" t="s">
         <v>10</v>
       </c>
@@ -24012,7 +24013,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="13" customHeight="1">
+    <row r="856" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A856" s="10" t="s">
         <v>10</v>
       </c>
@@ -24038,7 +24039,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="13" customHeight="1">
+    <row r="857" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A857" s="10" t="s">
         <v>10</v>
       </c>
@@ -24064,7 +24065,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="13" customHeight="1">
+    <row r="858" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A858" s="10" t="s">
         <v>10</v>
       </c>
@@ -24090,7 +24091,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="859" spans="1:8" ht="13" customHeight="1">
+    <row r="859" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A859" s="10" t="s">
         <v>10</v>
       </c>
@@ -24116,7 +24117,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="13" customHeight="1">
+    <row r="860" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A860" s="10" t="s">
         <v>10</v>
       </c>
@@ -24142,7 +24143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="861" spans="1:8" ht="13" customHeight="1">
+    <row r="861" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A861" s="10" t="s">
         <v>10</v>
       </c>
@@ -24168,7 +24169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="862" spans="1:8" ht="13" customHeight="1">
+    <row r="862" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A862" s="10" t="s">
         <v>10</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="13" customHeight="1">
+    <row r="863" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A863" s="10" t="s">
         <v>10</v>
       </c>
@@ -24217,7 +24218,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="864" spans="1:8" ht="13" customHeight="1">
+    <row r="864" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A864" s="10" t="s">
         <v>10</v>
       </c>
@@ -24397,7 +24398,7 @@
         <v>3.6439530685920658E-2</v>
       </c>
     </row>
-    <row r="871" spans="1:10" ht="13" customHeight="1">
+    <row r="871" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A871" s="10" t="s">
         <v>10</v>
       </c>
@@ -24420,7 +24421,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="872" spans="1:10" ht="13" customHeight="1">
+    <row r="872" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A872" s="10" t="s">
         <v>10</v>
       </c>
@@ -24443,7 +24444,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="873" spans="1:10" ht="13" customHeight="1">
+    <row r="873" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A873" s="10" t="s">
         <v>10</v>
       </c>
@@ -24466,7 +24467,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="874" spans="1:10" ht="13" customHeight="1">
+    <row r="874" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A874" s="10" t="s">
         <v>10</v>
       </c>
@@ -24489,7 +24490,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="875" spans="1:10" ht="13" customHeight="1">
+    <row r="875" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A875" s="10" t="s">
         <v>10</v>
       </c>
@@ -24512,7 +24513,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="876" spans="1:10" ht="13" customHeight="1">
+    <row r="876" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A876" s="16" t="s">
         <v>10</v>
       </c>
@@ -24616,7 +24617,7 @@
         <v>0.22663403136614996</v>
       </c>
     </row>
-    <row r="880" spans="1:10" ht="13" customHeight="1">
+    <row r="880" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A880" s="10" t="s">
         <v>10</v>
       </c>
@@ -24639,7 +24640,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="881" spans="1:10" ht="13" customHeight="1">
+    <row r="881" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A881" s="10" t="s">
         <v>10</v>
       </c>
@@ -24662,7 +24663,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="882" spans="1:10" ht="13" customHeight="1">
+    <row r="882" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A882" s="10" t="s">
         <v>10</v>
       </c>
@@ -24919,7 +24920,7 @@
         <v>3.4079232789131178E-2</v>
       </c>
     </row>
-    <row r="892" spans="1:10" ht="13" customHeight="1">
+    <row r="892" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A892" s="10" t="s">
         <v>10</v>
       </c>
@@ -24942,7 +24943,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="893" spans="1:10" ht="13" customHeight="1">
+    <row r="893" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A893" s="10" t="s">
         <v>10</v>
       </c>
@@ -24965,7 +24966,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="894" spans="1:10" ht="13" customHeight="1">
+    <row r="894" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A894" s="10" t="s">
         <v>10</v>
       </c>
@@ -25144,7 +25145,7 @@
         <v>2.8704939919893192E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:10" ht="13" customHeight="1">
+    <row r="901" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A901" s="10" t="s">
         <v>10</v>
       </c>
@@ -25167,7 +25168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="902" spans="1:10" ht="13" customHeight="1">
+    <row r="902" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A902" s="10" t="s">
         <v>10</v>
       </c>
@@ -25190,7 +25191,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="903" spans="1:10" ht="13" customHeight="1">
+    <row r="903" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A903" s="10" t="s">
         <v>10</v>
       </c>
@@ -25213,7 +25214,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="904" spans="1:10" ht="13" customHeight="1">
+    <row r="904" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A904" s="10" t="s">
         <v>10</v>
       </c>
@@ -25236,7 +25237,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="905" spans="1:10" ht="13" customHeight="1">
+    <row r="905" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A905" s="10" t="s">
         <v>10</v>
       </c>
@@ -25259,7 +25260,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="906" spans="1:10" ht="13" customHeight="1">
+    <row r="906" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A906" s="10" t="s">
         <v>10</v>
       </c>
@@ -25282,7 +25283,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="907" spans="1:10" ht="13" customHeight="1">
+    <row r="907" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A907" s="10" t="s">
         <v>10</v>
       </c>
@@ -25305,7 +25306,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="908" spans="1:10" ht="13" customHeight="1">
+    <row r="908" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A908" s="10" t="s">
         <v>10</v>
       </c>
@@ -25328,7 +25329,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="909" spans="1:10" ht="13" customHeight="1">
+    <row r="909" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A909" s="10" t="s">
         <v>10</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="910" spans="1:10" ht="13" customHeight="1">
+    <row r="910" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A910" s="6" t="s">
         <v>10</v>
       </c>
@@ -25377,7 +25378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="911" spans="1:10" ht="13" customHeight="1">
+    <row r="911" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A911" s="6" t="s">
         <v>10</v>
       </c>
@@ -25404,7 +25405,7 @@
         <v>0.31899172670487003</v>
       </c>
     </row>
-    <row r="912" spans="1:10" ht="13" customHeight="1">
+    <row r="912" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A912" s="6" t="s">
         <v>10</v>
       </c>
@@ -25431,7 +25432,7 @@
         <v>-0.34543064249617061</v>
       </c>
     </row>
-    <row r="913" spans="1:10" ht="13" customHeight="1">
+    <row r="913" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A913" s="6" t="s">
         <v>10</v>
       </c>
@@ -25457,7 +25458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="914" spans="1:10" ht="13" customHeight="1">
+    <row r="914" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A914" s="6" t="s">
         <v>10</v>
       </c>
@@ -25484,7 +25485,7 @@
         <v>0.38759689922480622</v>
       </c>
     </row>
-    <row r="915" spans="1:10" ht="13" customHeight="1">
+    <row r="915" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A915" s="6" t="s">
         <v>10</v>
       </c>
@@ -25511,7 +25512,7 @@
         <v>-1.8223330937381082E-2</v>
       </c>
     </row>
-    <row r="916" spans="1:10" ht="13" customHeight="1">
+    <row r="916" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A916" s="6" t="s">
         <v>10</v>
       </c>
@@ -25537,7 +25538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="917" spans="1:10" ht="13" customHeight="1">
+    <row r="917" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A917" s="6" t="s">
         <v>10</v>
       </c>
@@ -25564,7 +25565,7 @@
         <v>0.64016337124971368</v>
       </c>
     </row>
-    <row r="918" spans="1:10" ht="13" customHeight="1">
+    <row r="918" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A918" s="6" t="s">
         <v>10</v>
       </c>
@@ -25591,7 +25592,7 @@
         <v>-0.46498662364449528</v>
       </c>
     </row>
-    <row r="919" spans="1:10" ht="21" customHeight="1">
+    <row r="919" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A919" s="6" t="s">
         <v>10</v>
       </c>
@@ -25617,7 +25618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="920" spans="1:10" ht="13" customHeight="1">
+    <row r="920" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A920" s="6" t="s">
         <v>10</v>
       </c>
@@ -25644,7 +25645,7 @@
         <v>0.46304335243387162</v>
       </c>
     </row>
-    <row r="921" spans="1:10" ht="13" customHeight="1">
+    <row r="921" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A921" s="6" t="s">
         <v>10</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>-0.287428854243999</v>
       </c>
     </row>
-    <row r="922" spans="1:10" ht="31" customHeight="1">
+    <row r="922" spans="1:10" ht="31" hidden="1" customHeight="1">
       <c r="A922" s="10" t="s">
         <v>10</v>
       </c>
@@ -25694,7 +25695,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="923" spans="1:10" ht="13" customHeight="1">
+    <row r="923" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A923" s="10" t="s">
         <v>10</v>
       </c>
@@ -25717,7 +25718,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="924" spans="1:10" ht="13" customHeight="1">
+    <row r="924" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A924" s="10" t="s">
         <v>10</v>
       </c>
@@ -25740,7 +25741,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="925" spans="1:10" ht="40" customHeight="1">
+    <row r="925" spans="1:10" ht="40" hidden="1" customHeight="1">
       <c r="A925" s="10" t="s">
         <v>10</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="926" spans="1:10" ht="13" customHeight="1">
+    <row r="926" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A926" s="10" t="s">
         <v>10</v>
       </c>
@@ -25786,7 +25787,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="927" spans="1:10" ht="13" customHeight="1">
+    <row r="927" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A927" s="10" t="s">
         <v>10</v>
       </c>
@@ -25809,7 +25810,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="43" customHeight="1">
+    <row r="928" spans="1:10" ht="43" hidden="1" customHeight="1">
       <c r="A928" s="10" t="s">
         <v>10</v>
       </c>
@@ -25832,7 +25833,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="13" customHeight="1">
+    <row r="929" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A929" s="2" t="s">
         <v>10</v>
       </c>
@@ -25857,7 +25858,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="930" spans="1:10" ht="13" customHeight="1">
+    <row r="930" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A930" s="10" t="s">
         <v>10</v>
       </c>
@@ -25880,7 +25881,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="931" spans="1:10" ht="13" customHeight="1">
+    <row r="931" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A931" s="10" t="s">
         <v>10</v>
       </c>
@@ -25900,7 +25901,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="932" spans="1:10" ht="13" customHeight="1">
+    <row r="932" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A932" s="10" t="s">
         <v>10</v>
       </c>
@@ -25923,7 +25924,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="933" spans="1:10" ht="13" customHeight="1">
+    <row r="933" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A933" s="2" t="s">
         <v>10</v>
       </c>
@@ -25947,7 +25948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="934" spans="1:10" ht="13" customHeight="1">
+    <row r="934" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A934" s="2" t="s">
         <v>10</v>
       </c>
@@ -25974,7 +25975,7 @@
         <v>6.9717288162176996E-2</v>
       </c>
     </row>
-    <row r="935" spans="1:10" ht="13" customHeight="1">
+    <row r="935" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A935" s="2" t="s">
         <v>10</v>
       </c>
@@ -26001,7 +26002,7 @@
         <v>0.60497168030207682</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="13" customHeight="1">
+    <row r="936" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A936" s="2" t="s">
         <v>10</v>
       </c>
@@ -26025,7 +26026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="937" spans="1:10" ht="13" customHeight="1">
+    <row r="937" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A937" s="2" t="s">
         <v>10</v>
       </c>
@@ -26052,7 +26053,7 @@
         <v>9.3440478415249481E-2</v>
       </c>
     </row>
-    <row r="938" spans="1:10" ht="13" customHeight="1">
+    <row r="938" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A938" s="2" t="s">
         <v>10</v>
       </c>
@@ -26079,7 +26080,7 @@
         <v>-0.32033532325670011</v>
       </c>
     </row>
-    <row r="939" spans="1:10" ht="13" customHeight="1">
+    <row r="939" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A939" s="10" t="s">
         <v>10</v>
       </c>
@@ -26102,7 +26103,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="940" spans="1:10" ht="13" customHeight="1">
+    <row r="940" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A940" s="10" t="s">
         <v>10</v>
       </c>
@@ -26125,7 +26126,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="941" spans="1:10" ht="13" customHeight="1">
+    <row r="941" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A941" s="10" t="s">
         <v>10</v>
       </c>
@@ -26148,7 +26149,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="942" spans="1:10" ht="13" customHeight="1">
+    <row r="942" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A942" s="10" t="s">
         <v>10</v>
       </c>
@@ -26171,7 +26172,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="943" spans="1:10" ht="13" customHeight="1">
+    <row r="943" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A943" s="10" t="s">
         <v>10</v>
       </c>
@@ -26194,7 +26195,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="944" spans="1:10" ht="13" customHeight="1">
+    <row r="944" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A944" s="10" t="s">
         <v>10</v>
       </c>
@@ -26295,7 +26296,7 @@
         <v>0.38106796116504854</v>
       </c>
     </row>
-    <row r="948" spans="1:10" ht="13" customHeight="1">
+    <row r="948" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A948" s="10" t="s">
         <v>10</v>
       </c>
@@ -26318,7 +26319,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="949" spans="1:10" ht="13" customHeight="1">
+    <row r="949" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A949" s="10" t="s">
         <v>10</v>
       </c>
@@ -26341,7 +26342,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="950" spans="1:10" ht="13" customHeight="1">
+    <row r="950" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A950" s="10" t="s">
         <v>10</v>
       </c>
@@ -26364,7 +26365,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="951" spans="1:10" ht="13" customHeight="1">
+    <row r="951" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A951" s="10" t="s">
         <v>10</v>
       </c>
@@ -26387,7 +26388,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="952" spans="1:10" ht="13" customHeight="1">
+    <row r="952" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A952" s="10" t="s">
         <v>10</v>
       </c>
@@ -26410,7 +26411,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="953" spans="1:10" ht="13" customHeight="1">
+    <row r="953" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A953" s="10" t="s">
         <v>10</v>
       </c>
@@ -26433,7 +26434,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="954" spans="1:10" ht="13" customHeight="1">
+    <row r="954" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A954" s="10" t="s">
         <v>10</v>
       </c>
@@ -26456,7 +26457,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="955" spans="1:10" ht="13" customHeight="1">
+    <row r="955" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A955" s="10" t="s">
         <v>10</v>
       </c>
@@ -26479,7 +26480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="956" spans="1:10" ht="13" customHeight="1">
+    <row r="956" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A956" s="10" t="s">
         <v>10</v>
       </c>
@@ -26502,7 +26503,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="957" spans="1:10" ht="13" customHeight="1">
+    <row r="957" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A957" s="10" t="s">
         <v>10</v>
       </c>
@@ -26525,7 +26526,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="958" spans="1:10" ht="13" customHeight="1">
+    <row r="958" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A958" s="10" t="s">
         <v>10</v>
       </c>
@@ -26548,7 +26549,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="959" spans="1:10" ht="13" customHeight="1">
+    <row r="959" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A959" s="10" t="s">
         <v>10</v>
       </c>
@@ -26571,7 +26572,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="960" spans="1:10" ht="13" customHeight="1">
+    <row r="960" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A960" s="10" t="s">
         <v>10</v>
       </c>
@@ -26594,7 +26595,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="961" spans="1:8" ht="13" customHeight="1">
+    <row r="961" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A961" s="10" t="s">
         <v>10</v>
       </c>
@@ -26617,7 +26618,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="962" spans="1:8" ht="13" customHeight="1">
+    <row r="962" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A962" s="10" t="s">
         <v>10</v>
       </c>
@@ -26640,7 +26641,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="963" spans="1:8" ht="13" customHeight="1">
+    <row r="963" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A963" s="10" t="s">
         <v>10</v>
       </c>
@@ -26663,7 +26664,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="13" customHeight="1">
+    <row r="964" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A964" s="10" t="s">
         <v>10</v>
       </c>
@@ -26686,7 +26687,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="13" customHeight="1">
+    <row r="965" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A965" s="10" t="s">
         <v>10</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="966" spans="1:8" ht="13" customHeight="1">
+    <row r="966" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A966" s="10" t="s">
         <v>10</v>
       </c>
@@ -26732,7 +26733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="967" spans="1:8" ht="13" customHeight="1">
+    <row r="967" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A967" s="10" t="s">
         <v>10</v>
       </c>
@@ -26755,7 +26756,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="13" customHeight="1">
+    <row r="968" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A968" s="10" t="s">
         <v>10</v>
       </c>
@@ -26778,7 +26779,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="969" spans="1:8" ht="13" customHeight="1">
+    <row r="969" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A969" s="10" t="s">
         <v>10</v>
       </c>
@@ -26801,7 +26802,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="970" spans="1:8" ht="13" customHeight="1">
+    <row r="970" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A970" s="10" t="s">
         <v>10</v>
       </c>
@@ -26824,7 +26825,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="971" spans="1:8" ht="13" customHeight="1">
+    <row r="971" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A971" s="10" t="s">
         <v>10</v>
       </c>
@@ -26847,7 +26848,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="972" spans="1:8" ht="13" customHeight="1">
+    <row r="972" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A972" s="10" t="s">
         <v>10</v>
       </c>
@@ -26870,7 +26871,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="13" customHeight="1">
+    <row r="973" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A973" s="10" t="s">
         <v>10</v>
       </c>
@@ -26893,7 +26894,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="974" spans="1:8" ht="13" customHeight="1">
+    <row r="974" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A974" s="10" t="s">
         <v>10</v>
       </c>
@@ -26916,7 +26917,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="975" spans="1:8" ht="13" customHeight="1">
+    <row r="975" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A975" s="10" t="s">
         <v>10</v>
       </c>
@@ -26939,7 +26940,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="976" spans="1:8" ht="13" customHeight="1">
+    <row r="976" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A976" s="10" t="s">
         <v>10</v>
       </c>
@@ -26962,7 +26963,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="977" spans="1:8" ht="13" customHeight="1">
+    <row r="977" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A977" s="10" t="s">
         <v>10</v>
       </c>
@@ -26985,7 +26986,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="978" spans="1:8" ht="13" customHeight="1">
+    <row r="978" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A978" s="10" t="s">
         <v>10</v>
       </c>
@@ -27008,7 +27009,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="979" spans="1:8" ht="13" customHeight="1">
+    <row r="979" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A979" s="10" t="s">
         <v>10</v>
       </c>
@@ -27031,7 +27032,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="980" spans="1:8" ht="13" customHeight="1">
+    <row r="980" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A980" s="10" t="s">
         <v>10</v>
       </c>
@@ -27054,7 +27055,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="981" spans="1:8" ht="13" customHeight="1">
+    <row r="981" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A981" s="10" t="s">
         <v>10</v>
       </c>
@@ -27077,7 +27078,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="982" spans="1:8" ht="13" customHeight="1">
+    <row r="982" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A982" s="10" t="s">
         <v>10</v>
       </c>
@@ -27100,7 +27101,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="983" spans="1:8" ht="13" customHeight="1">
+    <row r="983" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A983" s="10" t="s">
         <v>10</v>
       </c>
@@ -27123,7 +27124,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="984" spans="1:8" ht="13" customHeight="1">
+    <row r="984" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A984" s="10" t="s">
         <v>10</v>
       </c>
@@ -27146,7 +27147,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="985" spans="1:8" ht="13" customHeight="1">
+    <row r="985" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A985" s="10" t="s">
         <v>10</v>
       </c>
@@ -27169,7 +27170,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="986" spans="1:8" ht="13" customHeight="1">
+    <row r="986" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A986" s="10" t="s">
         <v>10</v>
       </c>
@@ -27192,7 +27193,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="987" spans="1:8" ht="13" customHeight="1">
+    <row r="987" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A987" s="10" t="s">
         <v>10</v>
       </c>
@@ -27215,7 +27216,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="988" spans="1:8" ht="13" customHeight="1">
+    <row r="988" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A988" s="10" t="s">
         <v>10</v>
       </c>
@@ -27238,7 +27239,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="989" spans="1:8" ht="13" customHeight="1">
+    <row r="989" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A989" s="10" t="s">
         <v>10</v>
       </c>
@@ -27261,7 +27262,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="990" spans="1:8" ht="13" customHeight="1">
+    <row r="990" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A990" s="10" t="s">
         <v>10</v>
       </c>
@@ -27284,7 +27285,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="991" spans="1:8" ht="13" customHeight="1">
+    <row r="991" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A991" s="10" t="s">
         <v>10</v>
       </c>
@@ -27307,7 +27308,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="992" spans="1:8" ht="13" customHeight="1">
+    <row r="992" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A992" s="10" t="s">
         <v>10</v>
       </c>
@@ -27330,7 +27331,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="993" spans="1:8" ht="13" customHeight="1">
+    <row r="993" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A993" s="10" t="s">
         <v>10</v>
       </c>
@@ -27353,7 +27354,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="994" spans="1:8" ht="13" customHeight="1">
+    <row r="994" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A994" s="10" t="s">
         <v>10</v>
       </c>
@@ -27376,7 +27377,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="995" spans="1:8" ht="13" customHeight="1">
+    <row r="995" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A995" s="10" t="s">
         <v>10</v>
       </c>
@@ -27399,7 +27400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="996" spans="1:8" ht="13" customHeight="1">
+    <row r="996" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A996" s="10" t="s">
         <v>10</v>
       </c>
@@ -27422,7 +27423,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="997" spans="1:8" ht="13" customHeight="1">
+    <row r="997" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A997" s="10" t="s">
         <v>10</v>
       </c>
@@ -27445,7 +27446,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="998" spans="1:8" ht="13" customHeight="1">
+    <row r="998" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A998" s="10" t="s">
         <v>10</v>
       </c>
@@ -27468,7 +27469,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="999" spans="1:8" ht="13" customHeight="1">
+    <row r="999" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A999" s="10" t="s">
         <v>10</v>
       </c>
@@ -27491,7 +27492,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" ht="13" customHeight="1">
+    <row r="1000" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1000" s="10" t="s">
         <v>10</v>
       </c>
@@ -27514,7 +27515,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" ht="13" customHeight="1">
+    <row r="1001" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1001" s="10" t="s">
         <v>10</v>
       </c>
@@ -27534,7 +27535,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" ht="13" customHeight="1">
+    <row r="1002" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1002" s="10" t="s">
         <v>10</v>
       </c>
@@ -27557,7 +27558,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" ht="13" customHeight="1">
+    <row r="1003" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1003" s="10" t="s">
         <v>10</v>
       </c>
@@ -27577,7 +27578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" ht="13" customHeight="1">
+    <row r="1004" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1004" s="10" t="s">
         <v>10</v>
       </c>
@@ -27600,7 +27601,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" ht="13" customHeight="1">
+    <row r="1005" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1005" s="10" t="s">
         <v>10</v>
       </c>
@@ -27623,7 +27624,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" ht="13" customHeight="1">
+    <row r="1006" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1006" s="10" t="s">
         <v>10</v>
       </c>
@@ -27646,7 +27647,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" ht="13" customHeight="1">
+    <row r="1007" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1007" s="10" t="s">
         <v>10</v>
       </c>
@@ -27669,7 +27670,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1008" spans="1:8" ht="13" customHeight="1">
+    <row r="1008" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1008" s="10" t="s">
         <v>10</v>
       </c>
@@ -27692,7 +27693,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" ht="13" customHeight="1">
+    <row r="1009" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1009" s="10" t="s">
         <v>10</v>
       </c>
@@ -27715,7 +27716,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" ht="13" customHeight="1">
+    <row r="1010" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1010" s="10" t="s">
         <v>10</v>
       </c>
@@ -27738,7 +27739,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" ht="13" customHeight="1">
+    <row r="1011" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1011" s="10" t="s">
         <v>10</v>
       </c>
@@ -27761,7 +27762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" ht="13" customHeight="1">
+    <row r="1012" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1012" s="10" t="s">
         <v>10</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" ht="13" customHeight="1">
+    <row r="1013" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1013" s="10" t="s">
         <v>10</v>
       </c>
@@ -27810,7 +27811,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" ht="13" customHeight="1">
+    <row r="1014" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1014" s="10" t="s">
         <v>10</v>
       </c>
@@ -27836,7 +27837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" ht="13" customHeight="1">
+    <row r="1015" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1015" s="10" t="s">
         <v>10</v>
       </c>
@@ -27862,7 +27863,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" ht="13" customHeight="1">
+    <row r="1016" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1016" s="10" t="s">
         <v>10</v>
       </c>
@@ -27888,7 +27889,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" ht="13" customHeight="1">
+    <row r="1017" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1017" s="10" t="s">
         <v>10</v>
       </c>
@@ -27914,7 +27915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" ht="13" customHeight="1">
+    <row r="1018" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1018" s="10" t="s">
         <v>10</v>
       </c>
@@ -27940,7 +27941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" ht="13" customHeight="1">
+    <row r="1019" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1019" s="10" t="s">
         <v>10</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" ht="13" customHeight="1">
+    <row r="1020" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1020" s="10" t="s">
         <v>10</v>
       </c>
@@ -27992,7 +27993,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" ht="13" customHeight="1">
+    <row r="1021" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1021" s="10" t="s">
         <v>10</v>
       </c>
@@ -28018,7 +28019,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" ht="13" customHeight="1">
+    <row r="1022" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1022" s="10" t="s">
         <v>10</v>
       </c>
@@ -28044,7 +28045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" ht="13" customHeight="1">
+    <row r="1023" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1023" s="10" t="s">
         <v>10</v>
       </c>
@@ -28070,7 +28071,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" ht="13" customHeight="1">
+    <row r="1024" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1024" s="10" t="s">
         <v>10</v>
       </c>
@@ -28096,7 +28097,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" ht="13" customHeight="1">
+    <row r="1025" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1025" s="10" t="s">
         <v>10</v>
       </c>
@@ -28119,7 +28120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="1026" spans="1:8" ht="13" customHeight="1">
+    <row r="1026" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1026" s="10" t="s">
         <v>10</v>
       </c>
@@ -28142,7 +28143,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="1027" spans="1:8" ht="13" customHeight="1">
+    <row r="1027" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1027" s="10" t="s">
         <v>10</v>
       </c>
@@ -28165,7 +28166,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="1028" spans="1:8" ht="13" customHeight="1">
+    <row r="1028" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1028" s="10" t="s">
         <v>10</v>
       </c>
@@ -28191,7 +28192,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1029" spans="1:8" ht="13" customHeight="1">
+    <row r="1029" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1029" s="10" t="s">
         <v>10</v>
       </c>
@@ -28217,7 +28218,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" ht="13" customHeight="1">
+    <row r="1030" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1030" s="10" t="s">
         <v>10</v>
       </c>
@@ -28243,7 +28244,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" ht="13" customHeight="1">
+    <row r="1031" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1031" s="10" t="s">
         <v>10</v>
       </c>
@@ -28269,7 +28270,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1032" spans="1:8" ht="13" customHeight="1">
+    <row r="1032" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1032" s="10" t="s">
         <v>10</v>
       </c>
@@ -28295,7 +28296,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" ht="13" customHeight="1">
+    <row r="1033" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1033" s="10" t="s">
         <v>10</v>
       </c>
@@ -28321,7 +28322,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" ht="13" customHeight="1">
+    <row r="1034" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1034" s="10" t="s">
         <v>10</v>
       </c>
@@ -28347,7 +28348,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1035" spans="1:8" ht="13" customHeight="1">
+    <row r="1035" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1035" s="10" t="s">
         <v>10</v>
       </c>
@@ -28373,7 +28374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1036" spans="1:8" ht="13" customHeight="1">
+    <row r="1036" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1036" s="10" t="s">
         <v>10</v>
       </c>
@@ -28399,7 +28400,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" ht="13" customHeight="1">
+    <row r="1037" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1037" s="10" t="s">
         <v>10</v>
       </c>
@@ -28425,7 +28426,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="1038" spans="1:8" ht="13" customHeight="1">
+    <row r="1038" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1038" s="10" t="s">
         <v>10</v>
       </c>
@@ -28451,7 +28452,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1039" spans="1:8" ht="13" customHeight="1">
+    <row r="1039" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1039" s="10" t="s">
         <v>10</v>
       </c>
@@ -28477,7 +28478,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" ht="13" customHeight="1">
+    <row r="1040" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1040" s="10" t="s">
         <v>10</v>
       </c>
@@ -28503,7 +28504,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" ht="13" customHeight="1">
+    <row r="1041" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1041" s="10" t="s">
         <v>10</v>
       </c>
@@ -28529,7 +28530,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" ht="13" customHeight="1">
+    <row r="1042" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1042" s="10" t="s">
         <v>10</v>
       </c>
@@ -28555,7 +28556,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" ht="13" customHeight="1">
+    <row r="1043" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1043" s="10" t="s">
         <v>10</v>
       </c>
@@ -28578,7 +28579,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1044" spans="1:8" ht="13" customHeight="1">
+    <row r="1044" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1044" s="10" t="s">
         <v>10</v>
       </c>
@@ -28601,7 +28602,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1045" spans="1:8" ht="13" customHeight="1">
+    <row r="1045" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1045" s="10" t="s">
         <v>10</v>
       </c>
@@ -28624,7 +28625,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" ht="13" customHeight="1">
+    <row r="1046" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1046" s="10" t="s">
         <v>10</v>
       </c>
@@ -28650,7 +28651,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" ht="13" customHeight="1">
+    <row r="1047" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1047" s="10" t="s">
         <v>10</v>
       </c>
@@ -28676,7 +28677,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" ht="13" customHeight="1">
+    <row r="1048" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1048" s="10" t="s">
         <v>10</v>
       </c>
@@ -28702,7 +28703,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" ht="13" customHeight="1">
+    <row r="1049" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1049" s="10" t="s">
         <v>10</v>
       </c>
@@ -28728,7 +28729,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1050" spans="1:8" ht="13" customHeight="1">
+    <row r="1050" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1050" s="10" t="s">
         <v>10</v>
       </c>
@@ -28754,7 +28755,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" ht="13" customHeight="1">
+    <row r="1051" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1051" s="10" t="s">
         <v>10</v>
       </c>
@@ -28780,7 +28781,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" ht="13" customHeight="1">
+    <row r="1052" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1052" s="10" t="s">
         <v>10</v>
       </c>
@@ -28806,7 +28807,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" ht="13" customHeight="1">
+    <row r="1053" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1053" s="10" t="s">
         <v>10</v>
       </c>
@@ -28832,7 +28833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" ht="13" customHeight="1">
+    <row r="1054" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1054" s="10" t="s">
         <v>10</v>
       </c>
@@ -28858,7 +28859,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" ht="13" customHeight="1">
+    <row r="1055" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1055" s="10" t="s">
         <v>10</v>
       </c>
@@ -28884,7 +28885,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" ht="13" customHeight="1">
+    <row r="1056" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1056" s="10" t="s">
         <v>10</v>
       </c>
@@ -28910,7 +28911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" ht="13" customHeight="1">
+    <row r="1057" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1057" s="10" t="s">
         <v>10</v>
       </c>
@@ -28936,7 +28937,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" ht="13" customHeight="1">
+    <row r="1058" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1058" s="10" t="s">
         <v>10</v>
       </c>
@@ -28962,7 +28963,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" ht="13" customHeight="1">
+    <row r="1059" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1059" s="10" t="s">
         <v>10</v>
       </c>
@@ -28988,7 +28989,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" ht="13" customHeight="1">
+    <row r="1060" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1060" s="10" t="s">
         <v>10</v>
       </c>
@@ -29014,7 +29015,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" ht="13" customHeight="1">
+    <row r="1061" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1061" s="10" t="s">
         <v>10</v>
       </c>
@@ -29040,7 +29041,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" ht="13" customHeight="1">
+    <row r="1062" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1062" s="10" t="s">
         <v>10</v>
       </c>
@@ -29066,7 +29067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" ht="13" customHeight="1">
+    <row r="1063" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1063" s="10" t="s">
         <v>10</v>
       </c>
@@ -29092,7 +29093,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1064" spans="1:8" ht="13" customHeight="1">
+    <row r="1064" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1064" s="10" t="s">
         <v>10</v>
       </c>
@@ -29118,7 +29119,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" ht="13" customHeight="1">
+    <row r="1065" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1065" s="10" t="s">
         <v>10</v>
       </c>
@@ -29144,7 +29145,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1066" spans="1:8" ht="13" customHeight="1">
+    <row r="1066" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1066" s="10" t="s">
         <v>10</v>
       </c>
@@ -29170,7 +29171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" ht="13" customHeight="1">
+    <row r="1067" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1067" s="10" t="s">
         <v>10</v>
       </c>
@@ -29196,7 +29197,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" ht="13" customHeight="1">
+    <row r="1068" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1068" s="10" t="s">
         <v>10</v>
       </c>
@@ -29222,7 +29223,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" ht="13" customHeight="1">
+    <row r="1069" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1069" s="10" t="s">
         <v>10</v>
       </c>
@@ -29248,7 +29249,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1070" spans="1:8" ht="13" customHeight="1">
+    <row r="1070" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1070" s="10" t="s">
         <v>10</v>
       </c>
@@ -29274,7 +29275,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" ht="13" customHeight="1">
+    <row r="1071" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1071" s="10" t="s">
         <v>10</v>
       </c>
@@ -29300,7 +29301,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" ht="13" customHeight="1">
+    <row r="1072" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1072" s="10" t="s">
         <v>10</v>
       </c>
@@ -29326,7 +29327,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1073" spans="1:10" ht="13" customHeight="1">
+    <row r="1073" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1073" s="10" t="s">
         <v>10</v>
       </c>
@@ -29352,7 +29353,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1074" spans="1:10" ht="13" customHeight="1">
+    <row r="1074" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1074" s="10" t="s">
         <v>10</v>
       </c>
@@ -29378,7 +29379,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1075" spans="1:10" ht="13" customHeight="1">
+    <row r="1075" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1075" s="10" t="s">
         <v>10</v>
       </c>
@@ -29404,7 +29405,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1076" spans="1:10" ht="13" customHeight="1">
+    <row r="1076" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1076" s="10" t="s">
         <v>10</v>
       </c>
@@ -29427,7 +29428,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="1077" spans="1:10" ht="13" customHeight="1">
+    <row r="1077" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1077" s="10" t="s">
         <v>10</v>
       </c>
@@ -29450,7 +29451,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="1078" spans="1:10" s="16" customFormat="1" ht="13" customHeight="1">
+    <row r="1078" spans="1:10" s="16" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A1078" s="10" t="s">
         <v>10</v>
       </c>
@@ -29476,7 +29477,7 @@
       <c r="I1078" s="10"/>
       <c r="J1078" s="11"/>
     </row>
-    <row r="1079" spans="1:10" ht="13" customHeight="1">
+    <row r="1079" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1079" s="10" t="s">
         <v>10</v>
       </c>
@@ -29499,7 +29500,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="1080" spans="1:10" ht="13" customHeight="1">
+    <row r="1080" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1080" s="10" t="s">
         <v>10</v>
       </c>
@@ -29522,7 +29523,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="1081" spans="1:10" ht="13" customHeight="1">
+    <row r="1081" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1081" s="10" t="s">
         <v>10</v>
       </c>
@@ -29545,7 +29546,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="1082" spans="1:10" ht="13" customHeight="1">
+    <row r="1082" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1082" s="10" t="s">
         <v>10</v>
       </c>
@@ -29568,7 +29569,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1083" spans="1:10" ht="13" customHeight="1">
+    <row r="1083" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1083" s="10" t="s">
         <v>10</v>
       </c>
@@ -29591,7 +29592,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1084" spans="1:10" ht="13" customHeight="1">
+    <row r="1084" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1084" s="10" t="s">
         <v>10</v>
       </c>
@@ -29614,7 +29615,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1085" spans="1:10" ht="13" customHeight="1">
+    <row r="1085" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1085" s="10" t="s">
         <v>10</v>
       </c>
@@ -29637,7 +29638,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1086" spans="1:10" ht="13" customHeight="1">
+    <row r="1086" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1086" s="10" t="s">
         <v>10</v>
       </c>
@@ -29660,7 +29661,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1087" spans="1:10" ht="13" customHeight="1">
+    <row r="1087" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1087" s="10" t="s">
         <v>10</v>
       </c>
@@ -29683,7 +29684,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1088" spans="1:10" ht="13" customHeight="1">
+    <row r="1088" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1088" s="10" t="s">
         <v>10</v>
       </c>
@@ -29706,7 +29707,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1089" spans="1:8" ht="13" customHeight="1">
+    <row r="1089" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1089" s="10" t="s">
         <v>10</v>
       </c>
@@ -29729,7 +29730,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1090" spans="1:8" ht="13" customHeight="1">
+    <row r="1090" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1090" s="10" t="s">
         <v>10</v>
       </c>
@@ -29752,7 +29753,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1091" spans="1:8" ht="13" customHeight="1">
+    <row r="1091" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1091" s="10" t="s">
         <v>10</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="1092" spans="1:8" ht="13" customHeight="1">
+    <row r="1092" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1092" s="10" t="s">
         <v>10</v>
       </c>
@@ -29798,7 +29799,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" ht="13" customHeight="1">
+    <row r="1093" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1093" s="10" t="s">
         <v>10</v>
       </c>
@@ -29821,7 +29822,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="1094" spans="1:8" ht="13" customHeight="1">
+    <row r="1094" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1094" s="10" t="s">
         <v>10</v>
       </c>
@@ -29844,7 +29845,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" ht="13" customHeight="1">
+    <row r="1095" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1095" s="10" t="s">
         <v>10</v>
       </c>
@@ -29867,7 +29868,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="1096" spans="1:8" ht="13" customHeight="1">
+    <row r="1096" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1096" s="10" t="s">
         <v>10</v>
       </c>
@@ -29890,7 +29891,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" ht="13" customHeight="1">
+    <row r="1097" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1097" s="10" t="s">
         <v>10</v>
       </c>
@@ -29913,7 +29914,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1098" spans="1:8" ht="13" customHeight="1">
+    <row r="1098" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1098" s="10" t="s">
         <v>10</v>
       </c>
@@ -29936,7 +29937,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" ht="13" customHeight="1">
+    <row r="1099" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1099" s="10" t="s">
         <v>10</v>
       </c>
@@ -29959,7 +29960,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1100" spans="1:8" ht="13" customHeight="1">
+    <row r="1100" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1100" s="10" t="s">
         <v>10</v>
       </c>
@@ -29982,7 +29983,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" ht="13" customHeight="1">
+    <row r="1101" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1101" s="10" t="s">
         <v>10</v>
       </c>
@@ -30005,7 +30006,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" ht="13" customHeight="1">
+    <row r="1102" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1102" s="10" t="s">
         <v>10</v>
       </c>
@@ -30028,7 +30029,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" ht="13" customHeight="1">
+    <row r="1103" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1103" s="10" t="s">
         <v>10</v>
       </c>
@@ -30051,7 +30052,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" ht="13" customHeight="1">
+    <row r="1104" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1104" s="10" t="s">
         <v>10</v>
       </c>
@@ -30074,7 +30075,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" ht="13" customHeight="1">
+    <row r="1105" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1105" s="10" t="s">
         <v>10</v>
       </c>
@@ -30097,7 +30098,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="1106" spans="1:8" ht="13" customHeight="1">
+    <row r="1106" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1106" s="10" t="s">
         <v>10</v>
       </c>
@@ -30117,7 +30118,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" ht="13" customHeight="1">
+    <row r="1107" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1107" s="10" t="s">
         <v>10</v>
       </c>
@@ -30140,7 +30141,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" ht="13" customHeight="1">
+    <row r="1108" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1108" s="10" t="s">
         <v>10</v>
       </c>
@@ -30160,7 +30161,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" ht="13" customHeight="1">
+    <row r="1109" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1109" s="10" t="s">
         <v>10</v>
       </c>
@@ -30183,7 +30184,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" ht="13" customHeight="1">
+    <row r="1110" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1110" s="10" t="s">
         <v>10</v>
       </c>
@@ -30206,7 +30207,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" ht="13" customHeight="1">
+    <row r="1111" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1111" s="10" t="s">
         <v>10</v>
       </c>
@@ -30229,7 +30230,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" ht="13" customHeight="1">
+    <row r="1112" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1112" s="10" t="s">
         <v>10</v>
       </c>
@@ -30252,7 +30253,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" ht="13" customHeight="1">
+    <row r="1113" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1113" s="10" t="s">
         <v>10</v>
       </c>
@@ -30275,7 +30276,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" ht="13" customHeight="1">
+    <row r="1114" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1114" s="10" t="s">
         <v>10</v>
       </c>
@@ -30298,7 +30299,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" ht="13" customHeight="1">
+    <row r="1115" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1115" s="10" t="s">
         <v>10</v>
       </c>
@@ -30321,7 +30322,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="1116" spans="1:8" ht="13" customHeight="1">
+    <row r="1116" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1116" s="10" t="s">
         <v>10</v>
       </c>
@@ -30344,7 +30345,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" ht="13" customHeight="1">
+    <row r="1117" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1117" s="10" t="s">
         <v>10</v>
       </c>
@@ -30367,7 +30368,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1118" spans="1:8" ht="13" customHeight="1">
+    <row r="1118" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1118" s="10" t="s">
         <v>10</v>
       </c>
@@ -30390,7 +30391,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" ht="13" customHeight="1">
+    <row r="1119" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1119" s="10" t="s">
         <v>10</v>
       </c>
@@ -30413,7 +30414,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" ht="13" customHeight="1">
+    <row r="1120" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1120" s="10" t="s">
         <v>10</v>
       </c>
@@ -30436,7 +30437,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" ht="13" customHeight="1">
+    <row r="1121" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1121" s="10" t="s">
         <v>10</v>
       </c>
@@ -30459,7 +30460,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="1122" spans="1:8" ht="13" customHeight="1">
+    <row r="1122" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1122" s="10" t="s">
         <v>10</v>
       </c>
@@ -30482,7 +30483,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" ht="13" customHeight="1">
+    <row r="1123" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1123" s="10" t="s">
         <v>10</v>
       </c>
@@ -30505,7 +30506,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1124" spans="1:8" ht="13" customHeight="1">
+    <row r="1124" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1124" s="10" t="s">
         <v>10</v>
       </c>
@@ -30528,7 +30529,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1125" spans="1:8" ht="13" customHeight="1">
+    <row r="1125" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1125" s="10" t="s">
         <v>10</v>
       </c>
@@ -30551,7 +30552,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1126" spans="1:8" ht="13" customHeight="1">
+    <row r="1126" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1126" s="10" t="s">
         <v>10</v>
       </c>
@@ -30574,7 +30575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="1127" spans="1:8" ht="13" customHeight="1">
+    <row r="1127" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1127" s="10" t="s">
         <v>10</v>
       </c>
@@ -30600,7 +30601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1128" spans="1:8" ht="13" customHeight="1">
+    <row r="1128" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1128" s="10" t="s">
         <v>10</v>
       </c>
@@ -30626,7 +30627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" ht="13" customHeight="1">
+    <row r="1129" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1129" s="10" t="s">
         <v>10</v>
       </c>
@@ -30652,7 +30653,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" ht="13" customHeight="1">
+    <row r="1130" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1130" s="10" t="s">
         <v>10</v>
       </c>
@@ -30678,7 +30679,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" ht="13" customHeight="1">
+    <row r="1131" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1131" s="10" t="s">
         <v>10</v>
       </c>
@@ -30704,7 +30705,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" ht="13" customHeight="1">
+    <row r="1132" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1132" s="10" t="s">
         <v>10</v>
       </c>
@@ -30730,7 +30731,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" ht="13" customHeight="1">
+    <row r="1133" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1133" s="10" t="s">
         <v>10</v>
       </c>
@@ -30756,7 +30757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1134" spans="1:8" ht="13" customHeight="1">
+    <row r="1134" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1134" s="10" t="s">
         <v>10</v>
       </c>
@@ -30782,7 +30783,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" ht="13" customHeight="1">
+    <row r="1135" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1135" s="10" t="s">
         <v>10</v>
       </c>
@@ -30808,7 +30809,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1136" spans="1:8" ht="13" customHeight="1">
+    <row r="1136" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1136" s="10" t="s">
         <v>10</v>
       </c>
@@ -30834,7 +30835,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1137" spans="1:8" ht="13" customHeight="1">
+    <row r="1137" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1137" s="10" t="s">
         <v>10</v>
       </c>
@@ -30860,7 +30861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1138" spans="1:8" ht="13" customHeight="1">
+    <row r="1138" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1138" s="10" t="s">
         <v>10</v>
       </c>
@@ -30886,7 +30887,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="1139" spans="1:8" ht="13" customHeight="1">
+    <row r="1139" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1139" s="10" t="s">
         <v>10</v>
       </c>
@@ -30912,7 +30913,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1140" spans="1:8" ht="13" customHeight="1">
+    <row r="1140" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1140" s="10" t="s">
         <v>10</v>
       </c>
@@ -30938,7 +30939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" ht="13" customHeight="1">
+    <row r="1141" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1141" s="10" t="s">
         <v>10</v>
       </c>
@@ -30964,7 +30965,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1142" spans="1:8" ht="13" customHeight="1">
+    <row r="1142" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1142" s="10" t="s">
         <v>10</v>
       </c>
@@ -30990,7 +30991,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" ht="13" customHeight="1">
+    <row r="1143" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1143" s="10" t="s">
         <v>10</v>
       </c>
@@ -31016,7 +31017,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="1144" spans="1:8" ht="13" customHeight="1">
+    <row r="1144" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1144" s="10" t="s">
         <v>10</v>
       </c>
@@ -31042,7 +31043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1145" spans="1:8" ht="13" customHeight="1">
+    <row r="1145" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1145" s="10" t="s">
         <v>10</v>
       </c>
@@ -31068,7 +31069,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1146" spans="1:8" ht="13" customHeight="1">
+    <row r="1146" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1146" s="10" t="s">
         <v>10</v>
       </c>
@@ -31094,7 +31095,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" ht="13" customHeight="1">
+    <row r="1147" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1147" s="10" t="s">
         <v>10</v>
       </c>
@@ -31120,7 +31121,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1148" spans="1:8" ht="13" customHeight="1">
+    <row r="1148" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1148" s="10" t="s">
         <v>10</v>
       </c>
@@ -31146,7 +31147,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1149" spans="1:8" ht="13" customHeight="1">
+    <row r="1149" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1149" s="10" t="s">
         <v>10</v>
       </c>
@@ -31172,7 +31173,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1150" spans="1:8" ht="13" customHeight="1">
+    <row r="1150" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1150" s="10" t="s">
         <v>10</v>
       </c>
@@ -31198,7 +31199,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="1151" spans="1:8" ht="13" customHeight="1">
+    <row r="1151" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1151" s="10" t="s">
         <v>10</v>
       </c>
@@ -31224,7 +31225,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1152" spans="1:8" ht="13" customHeight="1">
+    <row r="1152" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1152" s="10" t="s">
         <v>10</v>
       </c>
@@ -31250,7 +31251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1153" spans="1:8" ht="13" customHeight="1">
+    <row r="1153" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1153" s="10" t="s">
         <v>10</v>
       </c>
@@ -31276,7 +31277,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1154" spans="1:8" ht="13" customHeight="1">
+    <row r="1154" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1154" s="10" t="s">
         <v>10</v>
       </c>
@@ -31302,7 +31303,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1155" spans="1:8" ht="13" customHeight="1">
+    <row r="1155" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1155" s="10" t="s">
         <v>10</v>
       </c>
@@ -31328,7 +31329,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="1156" spans="1:8" ht="13" customHeight="1">
+    <row r="1156" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1156" s="10" t="s">
         <v>10</v>
       </c>
@@ -31354,7 +31355,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1157" spans="1:8" ht="13" customHeight="1">
+    <row r="1157" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1157" s="10" t="s">
         <v>10</v>
       </c>
@@ -31380,7 +31381,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1158" spans="1:8" ht="13" customHeight="1">
+    <row r="1158" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1158" s="10" t="s">
         <v>10</v>
       </c>
@@ -31406,7 +31407,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="1159" spans="1:8" ht="13" customHeight="1">
+    <row r="1159" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1159" s="10" t="s">
         <v>10</v>
       </c>
@@ -31432,7 +31433,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1160" spans="1:8" ht="13" customHeight="1">
+    <row r="1160" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1160" s="10" t="s">
         <v>10</v>
       </c>
@@ -31458,7 +31459,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1161" spans="1:8" ht="13" customHeight="1">
+    <row r="1161" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1161" s="10" t="s">
         <v>10</v>
       </c>
@@ -31484,7 +31485,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1162" spans="1:8" ht="13" customHeight="1">
+    <row r="1162" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1162" s="10" t="s">
         <v>10</v>
       </c>
@@ -31510,7 +31511,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="1163" spans="1:8" ht="13" customHeight="1">
+    <row r="1163" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1163" s="10" t="s">
         <v>10</v>
       </c>
@@ -31533,7 +31534,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="1164" spans="1:8" ht="13" customHeight="1">
+    <row r="1164" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1164" s="10" t="s">
         <v>10</v>
       </c>
@@ -31556,7 +31557,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="1165" spans="1:8" ht="13" customHeight="1">
+    <row r="1165" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1165" s="10" t="s">
         <v>10</v>
       </c>
@@ -31579,7 +31580,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1166" spans="1:8" ht="13" customHeight="1">
+    <row r="1166" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1166" s="10" t="s">
         <v>10</v>
       </c>
@@ -31605,7 +31606,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1167" spans="1:8" ht="13" customHeight="1">
+    <row r="1167" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1167" s="10" t="s">
         <v>10</v>
       </c>
@@ -31631,7 +31632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1168" spans="1:8" ht="13" customHeight="1">
+    <row r="1168" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1168" s="10" t="s">
         <v>10</v>
       </c>
@@ -31657,7 +31658,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1169" spans="1:8" ht="13" customHeight="1">
+    <row r="1169" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1169" s="10" t="s">
         <v>10</v>
       </c>
@@ -31683,7 +31684,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1170" spans="1:8" ht="13" customHeight="1">
+    <row r="1170" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1170" s="10" t="s">
         <v>10</v>
       </c>
@@ -31709,7 +31710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" ht="13" customHeight="1">
+    <row r="1171" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1171" s="10" t="s">
         <v>10</v>
       </c>
@@ -31735,7 +31736,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" ht="13" customHeight="1">
+    <row r="1172" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1172" s="10" t="s">
         <v>10</v>
       </c>
@@ -31761,7 +31762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" ht="13" customHeight="1">
+    <row r="1173" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1173" s="10" t="s">
         <v>10</v>
       </c>
@@ -31787,7 +31788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1174" spans="1:8" ht="13" customHeight="1">
+    <row r="1174" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1174" s="10" t="s">
         <v>10</v>
       </c>
@@ -31813,7 +31814,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1175" spans="1:8" ht="13" customHeight="1">
+    <row r="1175" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1175" s="10" t="s">
         <v>10</v>
       </c>
@@ -31839,7 +31840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" ht="13" customHeight="1">
+    <row r="1176" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1176" s="10" t="s">
         <v>10</v>
       </c>
@@ -31865,7 +31866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" ht="13" customHeight="1">
+    <row r="1177" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1177" s="10" t="s">
         <v>10</v>
       </c>
@@ -31891,7 +31892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1178" spans="1:8" ht="13" customHeight="1">
+    <row r="1178" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1178" s="10" t="s">
         <v>10</v>
       </c>
@@ -31917,7 +31918,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1179" spans="1:8" ht="13" customHeight="1">
+    <row r="1179" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1179" s="10" t="s">
         <v>10</v>
       </c>
@@ -31943,7 +31944,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1180" spans="1:8" ht="13" customHeight="1">
+    <row r="1180" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1180" s="10" t="s">
         <v>10</v>
       </c>
@@ -31969,7 +31970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1181" spans="1:8" ht="13" customHeight="1">
+    <row r="1181" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1181" s="10" t="s">
         <v>10</v>
       </c>
@@ -31992,7 +31993,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1182" spans="1:8" ht="13" customHeight="1">
+    <row r="1182" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1182" s="10" t="s">
         <v>10</v>
       </c>
@@ -32015,7 +32016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="1183" spans="1:8" ht="13" customHeight="1">
+    <row r="1183" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1183" s="10" t="s">
         <v>10</v>
       </c>
@@ -32038,7 +32039,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="1184" spans="1:8" ht="13" customHeight="1">
+    <row r="1184" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1184" s="10" t="s">
         <v>10</v>
       </c>
@@ -32064,7 +32065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1185" spans="1:8" ht="13" customHeight="1">
+    <row r="1185" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1185" s="10" t="s">
         <v>10</v>
       </c>
@@ -32090,7 +32091,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" ht="13" customHeight="1">
+    <row r="1186" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1186" s="10" t="s">
         <v>10</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1187" spans="1:8" ht="13" customHeight="1">
+    <row r="1187" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1187" s="10" t="s">
         <v>10</v>
       </c>
@@ -32142,7 +32143,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1188" spans="1:8" ht="13" customHeight="1">
+    <row r="1188" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1188" s="10" t="s">
         <v>10</v>
       </c>
@@ -32168,7 +32169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1189" spans="1:8" ht="13" customHeight="1">
+    <row r="1189" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1189" s="10" t="s">
         <v>10</v>
       </c>
@@ -32194,7 +32195,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1190" spans="1:8" ht="13" customHeight="1">
+    <row r="1190" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1190" s="10" t="s">
         <v>10</v>
       </c>
@@ -32220,7 +32221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1191" spans="1:8" ht="13" customHeight="1">
+    <row r="1191" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1191" s="10" t="s">
         <v>10</v>
       </c>
@@ -32246,7 +32247,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1192" spans="1:8" ht="13" customHeight="1">
+    <row r="1192" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1192" s="10" t="s">
         <v>10</v>
       </c>
@@ -32272,7 +32273,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1193" spans="1:8" ht="13" customHeight="1">
+    <row r="1193" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1193" s="10" t="s">
         <v>10</v>
       </c>
@@ -32298,7 +32299,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1194" spans="1:8" ht="13" customHeight="1">
+    <row r="1194" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1194" s="10" t="s">
         <v>10</v>
       </c>
@@ -32324,7 +32325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1195" spans="1:8" ht="10" customHeight="1">
+    <row r="1195" spans="1:8" ht="10" hidden="1" customHeight="1">
       <c r="A1195" s="10" t="s">
         <v>10</v>
       </c>
@@ -32350,7 +32351,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1196" spans="1:8" ht="13" customHeight="1">
+    <row r="1196" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1196" s="10" t="s">
         <v>10</v>
       </c>
@@ -32376,7 +32377,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1197" spans="1:8" ht="13" customHeight="1">
+    <row r="1197" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1197" s="10" t="s">
         <v>10</v>
       </c>
@@ -32402,7 +32403,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1198" spans="1:8" ht="13" customHeight="1">
+    <row r="1198" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1198" s="10" t="s">
         <v>10</v>
       </c>
@@ -32428,7 +32429,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1199" spans="1:8" ht="13" customHeight="1">
+    <row r="1199" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1199" s="10" t="s">
         <v>10</v>
       </c>
@@ -32454,7 +32455,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1200" spans="1:8" ht="13" customHeight="1">
+    <row r="1200" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1200" s="10" t="s">
         <v>10</v>
       </c>
@@ -32480,7 +32481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1201" spans="1:8" ht="13" customHeight="1">
+    <row r="1201" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1201" s="10" t="s">
         <v>10</v>
       </c>
@@ -32506,7 +32507,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1202" spans="1:8" ht="13" customHeight="1">
+    <row r="1202" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1202" s="10" t="s">
         <v>10</v>
       </c>
@@ -32529,7 +32530,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="1203" spans="1:8" ht="13" customHeight="1">
+    <row r="1203" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1203" s="10" t="s">
         <v>10</v>
       </c>
@@ -32552,7 +32553,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" ht="13" customHeight="1">
+    <row r="1204" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1204" s="10" t="s">
         <v>10</v>
       </c>
@@ -32575,7 +32576,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" ht="13" customHeight="1">
+    <row r="1205" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1205" s="10" t="s">
         <v>10</v>
       </c>
@@ -32601,7 +32602,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1206" spans="1:8" ht="13" customHeight="1">
+    <row r="1206" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1206" s="10" t="s">
         <v>10</v>
       </c>
@@ -32627,7 +32628,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" ht="13" customHeight="1">
+    <row r="1207" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1207" s="10" t="s">
         <v>10</v>
       </c>
@@ -32653,7 +32654,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1208" spans="1:8" ht="13" customHeight="1">
+    <row r="1208" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1208" s="10" t="s">
         <v>10</v>
       </c>
@@ -32679,7 +32680,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" ht="13" customHeight="1">
+    <row r="1209" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1209" s="10" t="s">
         <v>10</v>
       </c>
@@ -32705,7 +32706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" ht="13" customHeight="1">
+    <row r="1210" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1210" s="10" t="s">
         <v>10</v>
       </c>
@@ -32731,7 +32732,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" ht="13" customHeight="1">
+    <row r="1211" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1211" s="10" t="s">
         <v>10</v>
       </c>
@@ -32757,7 +32758,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1212" spans="1:8" ht="13" customHeight="1">
+    <row r="1212" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1212" s="10" t="s">
         <v>10</v>
       </c>
@@ -32783,7 +32784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1213" spans="1:8" ht="13" customHeight="1">
+    <row r="1213" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1213" s="10" t="s">
         <v>10</v>
       </c>
@@ -32809,7 +32810,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1214" spans="1:8" ht="13" customHeight="1">
+    <row r="1214" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1214" s="10" t="s">
         <v>10</v>
       </c>
@@ -32835,7 +32836,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1215" spans="1:8" ht="13" customHeight="1">
+    <row r="1215" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1215" s="10" t="s">
         <v>10</v>
       </c>
@@ -32861,7 +32862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1216" spans="1:8" ht="13" customHeight="1">
+    <row r="1216" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1216" s="10" t="s">
         <v>10</v>
       </c>
@@ -32887,7 +32888,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="1217" spans="1:8" ht="13" customHeight="1">
+    <row r="1217" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1217" s="10" t="s">
         <v>10</v>
       </c>
@@ -32913,7 +32914,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1218" spans="1:8" ht="13" customHeight="1">
+    <row r="1218" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1218" s="10" t="s">
         <v>10</v>
       </c>
@@ -32939,7 +32940,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1219" spans="1:8" ht="13" customHeight="1">
+    <row r="1219" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1219" s="10" t="s">
         <v>10</v>
       </c>
@@ -32965,7 +32966,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1220" spans="1:8" ht="13" customHeight="1">
+    <row r="1220" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1220" s="10" t="s">
         <v>10</v>
       </c>
@@ -32991,7 +32992,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1221" spans="1:8" ht="13" customHeight="1">
+    <row r="1221" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1221" s="10" t="s">
         <v>10</v>
       </c>
@@ -33017,7 +33018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1222" spans="1:8" ht="13" customHeight="1">
+    <row r="1222" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1222" s="10" t="s">
         <v>10</v>
       </c>
@@ -33043,7 +33044,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="1223" spans="1:8" ht="13" customHeight="1">
+    <row r="1223" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1223" s="10" t="s">
         <v>10</v>
       </c>
@@ -33066,7 +33067,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="1224" spans="1:8" ht="13" customHeight="1">
+    <row r="1224" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1224" s="10" t="s">
         <v>10</v>
       </c>
@@ -33089,7 +33090,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="1225" spans="1:8" ht="13" customHeight="1">
+    <row r="1225" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1225" s="10" t="s">
         <v>10</v>
       </c>
@@ -33112,7 +33113,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="1226" spans="1:8" ht="13" customHeight="1">
+    <row r="1226" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1226" s="10" t="s">
         <v>10</v>
       </c>
@@ -33135,7 +33136,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="1227" spans="1:8" ht="13" customHeight="1">
+    <row r="1227" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1227" s="10" t="s">
         <v>10</v>
       </c>
@@ -33158,7 +33159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="1228" spans="1:8" ht="13" customHeight="1">
+    <row r="1228" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1228" s="10" t="s">
         <v>10</v>
       </c>
@@ -33181,7 +33182,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1229" spans="1:8" ht="13" customHeight="1">
+    <row r="1229" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1229" s="10" t="s">
         <v>10</v>
       </c>
@@ -33204,7 +33205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1230" spans="1:8" ht="13" customHeight="1">
+    <row r="1230" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1230" s="10" t="s">
         <v>10</v>
       </c>
@@ -33227,7 +33228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1231" spans="1:8" ht="13" customHeight="1">
+    <row r="1231" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1231" s="10" t="s">
         <v>10</v>
       </c>
@@ -33250,7 +33251,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1232" spans="1:8" ht="13" customHeight="1">
+    <row r="1232" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1232" s="10" t="s">
         <v>10</v>
       </c>
@@ -33270,7 +33271,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1233" spans="1:8" ht="13" customHeight="1">
+    <row r="1233" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1233" s="10" t="s">
         <v>10</v>
       </c>
@@ -33293,7 +33294,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1234" spans="1:8" ht="13" customHeight="1">
+    <row r="1234" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1234" s="10" t="s">
         <v>10</v>
       </c>
@@ -33313,7 +33314,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1235" spans="1:8" ht="13" customHeight="1">
+    <row r="1235" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1235" s="10" t="s">
         <v>10</v>
       </c>
@@ -33336,7 +33337,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1236" spans="1:8" ht="13" customHeight="1">
+    <row r="1236" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1236" s="10" t="s">
         <v>10</v>
       </c>
@@ -33359,7 +33360,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1237" spans="1:8" ht="13" customHeight="1">
+    <row r="1237" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1237" s="10" t="s">
         <v>10</v>
       </c>
@@ -33382,7 +33383,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1238" spans="1:8" ht="13" customHeight="1">
+    <row r="1238" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1238" s="10" t="s">
         <v>10</v>
       </c>
@@ -33405,7 +33406,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1239" spans="1:8" ht="13" customHeight="1">
+    <row r="1239" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1239" s="10" t="s">
         <v>10</v>
       </c>
@@ -33425,7 +33426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1240" spans="1:8" ht="13" customHeight="1">
+    <row r="1240" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1240" s="10" t="s">
         <v>10</v>
       </c>
@@ -33448,7 +33449,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1241" spans="1:8" ht="13" customHeight="1">
+    <row r="1241" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1241" s="10" t="s">
         <v>10</v>
       </c>
@@ -33474,7 +33475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1242" spans="1:8" ht="13" customHeight="1">
+    <row r="1242" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1242" s="10" t="s">
         <v>10</v>
       </c>
@@ -33500,7 +33501,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="1243" spans="1:8" ht="13" customHeight="1">
+    <row r="1243" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1243" s="10" t="s">
         <v>10</v>
       </c>
@@ -33526,7 +33527,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="1244" spans="1:8" ht="13" customHeight="1">
+    <row r="1244" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1244" s="10" t="s">
         <v>10</v>
       </c>
@@ -33552,7 +33553,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1245" spans="1:8" ht="13" customHeight="1">
+    <row r="1245" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1245" s="10" t="s">
         <v>10</v>
       </c>
@@ -33578,7 +33579,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" ht="13" customHeight="1">
+    <row r="1246" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1246" s="10" t="s">
         <v>10</v>
       </c>
@@ -33604,7 +33605,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" ht="13" customHeight="1">
+    <row r="1247" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1247" s="10" t="s">
         <v>10</v>
       </c>
@@ -33630,7 +33631,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1248" spans="1:8" ht="13" customHeight="1">
+    <row r="1248" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1248" s="10" t="s">
         <v>10</v>
       </c>
@@ -33656,7 +33657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1249" spans="1:8" ht="13" customHeight="1">
+    <row r="1249" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1249" s="10" t="s">
         <v>10</v>
       </c>
@@ -33682,7 +33683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1250" spans="1:8" ht="13" customHeight="1">
+    <row r="1250" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1250" s="10" t="s">
         <v>10</v>
       </c>
@@ -33708,7 +33709,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1251" spans="1:8" ht="13" customHeight="1">
+    <row r="1251" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1251" s="10" t="s">
         <v>10</v>
       </c>
@@ -33734,7 +33735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1252" spans="1:8" ht="13" customHeight="1">
+    <row r="1252" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1252" s="10" t="s">
         <v>10</v>
       </c>
@@ -33760,7 +33761,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="1253" spans="1:8" ht="13" customHeight="1">
+    <row r="1253" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1253" s="10" t="s">
         <v>10</v>
       </c>
@@ -33786,7 +33787,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" ht="13" customHeight="1">
+    <row r="1254" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1254" s="10" t="s">
         <v>10</v>
       </c>
@@ -33812,7 +33813,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" ht="13" customHeight="1">
+    <row r="1255" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1255" s="10" t="s">
         <v>10</v>
       </c>
@@ -33838,7 +33839,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1256" spans="1:8" ht="13" customHeight="1">
+    <row r="1256" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1256" s="10" t="s">
         <v>10</v>
       </c>
@@ -33864,7 +33865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="1257" spans="1:8" ht="13" customHeight="1">
+    <row r="1257" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1257" s="10" t="s">
         <v>10</v>
       </c>
@@ -33890,7 +33891,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" ht="13" customHeight="1">
+    <row r="1258" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1258" s="10" t="s">
         <v>10</v>
       </c>
@@ -33916,7 +33917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1259" spans="1:8" ht="13" customHeight="1">
+    <row r="1259" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1259" s="10" t="s">
         <v>10</v>
       </c>
@@ -33942,7 +33943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1260" spans="1:8" ht="13" customHeight="1">
+    <row r="1260" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1260" s="10" t="s">
         <v>10</v>
       </c>
@@ -33968,7 +33969,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" ht="13" customHeight="1">
+    <row r="1261" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1261" s="10" t="s">
         <v>10</v>
       </c>
@@ -33994,7 +33995,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1262" spans="1:8" ht="13" customHeight="1">
+    <row r="1262" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1262" s="10" t="s">
         <v>10</v>
       </c>
@@ -34020,7 +34021,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="1263" spans="1:8" ht="13" customHeight="1">
+    <row r="1263" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1263" s="10" t="s">
         <v>10</v>
       </c>
@@ -34046,7 +34047,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="1264" spans="1:8" ht="13" customHeight="1">
+    <row r="1264" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1264" s="10" t="s">
         <v>10</v>
       </c>
@@ -34072,7 +34073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" ht="13" customHeight="1">
+    <row r="1265" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1265" s="10" t="s">
         <v>10</v>
       </c>
@@ -34098,7 +34099,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1266" spans="1:8" ht="13" customHeight="1">
+    <row r="1266" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1266" s="10" t="s">
         <v>10</v>
       </c>
@@ -34124,7 +34125,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="1267" spans="1:8" ht="13" customHeight="1">
+    <row r="1267" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1267" s="10" t="s">
         <v>10</v>
       </c>
@@ -34150,7 +34151,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1268" spans="1:8" ht="13" customHeight="1">
+    <row r="1268" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1268" s="10" t="s">
         <v>10</v>
       </c>
@@ -34176,7 +34177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1269" spans="1:8" ht="13" customHeight="1">
+    <row r="1269" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1269" s="10" t="s">
         <v>10</v>
       </c>
@@ -34202,7 +34203,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1270" spans="1:8" ht="13" customHeight="1">
+    <row r="1270" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1270" s="10" t="s">
         <v>10</v>
       </c>
@@ -34228,7 +34229,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1271" spans="1:8" ht="13" customHeight="1">
+    <row r="1271" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1271" s="10" t="s">
         <v>10</v>
       </c>
@@ -34251,7 +34252,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1272" spans="1:8" ht="13" customHeight="1">
+    <row r="1272" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1272" s="10" t="s">
         <v>10</v>
       </c>
@@ -34271,7 +34272,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1273" spans="1:8" ht="13" customHeight="1">
+    <row r="1273" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1273" s="10" t="s">
         <v>10</v>
       </c>
@@ -34294,7 +34295,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1274" spans="1:8" ht="13" customHeight="1">
+    <row r="1274" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1274" s="10" t="s">
         <v>10</v>
       </c>
@@ -34317,7 +34318,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1275" spans="1:8" ht="13" customHeight="1">
+    <row r="1275" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1275" s="10" t="s">
         <v>10</v>
       </c>
@@ -34337,7 +34338,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1276" spans="1:8" ht="13" customHeight="1">
+    <row r="1276" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1276" s="10" t="s">
         <v>10</v>
       </c>
@@ -34360,7 +34361,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1277" spans="1:8" ht="13" customHeight="1">
+    <row r="1277" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1277" s="10" t="s">
         <v>10</v>
       </c>
@@ -34383,7 +34384,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1278" spans="1:8" ht="13" customHeight="1">
+    <row r="1278" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1278" s="10" t="s">
         <v>10</v>
       </c>
@@ -34403,7 +34404,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1279" spans="1:8" ht="13" customHeight="1">
+    <row r="1279" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1279" s="10" t="s">
         <v>10</v>
       </c>
@@ -34426,7 +34427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1280" spans="1:8" ht="13" customHeight="1">
+    <row r="1280" spans="1:8" ht="13" hidden="1" customHeight="1">
       <c r="A1280" s="10" t="s">
         <v>10</v>
       </c>
@@ -34449,7 +34450,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1281" spans="1:10" ht="13" customHeight="1">
+    <row r="1281" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1281" s="10" t="s">
         <v>10</v>
       </c>
@@ -34469,7 +34470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1282" spans="1:10" ht="13" customHeight="1">
+    <row r="1282" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1282" s="10" t="s">
         <v>10</v>
       </c>
@@ -34492,7 +34493,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1283" spans="1:10" ht="13" customHeight="1">
+    <row r="1283" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1283" s="10" t="s">
         <v>10</v>
       </c>
@@ -34515,7 +34516,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1284" spans="1:10" ht="13" customHeight="1">
+    <row r="1284" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1284" s="2" t="s">
         <v>10</v>
       </c>
@@ -34535,7 +34536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1285" spans="1:10" ht="13" customHeight="1">
+    <row r="1285" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1285" s="10" t="s">
         <v>10</v>
       </c>
@@ -34558,7 +34559,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1286" spans="1:10" ht="13" customHeight="1">
+    <row r="1286" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1286" s="10" t="s">
         <v>10</v>
       </c>
@@ -34581,7 +34582,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1287" spans="1:10" ht="13" customHeight="1">
+    <row r="1287" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1287" s="2" t="s">
         <v>10</v>
       </c>
@@ -34604,7 +34605,7 @@
         <v>0.20786008644084833</v>
       </c>
     </row>
-    <row r="1288" spans="1:10" ht="13" customHeight="1">
+    <row r="1288" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1288" s="10" t="s">
         <v>10</v>
       </c>
@@ -34627,7 +34628,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1289" spans="1:10" ht="13" customHeight="1">
+    <row r="1289" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1289" s="10" t="s">
         <v>10</v>
       </c>
@@ -34650,7 +34651,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="1290" spans="1:10" ht="13" customHeight="1">
+    <row r="1290" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1290" s="2" t="s">
         <v>10</v>
       </c>
@@ -34673,7 +34674,7 @@
         <v>0.13789555705175244</v>
       </c>
     </row>
-    <row r="1291" spans="1:10" ht="13" customHeight="1">
+    <row r="1291" spans="1:10" ht="13" hidden="1" customHeight="1">
       <c r="A1291" s="10" t="s">
         <v>10</v>
       </c>
@@ -34699,12 +34700,16 @@
     <row r="1292" spans="1:10" ht="40" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:J1291">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Administration"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:J1290">
       <sortCondition ref="E1:E1291"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="220" windowWidth="36300" windowHeight="23100" tabRatio="500"/>
+    <workbookView xWindow="12260" yWindow="0" windowWidth="23980" windowHeight="23100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
@@ -1392,7 +1392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,8 +1426,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1442,6 +1448,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1588,7 +1618,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1627,6 +1657,13 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -2100,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88:D1306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -21080,856 +21117,889 @@
         <v>0.17754868904398771</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="13" customHeight="1">
-      <c r="A734" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B734" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C734" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D734" s="12">
+    <row r="734" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A734" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B734" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C734" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D734" s="29">
         <v>94437.4</v>
       </c>
-      <c r="E734" s="9" t="s">
+      <c r="E734" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F734" s="9">
+      <c r="F734" s="28">
         <v>242</v>
       </c>
-      <c r="H734" s="9" t="s">
+      <c r="H734" s="28" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="735" spans="1:10" ht="13" customHeight="1">
-      <c r="A735" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B735" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C735" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D735" s="12">
+      <c r="J734" s="30"/>
+    </row>
+    <row r="735" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A735" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B735" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C735" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D735" s="29">
         <v>22067.3</v>
       </c>
-      <c r="E735" s="9" t="s">
+      <c r="E735" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F735" s="9">
+      <c r="F735" s="28">
         <v>242</v>
       </c>
-      <c r="H735" s="9" t="s">
+      <c r="H735" s="28" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="736" spans="1:10" ht="13" customHeight="1">
-      <c r="A736" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B736" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C736" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D736" s="12">
+      <c r="J735" s="30"/>
+    </row>
+    <row r="736" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A736" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B736" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C736" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D736" s="29">
         <v>126473.60000000001</v>
       </c>
-      <c r="E736" s="9" t="s">
+      <c r="E736" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F736" s="9">
+      <c r="F736" s="28">
         <v>242</v>
       </c>
-      <c r="H736" s="9" t="s">
+      <c r="H736" s="28" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="737" spans="1:8" ht="13" customHeight="1">
-      <c r="A737" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B737" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C737" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D737" s="12">
+      <c r="J736" s="30"/>
+    </row>
+    <row r="737" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A737" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B737" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C737" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D737" s="29">
         <v>857.4</v>
       </c>
-      <c r="E737" s="9" t="s">
+      <c r="E737" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F737" s="9">
+      <c r="F737" s="28">
         <v>242</v>
       </c>
-      <c r="G737" s="9">
+      <c r="G737" s="28">
         <v>2421</v>
       </c>
-      <c r="H737" s="9" t="s">
+      <c r="H737" s="28" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="738" spans="1:8" ht="13" customHeight="1">
-      <c r="A738" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B738" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C738" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D738" s="12">
+      <c r="J737" s="30"/>
+    </row>
+    <row r="738" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A738" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B738" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C738" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D738" s="29">
         <v>1187.5999999999999</v>
       </c>
-      <c r="E738" s="9" t="s">
+      <c r="E738" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F738" s="9">
+      <c r="F738" s="28">
         <v>242</v>
       </c>
-      <c r="G738" s="9">
+      <c r="G738" s="28">
         <v>2422</v>
       </c>
-      <c r="H738" s="9" t="s">
+      <c r="H738" s="28" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="739" spans="1:8" ht="13" customHeight="1">
-      <c r="A739" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B739" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C739" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D739" s="12">
+      <c r="J738" s="30"/>
+    </row>
+    <row r="739" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A739" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B739" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C739" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D739" s="29">
         <v>0</v>
       </c>
-      <c r="E739" s="9" t="s">
+      <c r="E739" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F739" s="9">
+      <c r="F739" s="28">
         <v>242</v>
       </c>
-      <c r="G739" s="9">
+      <c r="G739" s="28">
         <v>2423</v>
       </c>
-      <c r="H739" s="9" t="s">
+      <c r="H739" s="28" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="740" spans="1:8" ht="13" customHeight="1">
-      <c r="A740" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B740" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C740" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D740" s="12">
+      <c r="J739" s="30"/>
+    </row>
+    <row r="740" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A740" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B740" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C740" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D740" s="29">
         <v>1750.1</v>
       </c>
-      <c r="E740" s="9" t="s">
+      <c r="E740" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F740" s="9">
+      <c r="F740" s="28">
         <v>242</v>
       </c>
-      <c r="G740" s="9">
+      <c r="G740" s="28">
         <v>2424</v>
       </c>
-      <c r="H740" s="9" t="s">
+      <c r="H740" s="28" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="741" spans="1:8" ht="13" customHeight="1">
-      <c r="A741" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B741" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C741" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D741" s="12">
+      <c r="J740" s="30"/>
+    </row>
+    <row r="741" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A741" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B741" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C741" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D741" s="29">
         <v>2592.6</v>
       </c>
-      <c r="E741" s="9" t="s">
+      <c r="E741" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F741" s="9">
+      <c r="F741" s="28">
         <v>242</v>
       </c>
-      <c r="G741" s="9">
+      <c r="G741" s="28">
         <v>2425</v>
       </c>
-      <c r="H741" s="9" t="s">
+      <c r="H741" s="28" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="742" spans="1:8" ht="13" customHeight="1">
-      <c r="A742" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B742" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C742" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D742" s="12">
+      <c r="J741" s="30"/>
+    </row>
+    <row r="742" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A742" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B742" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C742" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D742" s="29">
         <v>257.8</v>
       </c>
-      <c r="E742" s="9" t="s">
+      <c r="E742" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F742" s="9">
+      <c r="F742" s="28">
         <v>242</v>
       </c>
-      <c r="G742" s="9">
+      <c r="G742" s="28">
         <v>2426</v>
       </c>
-      <c r="H742" s="9" t="s">
+      <c r="H742" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="743" spans="1:8" ht="13" customHeight="1">
-      <c r="A743" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B743" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C743" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D743" s="12">
+      <c r="J742" s="30"/>
+    </row>
+    <row r="743" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A743" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B743" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C743" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D743" s="29">
         <v>2510</v>
       </c>
-      <c r="E743" s="9" t="s">
+      <c r="E743" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F743" s="9">
+      <c r="F743" s="28">
         <v>242</v>
       </c>
-      <c r="G743" s="9">
+      <c r="G743" s="28">
         <v>2427</v>
       </c>
-      <c r="H743" s="9" t="s">
+      <c r="H743" s="28" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="744" spans="1:8" ht="13" customHeight="1">
-      <c r="A744" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B744" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C744" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D744" s="12">
+      <c r="J743" s="30"/>
+    </row>
+    <row r="744" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A744" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B744" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C744" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D744" s="29">
         <v>8455.7999999999993</v>
       </c>
-      <c r="E744" s="9" t="s">
+      <c r="E744" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F744" s="9">
+      <c r="F744" s="28">
         <v>242</v>
       </c>
-      <c r="G744" s="9">
+      <c r="G744" s="28">
         <v>2428</v>
       </c>
-      <c r="H744" s="9" t="s">
+      <c r="H744" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="745" spans="1:8" ht="13" customHeight="1">
-      <c r="A745" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B745" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C745" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D745" s="12">
+      <c r="J744" s="30"/>
+    </row>
+    <row r="745" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A745" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B745" s="28">
+        <v>2012</v>
+      </c>
+      <c r="C745" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D745" s="29">
         <v>456</v>
       </c>
-      <c r="E745" s="9" t="s">
+      <c r="E745" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F745" s="9">
+      <c r="F745" s="28">
         <v>242</v>
       </c>
-      <c r="G745" s="9">
+      <c r="G745" s="28">
         <v>2429</v>
       </c>
-      <c r="H745" s="9" t="s">
+      <c r="H745" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="746" spans="1:8" ht="13" customHeight="1">
-      <c r="A746" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B746" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C746" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D746" s="12">
+      <c r="J745" s="30"/>
+    </row>
+    <row r="746" spans="1:10" s="32" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A746" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B746" s="32">
+        <v>2012</v>
+      </c>
+      <c r="C746" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D746" s="33">
         <v>4000</v>
       </c>
-      <c r="E746" s="9" t="s">
+      <c r="E746" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F746" s="9">
+      <c r="F746" s="32">
         <v>242</v>
       </c>
-      <c r="G746" s="9">
+      <c r="G746" s="32">
         <v>24291</v>
       </c>
-      <c r="H746" s="9" t="s">
+      <c r="H746" s="32" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="747" spans="1:8" ht="13" customHeight="1">
-      <c r="A747" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B747" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C747" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D747" s="12">
+      <c r="J746" s="34"/>
+    </row>
+    <row r="747" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A747" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B747" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C747" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D747" s="29">
         <v>1061.2</v>
       </c>
-      <c r="E747" s="9" t="s">
+      <c r="E747" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F747" s="9">
+      <c r="F747" s="28">
         <v>242</v>
       </c>
-      <c r="G747" s="9">
+      <c r="G747" s="28">
         <v>2421</v>
       </c>
-      <c r="H747" s="9" t="s">
+      <c r="H747" s="28" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="748" spans="1:8" ht="13" customHeight="1">
-      <c r="A748" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B748" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C748" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D748" s="12">
+      <c r="J747" s="30"/>
+    </row>
+    <row r="748" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A748" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B748" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C748" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D748" s="29">
         <v>1368.1</v>
       </c>
-      <c r="E748" s="9" t="s">
+      <c r="E748" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F748" s="9">
+      <c r="F748" s="28">
         <v>242</v>
       </c>
-      <c r="G748" s="9">
+      <c r="G748" s="28">
         <v>2422</v>
       </c>
-      <c r="H748" s="9" t="s">
+      <c r="H748" s="28" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="749" spans="1:8" ht="13" customHeight="1">
-      <c r="A749" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B749" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C749" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D749" s="12">
+      <c r="J748" s="30"/>
+    </row>
+    <row r="749" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A749" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B749" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C749" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D749" s="29">
         <v>53361</v>
       </c>
-      <c r="E749" s="9" t="s">
+      <c r="E749" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F749" s="9">
+      <c r="F749" s="28">
         <v>242</v>
       </c>
-      <c r="G749" s="9">
+      <c r="G749" s="28">
         <v>2423</v>
       </c>
-      <c r="H749" s="9" t="s">
+      <c r="H749" s="28" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="750" spans="1:8" ht="13" customHeight="1">
-      <c r="A750" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B750" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C750" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D750" s="12">
+      <c r="J749" s="30"/>
+    </row>
+    <row r="750" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A750" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B750" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C750" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D750" s="29">
         <v>9355.2999999999993</v>
       </c>
-      <c r="E750" s="9" t="s">
+      <c r="E750" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F750" s="9">
+      <c r="F750" s="28">
         <v>242</v>
       </c>
-      <c r="G750" s="9">
+      <c r="G750" s="28">
         <v>2424</v>
       </c>
-      <c r="H750" s="9" t="s">
+      <c r="H750" s="28" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="751" spans="1:8" ht="13" customHeight="1">
-      <c r="A751" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B751" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C751" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D751" s="12">
+      <c r="J750" s="30"/>
+    </row>
+    <row r="751" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A751" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B751" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C751" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D751" s="29">
         <v>1475.3</v>
       </c>
-      <c r="E751" s="9" t="s">
+      <c r="E751" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F751" s="9">
+      <c r="F751" s="28">
         <v>242</v>
       </c>
-      <c r="G751" s="9">
+      <c r="G751" s="28">
         <v>2425</v>
       </c>
-      <c r="H751" s="9" t="s">
+      <c r="H751" s="28" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="752" spans="1:8" ht="13" customHeight="1">
-      <c r="A752" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B752" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C752" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D752" s="12">
+      <c r="J751" s="30"/>
+    </row>
+    <row r="752" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A752" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B752" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C752" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D752" s="29">
         <v>626.5</v>
       </c>
-      <c r="E752" s="9" t="s">
+      <c r="E752" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F752" s="9">
+      <c r="F752" s="28">
         <v>242</v>
       </c>
-      <c r="G752" s="9">
+      <c r="G752" s="28">
         <v>2426</v>
       </c>
-      <c r="H752" s="9" t="s">
+      <c r="H752" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="753" spans="1:8" ht="13" customHeight="1">
-      <c r="A753" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B753" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C753" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D753" s="12">
+      <c r="J752" s="30"/>
+    </row>
+    <row r="753" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A753" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B753" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C753" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D753" s="29">
         <v>18062</v>
       </c>
-      <c r="E753" s="9" t="s">
+      <c r="E753" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F753" s="9">
+      <c r="F753" s="28">
         <v>242</v>
       </c>
-      <c r="G753" s="9">
+      <c r="G753" s="28">
         <v>2427</v>
       </c>
-      <c r="H753" s="9" t="s">
+      <c r="H753" s="28" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="754" spans="1:8" ht="13" customHeight="1">
-      <c r="A754" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B754" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C754" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D754" s="12">
+      <c r="J753" s="30"/>
+    </row>
+    <row r="754" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A754" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B754" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C754" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D754" s="29">
         <v>8912</v>
       </c>
-      <c r="E754" s="9" t="s">
+      <c r="E754" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F754" s="9">
+      <c r="F754" s="28">
         <v>242</v>
       </c>
-      <c r="G754" s="9">
+      <c r="G754" s="28">
         <v>2428</v>
       </c>
-      <c r="H754" s="9" t="s">
+      <c r="H754" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="755" spans="1:8" ht="13" customHeight="1">
-      <c r="A755" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B755" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C755" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D755" s="12">
+      <c r="J754" s="30"/>
+    </row>
+    <row r="755" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A755" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B755" s="28">
+        <v>2013</v>
+      </c>
+      <c r="C755" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D755" s="29">
         <v>216</v>
       </c>
-      <c r="E755" s="9" t="s">
+      <c r="E755" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F755" s="9">
+      <c r="F755" s="28">
         <v>242</v>
       </c>
-      <c r="G755" s="9">
+      <c r="G755" s="28">
         <v>2429</v>
       </c>
-      <c r="H755" s="9" t="s">
+      <c r="H755" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="756" spans="1:8" ht="13" customHeight="1">
-      <c r="A756" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B756" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C756" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D756" s="12">
+      <c r="J755" s="30"/>
+    </row>
+    <row r="756" spans="1:10" s="32" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A756" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B756" s="32">
+        <v>2013</v>
+      </c>
+      <c r="C756" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D756" s="33">
         <v>0</v>
       </c>
-      <c r="E756" s="9" t="s">
+      <c r="E756" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F756" s="9">
+      <c r="F756" s="32">
         <v>242</v>
       </c>
-      <c r="G756" s="9">
+      <c r="G756" s="32">
         <v>24291</v>
       </c>
-      <c r="H756" s="9" t="s">
+      <c r="H756" s="32" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="757" spans="1:8" ht="13" customHeight="1">
-      <c r="A757" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B757" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C757" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D757" s="12">
+      <c r="J756" s="34"/>
+    </row>
+    <row r="757" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A757" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B757" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C757" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D757" s="29">
         <v>1093.5999999999999</v>
       </c>
-      <c r="E757" s="9" t="s">
+      <c r="E757" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F757" s="9">
+      <c r="F757" s="28">
         <v>242</v>
       </c>
-      <c r="G757" s="9">
+      <c r="G757" s="28">
         <v>2421</v>
       </c>
-      <c r="H757" s="9" t="s">
+      <c r="H757" s="28" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="758" spans="1:8" ht="13" customHeight="1">
-      <c r="A758" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B758" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C758" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D758" s="12">
+      <c r="J757" s="30"/>
+    </row>
+    <row r="758" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A758" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B758" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C758" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D758" s="29">
         <v>1377.3</v>
       </c>
-      <c r="E758" s="9" t="s">
+      <c r="E758" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F758" s="9">
+      <c r="F758" s="28">
         <v>242</v>
       </c>
-      <c r="G758" s="9">
+      <c r="G758" s="28">
         <v>2422</v>
       </c>
-      <c r="H758" s="9" t="s">
+      <c r="H758" s="28" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="759" spans="1:8" ht="13" customHeight="1">
-      <c r="A759" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B759" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C759" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D759" s="12">
+      <c r="J758" s="30"/>
+    </row>
+    <row r="759" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A759" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B759" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C759" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D759" s="29">
         <v>58039</v>
       </c>
-      <c r="E759" s="9" t="s">
+      <c r="E759" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F759" s="9">
+      <c r="F759" s="28">
         <v>242</v>
       </c>
-      <c r="G759" s="9">
+      <c r="G759" s="28">
         <v>2423</v>
       </c>
-      <c r="H759" s="9" t="s">
+      <c r="H759" s="28" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="760" spans="1:8" ht="13" customHeight="1">
-      <c r="A760" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B760" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C760" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D760" s="12">
+      <c r="J759" s="30"/>
+    </row>
+    <row r="760" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A760" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B760" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C760" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D760" s="29">
         <v>27309.5</v>
       </c>
-      <c r="E760" s="9" t="s">
+      <c r="E760" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F760" s="9">
+      <c r="F760" s="28">
         <v>242</v>
       </c>
-      <c r="G760" s="9">
+      <c r="G760" s="28">
         <v>2424</v>
       </c>
-      <c r="H760" s="9" t="s">
+      <c r="H760" s="28" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="761" spans="1:8" ht="13" customHeight="1">
-      <c r="A761" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B761" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C761" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D761" s="12">
+      <c r="J760" s="30"/>
+    </row>
+    <row r="761" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A761" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B761" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C761" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D761" s="29">
         <v>1481.6</v>
       </c>
-      <c r="E761" s="9" t="s">
+      <c r="E761" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F761" s="9">
+      <c r="F761" s="28">
         <v>242</v>
       </c>
-      <c r="G761" s="9">
+      <c r="G761" s="28">
         <v>2425</v>
       </c>
-      <c r="H761" s="9" t="s">
+      <c r="H761" s="28" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="762" spans="1:8" ht="13" customHeight="1">
-      <c r="A762" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B762" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C762" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D762" s="12">
+      <c r="J761" s="30"/>
+    </row>
+    <row r="762" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A762" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B762" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C762" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D762" s="29">
         <v>599</v>
       </c>
-      <c r="E762" s="9" t="s">
+      <c r="E762" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F762" s="9">
+      <c r="F762" s="28">
         <v>242</v>
       </c>
-      <c r="G762" s="9">
+      <c r="G762" s="28">
         <v>2426</v>
       </c>
-      <c r="H762" s="9" t="s">
+      <c r="H762" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="763" spans="1:8" ht="13" customHeight="1">
-      <c r="A763" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B763" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C763" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D763" s="12">
+      <c r="J762" s="30"/>
+    </row>
+    <row r="763" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A763" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B763" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C763" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D763" s="29">
         <v>24000</v>
       </c>
-      <c r="E763" s="9" t="s">
+      <c r="E763" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F763" s="9">
+      <c r="F763" s="28">
         <v>242</v>
       </c>
-      <c r="G763" s="9">
+      <c r="G763" s="28">
         <v>2427</v>
       </c>
-      <c r="H763" s="9" t="s">
+      <c r="H763" s="28" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="764" spans="1:8" ht="13" customHeight="1">
-      <c r="A764" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B764" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C764" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D764" s="12">
+      <c r="J763" s="30"/>
+    </row>
+    <row r="764" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="A764" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B764" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C764" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D764" s="29">
         <v>7353.1</v>
       </c>
-      <c r="E764" s="9" t="s">
+      <c r="E764" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F764" s="9">
+      <c r="F764" s="28">
         <v>242</v>
       </c>
-      <c r="G764" s="9">
+      <c r="G764" s="28">
         <v>2428</v>
       </c>
-      <c r="H764" s="9" t="s">
+      <c r="H764" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="765" spans="1:8" ht="13" customHeight="1">
-      <c r="A765" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B765" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C765" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D765" s="12">
+      <c r="J764" s="30"/>
+    </row>
+    <row r="765" spans="1:10" s="28" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A765" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B765" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C765" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D765" s="29">
         <v>220.5</v>
       </c>
-      <c r="E765" s="9" t="s">
+      <c r="E765" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F765" s="9">
+      <c r="F765" s="28">
         <v>242</v>
       </c>
-      <c r="G765" s="9">
+      <c r="G765" s="28">
         <v>2429</v>
       </c>
-      <c r="H765" s="9" t="s">
+      <c r="H765" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="766" spans="1:8" ht="13" customHeight="1">
-      <c r="A766" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B766" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C766" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D766" s="12">
+      <c r="J765" s="30"/>
+    </row>
+    <row r="766" spans="1:10" s="32" customFormat="1" ht="13" customHeight="1" thickBot="1">
+      <c r="A766" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B766" s="32">
+        <v>2014</v>
+      </c>
+      <c r="C766" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D766" s="33">
         <v>5000</v>
       </c>
-      <c r="E766" s="9" t="s">
+      <c r="E766" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F766" s="9">
+      <c r="F766" s="32">
         <v>242</v>
       </c>
-      <c r="G766" s="9">
+      <c r="G766" s="32">
         <v>24291</v>
       </c>
-      <c r="H766" s="9" t="s">
+      <c r="H766" s="32" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="767" spans="1:8" ht="13" customHeight="1">
+      <c r="J766" s="34"/>
+    </row>
+    <row r="767" spans="1:10" ht="13" customHeight="1">
       <c r="A767" s="9" t="s">
         <v>10</v>
       </c>
@@ -21952,7 +22022,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="13" customHeight="1">
+    <row r="768" spans="1:10" ht="13" customHeight="1">
       <c r="A768" s="9" t="s">
         <v>10</v>
       </c>
@@ -29471,7 +29541,7 @@
         <v>200</v>
       </c>
       <c r="D1061" s="23">
-        <v>335000</v>
+        <v>459600</v>
       </c>
       <c r="E1061" s="2" t="s">
         <v>69</v>
@@ -29522,7 +29592,7 @@
         <v>200</v>
       </c>
       <c r="D1063" s="23">
-        <v>671200</v>
+        <v>554100</v>
       </c>
       <c r="E1063" s="2" t="s">
         <v>69</v>

--- a/db/Budgie_2014_ME-final.xlsx
+++ b/db/Budgie_2014_ME-final.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="0" windowWidth="23980" windowHeight="23100" tabRatio="500"/>
+    <workbookView xWindow="23820" yWindow="0" windowWidth="23980" windowHeight="23100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'budgie-sample-data.csv (2)'!$A$1:$J$1306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'budgie-sample-data.csv (2)'!$A$1:$J$1303</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1286" authorId="0">
+    <comment ref="D1283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1289" authorId="0">
+    <comment ref="D1286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="401">
   <si>
     <t>Country</t>
   </si>
@@ -1475,7 +1475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1617,6 +1617,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1665,7 +1673,7 @@
     <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="149">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Bad" xfId="49" builtinId="27"/>
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1737,6 +1745,10 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1805,6 +1817,10 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="112" builtinId="5"/>
   </cellStyles>
@@ -2135,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1333"/>
+  <dimension ref="A1:K1330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -28724,7 +28740,7 @@
         <v>200</v>
       </c>
       <c r="D1029" s="12">
-        <v>85423.2</v>
+        <v>137181.9</v>
       </c>
       <c r="E1029" s="9" t="s">
         <v>307</v>
@@ -28733,7 +28749,7 @@
         <v>264</v>
       </c>
       <c r="G1029" s="9">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="H1029" s="9" t="s">
         <v>324</v>
@@ -28750,7 +28766,7 @@
         <v>200</v>
       </c>
       <c r="D1030" s="12">
-        <v>51758.7</v>
+        <v>0</v>
       </c>
       <c r="E1030" s="9" t="s">
         <v>307</v>
@@ -28759,10 +28775,10 @@
         <v>264</v>
       </c>
       <c r="G1030" s="9">
-        <v>2649</v>
+        <v>26491</v>
       </c>
       <c r="H1030" s="9" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1031" spans="1:8" ht="13" customHeight="1">
@@ -28770,13 +28786,13 @@
         <v>10</v>
       </c>
       <c r="B1031" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1031" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1031" s="12">
-        <v>0</v>
+        <v>69794.7</v>
       </c>
       <c r="E1031" s="9" t="s">
         <v>307</v>
@@ -28785,10 +28801,10 @@
         <v>264</v>
       </c>
       <c r="G1031" s="9">
-        <v>26491</v>
+        <v>2641</v>
       </c>
       <c r="H1031" s="9" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1032" spans="1:8" ht="13" customHeight="1">
@@ -28802,7 +28818,7 @@
         <v>200</v>
       </c>
       <c r="D1032" s="12">
-        <v>69794.7</v>
+        <v>0</v>
       </c>
       <c r="E1032" s="9" t="s">
         <v>307</v>
@@ -28811,10 +28827,10 @@
         <v>264</v>
       </c>
       <c r="G1032" s="9">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="H1032" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1033" spans="1:8" ht="13" customHeight="1">
@@ -28828,7 +28844,7 @@
         <v>200</v>
       </c>
       <c r="D1033" s="12">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E1033" s="9" t="s">
         <v>307</v>
@@ -28837,10 +28853,10 @@
         <v>264</v>
       </c>
       <c r="G1033" s="9">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="H1033" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1034" spans="1:8" ht="13" customHeight="1">
@@ -28854,7 +28870,7 @@
         <v>200</v>
       </c>
       <c r="D1034" s="12">
-        <v>10000</v>
+        <v>67939</v>
       </c>
       <c r="E1034" s="9" t="s">
         <v>307</v>
@@ -28863,10 +28879,10 @@
         <v>264</v>
       </c>
       <c r="G1034" s="9">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="H1034" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1035" spans="1:8" ht="13" customHeight="1">
@@ -28880,7 +28896,7 @@
         <v>200</v>
       </c>
       <c r="D1035" s="12">
-        <v>67939</v>
+        <v>110000</v>
       </c>
       <c r="E1035" s="9" t="s">
         <v>307</v>
@@ -28889,10 +28905,10 @@
         <v>264</v>
       </c>
       <c r="G1035" s="9">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="H1035" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1036" spans="1:8" ht="13" customHeight="1">
@@ -28906,7 +28922,7 @@
         <v>200</v>
       </c>
       <c r="D1036" s="12">
-        <v>110000</v>
+        <v>35000</v>
       </c>
       <c r="E1036" s="9" t="s">
         <v>307</v>
@@ -28915,10 +28931,10 @@
         <v>264</v>
       </c>
       <c r="G1036" s="9">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="H1036" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1037" spans="1:8" ht="13" customHeight="1">
@@ -28932,7 +28948,7 @@
         <v>200</v>
       </c>
       <c r="D1037" s="12">
-        <v>35000</v>
+        <v>2074</v>
       </c>
       <c r="E1037" s="9" t="s">
         <v>307</v>
@@ -28941,10 +28957,10 @@
         <v>264</v>
       </c>
       <c r="G1037" s="9">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="H1037" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1038" spans="1:8" ht="13" customHeight="1">
@@ -28958,7 +28974,7 @@
         <v>200</v>
       </c>
       <c r="D1038" s="12">
-        <v>2074</v>
+        <v>697811.4</v>
       </c>
       <c r="E1038" s="9" t="s">
         <v>307</v>
@@ -28967,10 +28983,10 @@
         <v>264</v>
       </c>
       <c r="G1038" s="9">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="H1038" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1039" spans="1:8" ht="13" customHeight="1">
@@ -28984,7 +29000,7 @@
         <v>200</v>
       </c>
       <c r="D1039" s="12">
-        <v>297743.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E1039" s="9" t="s">
         <v>307</v>
@@ -28993,10 +29009,10 @@
         <v>264</v>
       </c>
       <c r="G1039" s="9">
-        <v>2648</v>
+        <v>26491</v>
       </c>
       <c r="H1039" s="9" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1040" spans="1:8" ht="13" customHeight="1">
@@ -29004,13 +29020,13 @@
         <v>10</v>
       </c>
       <c r="B1040" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1040" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1040" s="12">
-        <v>400068</v>
+        <v>74918.5</v>
       </c>
       <c r="E1040" s="9" t="s">
         <v>307</v>
@@ -29019,10 +29035,10 @@
         <v>264</v>
       </c>
       <c r="G1040" s="9">
-        <v>2649</v>
+        <v>2641</v>
       </c>
       <c r="H1040" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1041" spans="1:10" ht="13" customHeight="1">
@@ -29030,13 +29046,13 @@
         <v>10</v>
       </c>
       <c r="B1041" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1041" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1041" s="12">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E1041" s="9" t="s">
         <v>307</v>
@@ -29045,10 +29061,10 @@
         <v>264</v>
       </c>
       <c r="G1041" s="9">
-        <v>26491</v>
+        <v>2642</v>
       </c>
       <c r="H1041" s="9" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1042" spans="1:10" ht="13" customHeight="1">
@@ -29062,7 +29078,7 @@
         <v>200</v>
       </c>
       <c r="D1042" s="12">
-        <v>74918.5</v>
+        <v>0</v>
       </c>
       <c r="E1042" s="9" t="s">
         <v>307</v>
@@ -29071,10 +29087,10 @@
         <v>264</v>
       </c>
       <c r="G1042" s="9">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="H1042" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1043" spans="1:10" ht="13" customHeight="1">
@@ -29088,7 +29104,7 @@
         <v>200</v>
       </c>
       <c r="D1043" s="12">
-        <v>15000</v>
+        <v>181303</v>
       </c>
       <c r="E1043" s="9" t="s">
         <v>307</v>
@@ -29097,10 +29113,10 @@
         <v>264</v>
       </c>
       <c r="G1043" s="9">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="H1043" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1044" spans="1:10" ht="13" customHeight="1">
@@ -29114,7 +29130,7 @@
         <v>200</v>
       </c>
       <c r="D1044" s="12">
-        <v>0</v>
+        <v>310524</v>
       </c>
       <c r="E1044" s="9" t="s">
         <v>307</v>
@@ -29123,10 +29139,10 @@
         <v>264</v>
       </c>
       <c r="G1044" s="9">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="H1044" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1045" spans="1:10" ht="13" customHeight="1">
@@ -29140,7 +29156,7 @@
         <v>200</v>
       </c>
       <c r="D1045" s="12">
-        <v>181303</v>
+        <v>10600</v>
       </c>
       <c r="E1045" s="9" t="s">
         <v>307</v>
@@ -29149,10 +29165,10 @@
         <v>264</v>
       </c>
       <c r="G1045" s="9">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="H1045" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1046" spans="1:10" ht="13" customHeight="1">
@@ -29166,7 +29182,7 @@
         <v>200</v>
       </c>
       <c r="D1046" s="12">
-        <v>310524</v>
+        <v>186000</v>
       </c>
       <c r="E1046" s="9" t="s">
         <v>307</v>
@@ -29175,10 +29191,10 @@
         <v>264</v>
       </c>
       <c r="G1046" s="9">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="H1046" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1047" spans="1:10" ht="13" customHeight="1">
@@ -29192,7 +29208,7 @@
         <v>200</v>
       </c>
       <c r="D1047" s="12">
-        <v>10600</v>
+        <v>920729.3</v>
       </c>
       <c r="E1047" s="9" t="s">
         <v>307</v>
@@ -29201,10 +29217,10 @@
         <v>264</v>
       </c>
       <c r="G1047" s="9">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="H1047" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1048" spans="1:10" ht="13" customHeight="1">
@@ -29218,7 +29234,7 @@
         <v>200</v>
       </c>
       <c r="D1048" s="12">
-        <v>186000</v>
+        <v>14000</v>
       </c>
       <c r="E1048" s="9" t="s">
         <v>307</v>
@@ -29227,10 +29243,10 @@
         <v>264</v>
       </c>
       <c r="G1048" s="9">
-        <v>2647</v>
+        <v>26491</v>
       </c>
       <c r="H1048" s="9" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1049" spans="1:10" ht="13" customHeight="1">
@@ -29238,25 +29254,22 @@
         <v>10</v>
       </c>
       <c r="B1049" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1049" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1049" s="12">
-        <v>458992.3</v>
+        <v>6790</v>
       </c>
       <c r="E1049" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1049" s="9">
-        <v>264</v>
-      </c>
-      <c r="G1049" s="9">
-        <v>2648</v>
+        <v>267</v>
       </c>
       <c r="H1049" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1050" spans="1:10" ht="13" customHeight="1">
@@ -29264,270 +29277,273 @@
         <v>10</v>
       </c>
       <c r="B1050" s="9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1050" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1050" s="12">
-        <v>461737</v>
+        <v>6368</v>
       </c>
       <c r="E1050" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1050" s="9">
-        <v>264</v>
-      </c>
-      <c r="G1050" s="9">
-        <v>2649</v>
+        <v>267</v>
       </c>
       <c r="H1050" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1051" spans="1:10" ht="13" customHeight="1">
-      <c r="A1051" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1051" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1051" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1051" s="12">
-        <v>14000</v>
-      </c>
-      <c r="E1051" s="9" t="s">
+      <c r="A1051" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1051" s="21">
+        <v>2014</v>
+      </c>
+      <c r="C1051" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1051" s="22">
+        <v>62264.4</v>
+      </c>
+      <c r="E1051" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F1051" s="9">
-        <v>264</v>
-      </c>
-      <c r="G1051" s="9">
-        <v>26491</v>
-      </c>
-      <c r="H1051" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="F1051" s="21">
+        <v>267</v>
+      </c>
+      <c r="G1051" s="21"/>
+      <c r="H1051" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1051" s="21"/>
+      <c r="J1051" s="22"/>
     </row>
     <row r="1052" spans="1:10" ht="13" customHeight="1">
-      <c r="A1052" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1052" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1052" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1052" s="12">
-        <v>6790</v>
-      </c>
-      <c r="E1052" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1052" s="9">
-        <v>267</v>
-      </c>
-      <c r="H1052" s="9" t="s">
-        <v>325</v>
+      <c r="A1052" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1052" s="23">
+        <v>2206.1999999999998</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1052" s="2">
+        <v>268</v>
+      </c>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="1053" spans="1:10" ht="13" customHeight="1">
-      <c r="A1053" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1053" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1053" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1053" s="12">
-        <v>6368</v>
-      </c>
-      <c r="E1053" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1053" s="9">
-        <v>267</v>
-      </c>
-      <c r="H1053" s="9" t="s">
-        <v>325</v>
+      <c r="A1053" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1053" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1053" s="23">
+        <v>2636.9</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1053" s="2">
+        <v>268</v>
+      </c>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1053" s="10">
+        <v>-2.5607863424728303E-2</v>
       </c>
     </row>
     <row r="1054" spans="1:10" ht="13" customHeight="1">
-      <c r="A1054" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1054" s="21">
-        <v>2014</v>
-      </c>
-      <c r="C1054" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1054" s="22">
-        <v>62264.4</v>
-      </c>
-      <c r="E1054" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1054" s="21">
-        <v>267</v>
-      </c>
-      <c r="G1054" s="21"/>
-      <c r="H1054" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1054" s="21"/>
-      <c r="J1054" s="22"/>
+      <c r="A1054" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1054" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1054" s="23">
+        <v>2706.2</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1054" s="2">
+        <v>268</v>
+      </c>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1054" s="10">
+        <v>0.22663403136614996</v>
+      </c>
     </row>
     <row r="1055" spans="1:10" ht="13" customHeight="1">
-      <c r="A1055" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1055" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1055" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1055" s="23">
-        <v>2206.1999999999998</v>
-      </c>
-      <c r="E1055" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1055" s="2">
-        <v>268</v>
-      </c>
-      <c r="G1055" s="2"/>
-      <c r="H1055" s="2" t="s">
-        <v>192</v>
+      <c r="A1055" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1055" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1055" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1055" s="12">
+        <v>1940</v>
+      </c>
+      <c r="E1055" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1055" s="9">
+        <v>269</v>
+      </c>
+      <c r="H1055" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="1056" spans="1:10" ht="13" customHeight="1">
-      <c r="A1056" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1056" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1056" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1056" s="23">
-        <v>2636.9</v>
-      </c>
-      <c r="E1056" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1056" s="2">
-        <v>268</v>
-      </c>
-      <c r="G1056" s="2"/>
-      <c r="H1056" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1056" s="10">
-        <v>-2.5607863424728303E-2</v>
+      <c r="A1056" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1056" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1056" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1056" s="12">
+        <v>1998.6</v>
+      </c>
+      <c r="E1056" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1056" s="9">
+        <v>269</v>
+      </c>
+      <c r="H1056" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="1057" spans="1:10" ht="13" customHeight="1">
-      <c r="A1057" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1057" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1057" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1057" s="23">
-        <v>2706.2</v>
-      </c>
-      <c r="E1057" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1057" s="2">
-        <v>268</v>
-      </c>
-      <c r="G1057" s="2"/>
-      <c r="H1057" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1057" s="10">
-        <v>0.22663403136614996</v>
+      <c r="A1057" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1057" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1057" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1057" s="12">
+        <v>1993.9</v>
+      </c>
+      <c r="E1057" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1057" s="9">
+        <v>269</v>
+      </c>
+      <c r="H1057" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="1058" spans="1:10" ht="13" customHeight="1">
-      <c r="A1058" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1058" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1058" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1058" s="12">
-        <v>1940</v>
-      </c>
-      <c r="E1058" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1058" s="9">
-        <v>269</v>
-      </c>
-      <c r="H1058" s="9" t="s">
-        <v>262</v>
+      <c r="A1058" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1058" s="23">
+        <v>459600</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1058" s="2">
+        <v>299</v>
+      </c>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="1059" spans="1:10" ht="13" customHeight="1">
-      <c r="A1059" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1059" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1059" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1059" s="12">
-        <v>1998.6</v>
-      </c>
-      <c r="E1059" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1059" s="9">
-        <v>269</v>
-      </c>
-      <c r="H1059" s="9" t="s">
-        <v>262</v>
+      <c r="A1059" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1059" s="23">
+        <v>751300</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1059" s="2">
+        <v>299</v>
+      </c>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1059" s="10">
+        <v>0.11933849821215733</v>
       </c>
     </row>
     <row r="1060" spans="1:10" ht="13" customHeight="1">
-      <c r="A1060" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1060" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1060" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1060" s="12">
-        <v>1993.9</v>
-      </c>
-      <c r="E1060" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1060" s="9">
-        <v>269</v>
-      </c>
-      <c r="H1060" s="9" t="s">
-        <v>262</v>
+      <c r="A1060" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1060" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1060" s="23">
+        <v>554100</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1060" s="2">
+        <v>299</v>
+      </c>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1060" s="10">
+        <v>1.0035820895522387</v>
       </c>
     </row>
     <row r="1061" spans="1:10" ht="13" customHeight="1">
@@ -29541,17 +29557,17 @@
         <v>200</v>
       </c>
       <c r="D1061" s="23">
-        <v>459600</v>
+        <v>17819</v>
       </c>
       <c r="E1061" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1061" s="2">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="G1061" s="2"/>
       <c r="H1061" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1062" spans="1:10" ht="13" customHeight="1">
@@ -29565,20 +29581,20 @@
         <v>200</v>
       </c>
       <c r="D1062" s="23">
-        <v>751300</v>
+        <v>18001</v>
       </c>
       <c r="E1062" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1062" s="2">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="G1062" s="2"/>
       <c r="H1062" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1062" s="10">
-        <v>0.11933849821215733</v>
+        <v>-2.2481672549551995E-2</v>
       </c>
     </row>
     <row r="1063" spans="1:10" ht="13" customHeight="1">
@@ -29592,20 +29608,20 @@
         <v>200</v>
       </c>
       <c r="D1063" s="23">
-        <v>554100</v>
+        <v>18415</v>
       </c>
       <c r="E1063" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1063" s="2">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="G1063" s="2"/>
       <c r="H1063" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1063" s="10">
-        <v>1.0035820895522387</v>
+        <v>3.3447443739828275E-2</v>
       </c>
     </row>
     <row r="1064" spans="1:10" ht="13" customHeight="1">
@@ -29619,17 +29635,17 @@
         <v>200</v>
       </c>
       <c r="D1064" s="23">
-        <v>17819</v>
+        <v>17518</v>
       </c>
       <c r="E1064" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1064" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G1064" s="2"/>
       <c r="H1064" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1065" spans="1:10" ht="13" customHeight="1">
@@ -29643,20 +29659,20 @@
         <v>200</v>
       </c>
       <c r="D1065" s="23">
-        <v>18001</v>
+        <v>18115</v>
       </c>
       <c r="E1065" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1065" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G1065" s="2"/>
       <c r="H1065" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1065" s="10">
-        <v>-2.2481672549551995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:10" ht="13" customHeight="1">
@@ -29670,167 +29686,167 @@
         <v>200</v>
       </c>
       <c r="D1066" s="23">
-        <v>18415</v>
+        <v>18115</v>
       </c>
       <c r="E1066" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1066" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G1066" s="2"/>
       <c r="H1066" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1066" s="10">
-        <v>3.3447443739828275E-2</v>
+        <v>3.4079232789131178E-2</v>
       </c>
     </row>
     <row r="1067" spans="1:10" ht="13" customHeight="1">
-      <c r="A1067" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1067" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1067" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1067" s="23">
-        <v>17518</v>
-      </c>
-      <c r="E1067" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1067" s="2">
-        <v>503</v>
-      </c>
-      <c r="G1067" s="2"/>
-      <c r="H1067" s="2" t="s">
-        <v>195</v>
+      <c r="A1067" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1067" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1067" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1067" s="12">
+        <v>5142</v>
+      </c>
+      <c r="E1067" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1067" s="9">
+        <v>505</v>
+      </c>
+      <c r="H1067" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1068" spans="1:10" ht="13" customHeight="1">
-      <c r="A1068" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1068" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1068" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1068" s="23">
-        <v>18115</v>
-      </c>
-      <c r="E1068" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1068" s="2">
-        <v>503</v>
-      </c>
-      <c r="G1068" s="2"/>
-      <c r="H1068" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1068" s="10">
-        <v>0</v>
+      <c r="A1068" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1068" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1068" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1068" s="12">
+        <v>4861</v>
+      </c>
+      <c r="E1068" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1068" s="9">
+        <v>505</v>
+      </c>
+      <c r="H1068" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1069" spans="1:10" ht="13" customHeight="1">
-      <c r="A1069" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1069" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1069" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1069" s="23">
-        <v>18115</v>
-      </c>
-      <c r="E1069" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1069" s="2">
-        <v>503</v>
-      </c>
-      <c r="G1069" s="2"/>
-      <c r="H1069" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1069" s="10">
-        <v>3.4079232789131178E-2</v>
+      <c r="A1069" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1069" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1069" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1069" s="12">
+        <v>4842</v>
+      </c>
+      <c r="E1069" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1069" s="9">
+        <v>505</v>
+      </c>
+      <c r="H1069" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1070" spans="1:10" ht="13" customHeight="1">
-      <c r="A1070" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1070" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1070" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1070" s="12">
-        <v>5142</v>
-      </c>
-      <c r="E1070" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1070" s="9">
-        <v>505</v>
-      </c>
-      <c r="H1070" s="9" t="s">
-        <v>365</v>
+      <c r="A1070" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1070" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1070" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1070" s="23">
+        <v>2787</v>
+      </c>
+      <c r="E1070" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1070" s="2">
+        <v>506</v>
+      </c>
+      <c r="G1070" s="2"/>
+      <c r="H1070" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="1071" spans="1:10" ht="13" customHeight="1">
-      <c r="A1071" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1071" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1071" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1071" s="12">
-        <v>4861</v>
-      </c>
-      <c r="E1071" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1071" s="9">
-        <v>505</v>
-      </c>
-      <c r="H1071" s="9" t="s">
-        <v>365</v>
+      <c r="A1071" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1071" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1071" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1071" s="23">
+        <v>3125</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1071" s="2">
+        <v>506</v>
+      </c>
+      <c r="G1071" s="2"/>
+      <c r="H1071" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1071" s="10">
+        <v>-0.75117445656501314</v>
       </c>
     </row>
     <row r="1072" spans="1:10" ht="13" customHeight="1">
-      <c r="A1072" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1072" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1072" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1072" s="12">
-        <v>4842</v>
-      </c>
-      <c r="E1072" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1072" s="9">
-        <v>505</v>
-      </c>
-      <c r="H1072" s="9" t="s">
-        <v>365</v>
+      <c r="A1072" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1072" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1072" s="23">
+        <v>12559</v>
+      </c>
+      <c r="E1072" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1072" s="2">
+        <v>506</v>
+      </c>
+      <c r="G1072" s="2"/>
+      <c r="H1072" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1072" s="10">
+        <v>3.5062791532113384</v>
       </c>
     </row>
     <row r="1073" spans="1:10" ht="13" customHeight="1">
@@ -29844,17 +29860,17 @@
         <v>200</v>
       </c>
       <c r="D1073" s="23">
-        <v>2787</v>
+        <v>2996</v>
       </c>
       <c r="E1073" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1073" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G1073" s="2"/>
       <c r="H1073" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1074" spans="1:10" ht="13" customHeight="1">
@@ -29868,20 +29884,20 @@
         <v>200</v>
       </c>
       <c r="D1074" s="23">
-        <v>3125</v>
+        <v>2920</v>
       </c>
       <c r="E1074" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1074" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G1074" s="2"/>
       <c r="H1074" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1074" s="10">
-        <v>-0.75117445656501314</v>
+        <v>-5.2563270603504221E-2</v>
       </c>
     </row>
     <row r="1075" spans="1:10" ht="13" customHeight="1">
@@ -29895,98 +29911,89 @@
         <v>200</v>
       </c>
       <c r="D1075" s="23">
-        <v>12559</v>
+        <v>3082</v>
       </c>
       <c r="E1075" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1075" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G1075" s="2"/>
       <c r="H1075" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1075" s="10">
-        <v>3.5062791532113384</v>
+        <v>2.8704939919893192E-2</v>
       </c>
     </row>
     <row r="1076" spans="1:10" ht="13" customHeight="1">
-      <c r="A1076" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1076" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1076" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1076" s="23">
-        <v>2996</v>
-      </c>
-      <c r="E1076" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1076" s="2">
-        <v>507</v>
-      </c>
-      <c r="G1076" s="2"/>
-      <c r="H1076" s="2" t="s">
-        <v>197</v>
+      <c r="A1076" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1076" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1076" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1076" s="12">
+        <v>21884</v>
+      </c>
+      <c r="E1076" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1076" s="9">
+        <v>509</v>
+      </c>
+      <c r="H1076" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="1077" spans="1:10" ht="13" customHeight="1">
-      <c r="A1077" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1077" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1077" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1077" s="23">
-        <v>2920</v>
-      </c>
-      <c r="E1077" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1077" s="2">
-        <v>507</v>
-      </c>
-      <c r="G1077" s="2"/>
-      <c r="H1077" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1077" s="10">
-        <v>-5.2563270603504221E-2</v>
+      <c r="A1077" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1077" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1077" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1077" s="12">
+        <v>5868</v>
+      </c>
+      <c r="E1077" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1077" s="9">
+        <v>509</v>
+      </c>
+      <c r="H1077" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="1078" spans="1:10" ht="13" customHeight="1">
-      <c r="A1078" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1078" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1078" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1078" s="23">
-        <v>3082</v>
-      </c>
-      <c r="E1078" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1078" s="2">
-        <v>507</v>
-      </c>
-      <c r="G1078" s="2"/>
-      <c r="H1078" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1078" s="10">
-        <v>2.8704939919893192E-2</v>
+      <c r="A1078" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1078" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1078" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1078" s="12">
+        <v>20209</v>
+      </c>
+      <c r="E1078" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1078" s="9">
+        <v>509</v>
+      </c>
+      <c r="H1078" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="1079" spans="1:10" ht="13" customHeight="1">
@@ -30000,16 +30007,16 @@
         <v>200</v>
       </c>
       <c r="D1079" s="12">
-        <v>21884</v>
+        <v>2453</v>
       </c>
       <c r="E1079" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="F1079" s="9">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1079" s="9" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1080" spans="1:10" ht="13" customHeight="1">
@@ -30023,16 +30030,16 @@
         <v>200</v>
       </c>
       <c r="D1080" s="12">
-        <v>5868</v>
+        <v>2366</v>
       </c>
       <c r="E1080" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="F1080" s="9">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1080" s="9" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1081" spans="1:10" ht="13" customHeight="1">
@@ -30046,16 +30053,16 @@
         <v>200</v>
       </c>
       <c r="D1081" s="12">
-        <v>20209</v>
+        <v>2453</v>
       </c>
       <c r="E1081" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="F1081" s="9">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1081" s="9" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1082" spans="1:10" ht="13" customHeight="1">
@@ -30063,22 +30070,22 @@
         <v>10</v>
       </c>
       <c r="B1082" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1082" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1082" s="12">
-        <v>2453</v>
+        <v>8475</v>
       </c>
       <c r="E1082" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1082" s="9">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1082" s="9" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1083" spans="1:10" ht="13" customHeight="1">
@@ -30086,22 +30093,22 @@
         <v>10</v>
       </c>
       <c r="B1083" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1083" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1083" s="12">
-        <v>2366</v>
+        <v>15392</v>
       </c>
       <c r="E1083" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1083" s="9">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1083" s="9" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1084" spans="1:10" ht="13" customHeight="1">
@@ -30109,91 +30116,102 @@
         <v>10</v>
       </c>
       <c r="B1084" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1084" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1084" s="12">
-        <v>2453</v>
+        <v>9991</v>
       </c>
       <c r="E1084" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1084" s="9">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1084" s="9" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1085" spans="1:10" ht="13" customHeight="1">
-      <c r="A1085" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1085" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1085" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1085" s="12">
-        <v>8475</v>
-      </c>
-      <c r="E1085" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1085" s="9">
-        <v>511</v>
-      </c>
-      <c r="H1085" s="9" t="s">
-        <v>263</v>
+      <c r="A1085" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1085" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C1085" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1085" s="24">
+        <v>82911</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1085" s="5">
+        <v>512</v>
+      </c>
+      <c r="G1085" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1085" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="1086" spans="1:10" ht="13" customHeight="1">
-      <c r="A1086" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1086" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1086" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1086" s="12">
-        <v>15392</v>
-      </c>
-      <c r="E1086" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1086" s="9">
-        <v>511</v>
-      </c>
-      <c r="H1086" s="9" t="s">
-        <v>263</v>
+      <c r="A1086" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1086" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C1086" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1086" s="24">
+        <v>71583</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1086" s="5">
+        <v>512</v>
+      </c>
+      <c r="G1086" s="5"/>
+      <c r="H1086" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1086" s="10">
+        <v>0.31899172670487003</v>
       </c>
     </row>
     <row r="1087" spans="1:10" ht="13" customHeight="1">
-      <c r="A1087" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1087" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1087" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1087" s="12">
-        <v>9991</v>
-      </c>
-      <c r="E1087" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1087" s="9">
-        <v>511</v>
-      </c>
-      <c r="H1087" s="9" t="s">
-        <v>263</v>
+      <c r="A1087" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1087" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C1087" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1087" s="24">
+        <v>54271</v>
+      </c>
+      <c r="E1087" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1087" s="5">
+        <v>512</v>
+      </c>
+      <c r="G1087" s="5"/>
+      <c r="H1087" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1087" s="10">
+        <v>-0.34543064249617061</v>
       </c>
     </row>
     <row r="1088" spans="1:10" ht="13" customHeight="1">
@@ -30206,20 +30224,20 @@
       <c r="C1088" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1088" s="24">
-        <v>82911</v>
+      <c r="D1088" s="23">
+        <v>47302</v>
       </c>
       <c r="E1088" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1088" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G1088" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H1088" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1089" spans="1:10" ht="13" customHeight="1">
@@ -30232,24 +30250,24 @@
       <c r="C1089" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1089" s="24">
-        <v>71583</v>
+      <c r="D1089" s="23">
+        <v>64440</v>
       </c>
       <c r="E1089" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1089" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G1089" s="5"/>
       <c r="H1089" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1089" s="10">
-        <v>0.31899172670487003</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:10" ht="13" customHeight="1">
+        <v>0.38759689922480622</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10" s="21" customFormat="1" ht="13" customHeight="1">
       <c r="A1090" s="5" t="s">
         <v>10</v>
       </c>
@@ -30259,21 +30277,22 @@
       <c r="C1090" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1090" s="24">
-        <v>54271</v>
+      <c r="D1090" s="23">
+        <v>46440</v>
       </c>
       <c r="E1090" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1090" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G1090" s="5"/>
       <c r="H1090" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I1090" s="9"/>
       <c r="J1090" s="10">
-        <v>-0.34543064249617061</v>
+        <v>-1.8223330937381082E-2</v>
       </c>
     </row>
     <row r="1091" spans="1:10" ht="13" customHeight="1">
@@ -30286,20 +30305,20 @@
       <c r="C1091" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1091" s="23">
-        <v>47302</v>
+      <c r="D1091" s="24">
+        <v>48967</v>
       </c>
       <c r="E1091" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1091" s="5">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1091" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H1091" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1092" spans="1:10" ht="13" customHeight="1">
@@ -30312,24 +30331,24 @@
       <c r="C1092" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1092" s="23">
-        <v>64440</v>
+      <c r="D1092" s="24">
+        <v>42969</v>
       </c>
       <c r="E1092" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1092" s="5">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1092" s="5"/>
       <c r="H1092" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1092" s="10">
-        <v>0.38759689922480622</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:10" s="21" customFormat="1" ht="13" customHeight="1">
+        <v>0.64016337124971368</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10" ht="13" customHeight="1">
       <c r="A1093" s="5" t="s">
         <v>10</v>
       </c>
@@ -30339,22 +30358,21 @@
       <c r="C1093" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1093" s="23">
-        <v>46440</v>
+      <c r="D1093" s="24">
+        <v>26198</v>
       </c>
       <c r="E1093" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1093" s="5">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1093" s="5"/>
       <c r="H1093" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1093" s="9"/>
+        <v>57</v>
+      </c>
       <c r="J1093" s="10">
-        <v>-1.8223330937381082E-2</v>
+        <v>-0.46498662364449528</v>
       </c>
     </row>
     <row r="1094" spans="1:10" ht="13" customHeight="1">
@@ -30367,20 +30385,20 @@
       <c r="C1094" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1094" s="24">
-        <v>48967</v>
+      <c r="D1094" s="23">
+        <v>24246</v>
       </c>
       <c r="E1094" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1094" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G1094" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H1094" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1095" spans="1:10" ht="13" customHeight="1">
@@ -30393,21 +30411,21 @@
       <c r="C1095" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1095" s="24">
-        <v>42969</v>
+      <c r="D1095" s="23">
+        <v>25277</v>
       </c>
       <c r="E1095" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1095" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G1095" s="5"/>
       <c r="H1095" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1095" s="10">
-        <v>0.64016337124971368</v>
+        <v>0.46304335243387162</v>
       </c>
     </row>
     <row r="1096" spans="1:10" ht="13" customHeight="1">
@@ -30420,101 +30438,90 @@
       <c r="C1096" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D1096" s="24">
-        <v>26198</v>
+      <c r="D1096" s="23">
+        <v>17277</v>
       </c>
       <c r="E1096" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F1096" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G1096" s="5"/>
       <c r="H1096" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1096" s="10">
-        <v>-0.46498662364449528</v>
+        <v>-0.287428854243999</v>
       </c>
     </row>
     <row r="1097" spans="1:10" ht="13" customHeight="1">
-      <c r="A1097" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1097" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C1097" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1097" s="23">
-        <v>24246</v>
-      </c>
-      <c r="E1097" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1097" s="5">
-        <v>515</v>
-      </c>
-      <c r="G1097" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1097" s="5" t="s">
-        <v>58</v>
+      <c r="A1097" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1097" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1097" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1097" s="12">
+        <v>15164</v>
+      </c>
+      <c r="E1097" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1097" s="9">
+        <v>516</v>
+      </c>
+      <c r="H1097" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="1098" spans="1:10" ht="13" customHeight="1">
-      <c r="A1098" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1098" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C1098" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1098" s="23">
-        <v>25277</v>
-      </c>
-      <c r="E1098" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1098" s="5">
-        <v>515</v>
-      </c>
-      <c r="G1098" s="5"/>
-      <c r="H1098" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1098" s="10">
-        <v>0.46304335243387162</v>
+      <c r="A1098" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1098" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1098" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1098" s="12">
+        <v>189917</v>
+      </c>
+      <c r="E1098" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1098" s="9">
+        <v>516</v>
+      </c>
+      <c r="H1098" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="1099" spans="1:10" ht="13" customHeight="1">
-      <c r="A1099" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1099" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C1099" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1099" s="23">
-        <v>17277</v>
-      </c>
-      <c r="E1099" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1099" s="5">
-        <v>515</v>
-      </c>
-      <c r="G1099" s="5"/>
-      <c r="H1099" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1099" s="10">
-        <v>-0.287428854243999</v>
+      <c r="A1099" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1099" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1099" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1099" s="12">
+        <v>20164</v>
+      </c>
+      <c r="E1099" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1099" s="9">
+        <v>516</v>
+      </c>
+      <c r="H1099" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="1100" spans="1:10" ht="13" customHeight="1">
@@ -30528,16 +30535,16 @@
         <v>200</v>
       </c>
       <c r="D1100" s="12">
-        <v>15164</v>
+        <v>4440</v>
       </c>
       <c r="E1100" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1100" s="9">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1100" s="9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1101" spans="1:10" ht="13" customHeight="1">
@@ -30551,16 +30558,16 @@
         <v>200</v>
       </c>
       <c r="D1101" s="12">
-        <v>189917</v>
+        <v>7412</v>
       </c>
       <c r="E1101" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1101" s="9">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1101" s="9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1102" spans="1:10" ht="13" customHeight="1">
@@ -30574,16 +30581,16 @@
         <v>200</v>
       </c>
       <c r="D1102" s="12">
-        <v>20164</v>
+        <v>4440</v>
       </c>
       <c r="E1102" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1102" s="9">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1102" s="9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1103" spans="1:10" ht="13" customHeight="1">
@@ -30597,16 +30604,16 @@
         <v>200</v>
       </c>
       <c r="D1103" s="12">
-        <v>4440</v>
+        <v>3253</v>
       </c>
       <c r="E1103" s="9" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F1103" s="9">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1103" s="9" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1104" spans="1:10" ht="13" customHeight="1">
@@ -30620,16 +30627,16 @@
         <v>200</v>
       </c>
       <c r="D1104" s="12">
-        <v>7412</v>
+        <v>3179</v>
       </c>
       <c r="E1104" s="9" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F1104" s="9">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1104" s="9" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1105" spans="1:10" ht="13" customHeight="1">
@@ -30643,85 +30650,94 @@
         <v>200</v>
       </c>
       <c r="D1105" s="12">
-        <v>4440</v>
+        <v>3253</v>
       </c>
       <c r="E1105" s="9" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F1105" s="9">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1105" s="9" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1106" spans="1:10" ht="13" customHeight="1">
-      <c r="A1106" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1106" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1106" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1106" s="12">
-        <v>3253</v>
-      </c>
-      <c r="E1106" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1106" s="9">
-        <v>518</v>
-      </c>
-      <c r="H1106" s="9" t="s">
-        <v>367</v>
+      <c r="A1106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1106" s="23">
+        <v>15890</v>
+      </c>
+      <c r="E1106" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1106" s="2">
+        <v>519</v>
+      </c>
+      <c r="G1106" s="3"/>
+      <c r="H1106" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1107" spans="1:10" ht="13" customHeight="1">
-      <c r="A1107" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1107" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1107" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1107" s="12">
-        <v>3179</v>
-      </c>
-      <c r="E1107" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1107" s="9">
-        <v>518</v>
-      </c>
-      <c r="H1107" s="9" t="s">
-        <v>367</v>
+      <c r="A1107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1107" s="23">
+        <v>27281</v>
+      </c>
+      <c r="E1107" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1107" s="2">
+        <v>519</v>
+      </c>
+      <c r="G1107" s="3"/>
+      <c r="H1107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1107" s="10">
+        <v>6.9717288162176996E-2</v>
       </c>
     </row>
     <row r="1108" spans="1:10" ht="13" customHeight="1">
-      <c r="A1108" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1108" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1108" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1108" s="12">
-        <v>3253</v>
-      </c>
-      <c r="E1108" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1108" s="9">
-        <v>518</v>
-      </c>
-      <c r="H1108" s="9" t="s">
-        <v>367</v>
+      <c r="A1108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1108" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1108" s="23">
+        <v>25503</v>
+      </c>
+      <c r="E1108" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1108" s="2">
+        <v>519</v>
+      </c>
+      <c r="G1108" s="3"/>
+      <c r="H1108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1108" s="10">
+        <v>0.60497168030207682</v>
       </c>
     </row>
     <row r="1109" spans="1:10" ht="13" customHeight="1">
@@ -30735,17 +30751,17 @@
         <v>200</v>
       </c>
       <c r="D1109" s="23">
-        <v>15890</v>
+        <v>15746</v>
       </c>
       <c r="E1109" s="3" t="s">
         <v>379</v>
       </c>
       <c r="F1109" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G1109" s="3"/>
       <c r="H1109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1110" spans="1:10" ht="13" customHeight="1">
@@ -30759,20 +30775,20 @@
         <v>200</v>
       </c>
       <c r="D1110" s="23">
-        <v>27281</v>
+        <v>11702</v>
       </c>
       <c r="E1110" s="3" t="s">
         <v>379</v>
       </c>
       <c r="F1110" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G1110" s="3"/>
       <c r="H1110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1110" s="10">
-        <v>6.9717288162176996E-2</v>
+        <v>9.3440478415249481E-2</v>
       </c>
     </row>
     <row r="1111" spans="1:10" ht="13" customHeight="1">
@@ -30786,98 +30802,89 @@
         <v>200</v>
       </c>
       <c r="D1111" s="23">
-        <v>25503</v>
+        <v>10702</v>
       </c>
       <c r="E1111" s="3" t="s">
         <v>379</v>
       </c>
       <c r="F1111" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G1111" s="3"/>
       <c r="H1111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1111" s="10">
-        <v>0.60497168030207682</v>
+        <v>-0.32033532325670011</v>
       </c>
     </row>
     <row r="1112" spans="1:10" ht="13" customHeight="1">
-      <c r="A1112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1112" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1112" s="23">
-        <v>15746</v>
-      </c>
-      <c r="E1112" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1112" s="2">
-        <v>520</v>
-      </c>
-      <c r="G1112" s="3"/>
-      <c r="H1112" s="2" t="s">
-        <v>13</v>
+      <c r="A1112" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1112" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1112" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1112" s="12">
+        <v>4386</v>
+      </c>
+      <c r="E1112" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1112" s="9">
+        <v>521</v>
+      </c>
+      <c r="H1112" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="1113" spans="1:10" ht="13" customHeight="1">
-      <c r="A1113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1113" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1113" s="23">
-        <v>11702</v>
-      </c>
-      <c r="E1113" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1113" s="2">
-        <v>520</v>
-      </c>
-      <c r="G1113" s="3"/>
-      <c r="H1113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1113" s="10">
-        <v>9.3440478415249481E-2</v>
+      <c r="A1113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1113" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1113" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1113" s="12">
+        <v>11497</v>
+      </c>
+      <c r="E1113" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>521</v>
+      </c>
+      <c r="H1113" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="1114" spans="1:10" ht="13" customHeight="1">
-      <c r="A1114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1114" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1114" s="23">
-        <v>10702</v>
-      </c>
-      <c r="E1114" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1114" s="2">
-        <v>520</v>
-      </c>
-      <c r="G1114" s="3"/>
-      <c r="H1114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1114" s="10">
-        <v>-0.32033532325670011</v>
+      <c r="A1114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1114" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1114" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1114" s="12">
+        <v>9286</v>
+      </c>
+      <c r="E1114" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1114" s="9">
+        <v>521</v>
+      </c>
+      <c r="H1114" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="1115" spans="1:10" ht="13" customHeight="1">
@@ -30891,16 +30898,16 @@
         <v>200</v>
       </c>
       <c r="D1115" s="12">
-        <v>4386</v>
+        <v>13007</v>
       </c>
       <c r="E1115" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1115" s="9">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1115" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1116" spans="1:10" ht="13" customHeight="1">
@@ -30914,16 +30921,16 @@
         <v>200</v>
       </c>
       <c r="D1116" s="12">
-        <v>11497</v>
+        <v>4261</v>
       </c>
       <c r="E1116" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1116" s="9">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1116" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1117" spans="1:10" ht="13" customHeight="1">
@@ -30937,166 +30944,166 @@
         <v>200</v>
       </c>
       <c r="D1117" s="12">
-        <v>9286</v>
+        <v>4007</v>
       </c>
       <c r="E1117" s="9" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F1117" s="9">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1117" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1118" spans="1:10" ht="13" customHeight="1">
-      <c r="A1118" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1118" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1118" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1118" s="12">
-        <v>13007</v>
-      </c>
-      <c r="E1118" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1118" s="9">
-        <v>522</v>
-      </c>
-      <c r="H1118" s="9" t="s">
-        <v>353</v>
+      <c r="A1118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1118" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1118" s="23">
+        <v>5768</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1118" s="2">
+        <v>523</v>
+      </c>
+      <c r="G1118" s="2"/>
+      <c r="H1118" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="1119" spans="1:10" ht="13" customHeight="1">
-      <c r="A1119" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1119" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1119" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1119" s="12">
-        <v>4261</v>
-      </c>
-      <c r="E1119" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1119" s="9">
-        <v>522</v>
-      </c>
-      <c r="H1119" s="9" t="s">
-        <v>353</v>
+      <c r="A1119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1119" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1119" s="23">
+        <v>5566</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1119" s="2">
+        <v>523</v>
+      </c>
+      <c r="G1119" s="2"/>
+      <c r="H1119" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1119" s="10">
+        <v>-0.30128044187798142</v>
       </c>
     </row>
     <row r="1120" spans="1:10" ht="13" customHeight="1">
-      <c r="A1120" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1120" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1120" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1120" s="12">
-        <v>4007</v>
-      </c>
-      <c r="E1120" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1120" s="9">
-        <v>522</v>
-      </c>
-      <c r="H1120" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:10" ht="13" customHeight="1">
-      <c r="A1121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1121" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1121" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1121" s="23">
-        <v>5768</v>
-      </c>
-      <c r="E1121" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1121" s="2">
+      <c r="A1120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1120" s="23">
+        <v>7966</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1120" s="2">
         <v>523</v>
       </c>
-      <c r="G1121" s="2"/>
-      <c r="H1121" s="2" t="s">
+      <c r="G1120" s="2"/>
+      <c r="H1120" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="1122" spans="1:10" ht="13" customHeight="1">
-      <c r="A1122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1122" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1122" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1122" s="23">
-        <v>5566</v>
-      </c>
-      <c r="E1122" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1122" s="2">
-        <v>523</v>
-      </c>
-      <c r="G1122" s="2"/>
-      <c r="H1122" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1122" s="10">
-        <v>-0.30128044187798142</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:10" ht="13" customHeight="1">
-      <c r="A1123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1123" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1123" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1123" s="23">
-        <v>7966</v>
-      </c>
-      <c r="E1123" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1123" s="2">
-        <v>523</v>
-      </c>
-      <c r="G1123" s="2"/>
-      <c r="H1123" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1123" s="10">
+      <c r="J1120" s="10">
         <v>0.38106796116504854</v>
       </c>
     </row>
-    <row r="1124" spans="1:10" ht="13" customHeight="1">
+    <row r="1121" spans="1:8" ht="13" customHeight="1">
+      <c r="A1121" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1121" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1121" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1121" s="12">
+        <v>220247</v>
+      </c>
+      <c r="E1121" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1121" s="9">
+        <v>524</v>
+      </c>
+      <c r="H1121" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" ht="13" customHeight="1">
+      <c r="A1122" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1122" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1122" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1122" s="12">
+        <v>15217</v>
+      </c>
+      <c r="E1122" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1122" s="9">
+        <v>524</v>
+      </c>
+      <c r="H1122" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" ht="13" customHeight="1">
+      <c r="A1123" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1123" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1123" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1123" s="12">
+        <v>514489</v>
+      </c>
+      <c r="E1123" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1123" s="9">
+        <v>524</v>
+      </c>
+      <c r="H1123" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" ht="13" customHeight="1">
       <c r="A1124" s="9" t="s">
         <v>10</v>
       </c>
@@ -31107,19 +31114,19 @@
         <v>200</v>
       </c>
       <c r="D1124" s="12">
-        <v>220247</v>
+        <v>37170</v>
       </c>
       <c r="E1124" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1124" s="9">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1124" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:10" ht="13" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" ht="13" customHeight="1">
       <c r="A1125" s="9" t="s">
         <v>10</v>
       </c>
@@ -31130,19 +31137,19 @@
         <v>200</v>
       </c>
       <c r="D1125" s="12">
-        <v>15217</v>
+        <v>36100</v>
       </c>
       <c r="E1125" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1125" s="9">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1125" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:10" ht="13" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" ht="13" customHeight="1">
       <c r="A1126" s="9" t="s">
         <v>10</v>
       </c>
@@ -31153,19 +31160,19 @@
         <v>200</v>
       </c>
       <c r="D1126" s="12">
-        <v>514489</v>
+        <v>36889</v>
       </c>
       <c r="E1126" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1126" s="9">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1126" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:10" ht="13" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" ht="13" customHeight="1">
       <c r="A1127" s="9" t="s">
         <v>10</v>
       </c>
@@ -31176,19 +31183,19 @@
         <v>200</v>
       </c>
       <c r="D1127" s="12">
-        <v>37170</v>
+        <v>1704</v>
       </c>
       <c r="E1127" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1127" s="9">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1127" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:10" ht="13" customHeight="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" ht="13" customHeight="1">
       <c r="A1128" s="9" t="s">
         <v>10</v>
       </c>
@@ -31199,19 +31206,19 @@
         <v>200</v>
       </c>
       <c r="D1128" s="12">
-        <v>36100</v>
+        <v>6704</v>
       </c>
       <c r="E1128" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1128" s="9">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1128" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:10" ht="13" customHeight="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" ht="13" customHeight="1">
       <c r="A1129" s="9" t="s">
         <v>10</v>
       </c>
@@ -31222,88 +31229,88 @@
         <v>200</v>
       </c>
       <c r="D1129" s="12">
-        <v>36889</v>
+        <v>13575</v>
       </c>
       <c r="E1129" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1129" s="9">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1129" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:10" ht="13" customHeight="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" ht="13" customHeight="1">
       <c r="A1130" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B1130" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1130" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1130" s="12">
-        <v>1704</v>
+        <v>5279</v>
       </c>
       <c r="E1130" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1130" s="9">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H1130" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:10" ht="13" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" ht="13" customHeight="1">
       <c r="A1131" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B1131" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1131" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1131" s="12">
-        <v>6704</v>
+        <v>2852</v>
       </c>
       <c r="E1131" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1131" s="9">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H1131" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:10" ht="13" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" ht="13" customHeight="1">
       <c r="A1132" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B1132" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1132" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1132" s="12">
-        <v>13575</v>
+        <v>2852</v>
       </c>
       <c r="E1132" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1132" s="9">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H1132" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:10" ht="13" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" ht="13" customHeight="1">
       <c r="A1133" s="9" t="s">
         <v>10</v>
       </c>
@@ -31314,19 +31321,19 @@
         <v>200</v>
       </c>
       <c r="D1133" s="12">
-        <v>5279</v>
+        <v>8975</v>
       </c>
       <c r="E1133" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1133" s="9">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1133" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:10" ht="13" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" ht="13" customHeight="1">
       <c r="A1134" s="9" t="s">
         <v>10</v>
       </c>
@@ -31337,19 +31344,19 @@
         <v>200</v>
       </c>
       <c r="D1134" s="12">
-        <v>2852</v>
+        <v>6402</v>
       </c>
       <c r="E1134" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1134" s="9">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1134" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:10" ht="13" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" ht="13" customHeight="1">
       <c r="A1135" s="9" t="s">
         <v>10</v>
       </c>
@@ -31360,19 +31367,19 @@
         <v>200</v>
       </c>
       <c r="D1135" s="12">
-        <v>2852</v>
+        <v>7802</v>
       </c>
       <c r="E1135" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1135" s="9">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1135" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:10" ht="13" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" ht="13" customHeight="1">
       <c r="A1136" s="9" t="s">
         <v>10</v>
       </c>
@@ -31383,16 +31390,16 @@
         <v>200</v>
       </c>
       <c r="D1136" s="12">
-        <v>8975</v>
+        <v>5362</v>
       </c>
       <c r="E1136" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1136" s="9">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1136" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1137" spans="1:8" ht="13" customHeight="1">
@@ -31406,16 +31413,16 @@
         <v>200</v>
       </c>
       <c r="D1137" s="12">
-        <v>6402</v>
+        <v>3308</v>
       </c>
       <c r="E1137" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1137" s="9">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1137" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1138" spans="1:8" ht="13" customHeight="1">
@@ -31429,16 +31436,16 @@
         <v>200</v>
       </c>
       <c r="D1138" s="12">
-        <v>7802</v>
+        <v>3308</v>
       </c>
       <c r="E1138" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1138" s="9">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1138" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1139" spans="1:8" ht="13" customHeight="1">
@@ -31452,16 +31459,16 @@
         <v>200</v>
       </c>
       <c r="D1139" s="12">
-        <v>5362</v>
+        <v>2239</v>
       </c>
       <c r="E1139" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1139" s="9">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1139" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1140" spans="1:8" ht="13" customHeight="1">
@@ -31475,16 +31482,16 @@
         <v>200</v>
       </c>
       <c r="D1140" s="12">
-        <v>3308</v>
+        <v>2346</v>
       </c>
       <c r="E1140" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1140" s="9">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1140" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1141" spans="1:8" ht="13" customHeight="1">
@@ -31498,16 +31505,16 @@
         <v>200</v>
       </c>
       <c r="D1141" s="12">
-        <v>3308</v>
+        <v>2346</v>
       </c>
       <c r="E1141" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1141" s="9">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1141" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1142" spans="1:8" ht="13" customHeight="1">
@@ -31521,16 +31528,16 @@
         <v>200</v>
       </c>
       <c r="D1142" s="12">
-        <v>2239</v>
+        <v>25333</v>
       </c>
       <c r="E1142" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1142" s="9">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1142" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1143" spans="1:8" ht="13" customHeight="1">
@@ -31544,16 +31551,16 @@
         <v>200</v>
       </c>
       <c r="D1143" s="12">
-        <v>2346</v>
+        <v>5876</v>
       </c>
       <c r="E1143" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1143" s="9">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1143" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1144" spans="1:8" ht="13" customHeight="1">
@@ -31567,16 +31574,16 @@
         <v>200</v>
       </c>
       <c r="D1144" s="12">
-        <v>2346</v>
+        <v>30417</v>
       </c>
       <c r="E1144" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1144" s="9">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1144" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1145" spans="1:8" ht="13" customHeight="1">
@@ -31590,16 +31597,16 @@
         <v>200</v>
       </c>
       <c r="D1145" s="12">
-        <v>25333</v>
+        <v>1040</v>
       </c>
       <c r="E1145" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1145" s="9">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1145" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1146" spans="1:8" ht="13" customHeight="1">
@@ -31613,16 +31620,16 @@
         <v>200</v>
       </c>
       <c r="D1146" s="12">
-        <v>5876</v>
+        <v>13079</v>
       </c>
       <c r="E1146" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1146" s="9">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1146" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1147" spans="1:8" ht="13" customHeight="1">
@@ -31636,16 +31643,16 @@
         <v>200</v>
       </c>
       <c r="D1147" s="12">
-        <v>30417</v>
+        <v>8114</v>
       </c>
       <c r="E1147" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1147" s="9">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1147" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1148" spans="1:8" ht="13" customHeight="1">
@@ -31653,22 +31660,22 @@
         <v>10</v>
       </c>
       <c r="B1148" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1148" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1148" s="12">
-        <v>1040</v>
+        <v>199457</v>
       </c>
       <c r="E1148" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1148" s="9">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1148" s="9" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1149" spans="1:8" ht="13" customHeight="1">
@@ -31676,22 +31683,22 @@
         <v>10</v>
       </c>
       <c r="B1149" s="9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1149" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1149" s="12">
-        <v>13079</v>
+        <v>15000</v>
       </c>
       <c r="E1149" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1149" s="9">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1149" s="9" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1150" spans="1:8" ht="13" customHeight="1">
@@ -31699,22 +31706,22 @@
         <v>10</v>
       </c>
       <c r="B1150" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1150" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1150" s="12">
-        <v>8114</v>
+        <v>149692</v>
       </c>
       <c r="E1150" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1150" s="9">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1150" s="9" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1151" spans="1:8" ht="13" customHeight="1">
@@ -31728,16 +31735,16 @@
         <v>200</v>
       </c>
       <c r="D1151" s="12">
-        <v>199457</v>
+        <v>14300</v>
       </c>
       <c r="E1151" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1151" s="9">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1151" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1152" spans="1:8" ht="13" customHeight="1">
@@ -31751,16 +31758,16 @@
         <v>200</v>
       </c>
       <c r="D1152" s="12">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E1152" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1152" s="9">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1152" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1153" spans="1:8" ht="13" customHeight="1">
@@ -31774,16 +31781,16 @@
         <v>200</v>
       </c>
       <c r="D1153" s="12">
-        <v>149692</v>
+        <v>16338</v>
       </c>
       <c r="E1153" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F1153" s="9">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1153" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1154" spans="1:8" ht="13" customHeight="1">
@@ -31797,16 +31804,16 @@
         <v>200</v>
       </c>
       <c r="D1154" s="12">
-        <v>14300</v>
+        <v>29708</v>
       </c>
       <c r="E1154" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1154" s="9">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1154" s="9" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1155" spans="1:8" ht="13" customHeight="1">
@@ -31820,16 +31827,16 @@
         <v>200</v>
       </c>
       <c r="D1155" s="12">
-        <v>5000</v>
+        <v>12896</v>
       </c>
       <c r="E1155" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1155" s="9">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1155" s="9" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1156" spans="1:8" ht="13" customHeight="1">
@@ -31843,16 +31850,16 @@
         <v>200</v>
       </c>
       <c r="D1156" s="12">
-        <v>16338</v>
+        <v>35008</v>
       </c>
       <c r="E1156" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1156" s="9">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1156" s="9" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1157" spans="1:8" ht="13" customHeight="1">
@@ -31866,16 +31873,16 @@
         <v>200</v>
       </c>
       <c r="D1157" s="12">
-        <v>29708</v>
+        <v>245</v>
       </c>
       <c r="E1157" s="9" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F1157" s="9">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1157" s="9" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1158" spans="1:8" ht="13" customHeight="1">
@@ -31889,16 +31896,16 @@
         <v>200</v>
       </c>
       <c r="D1158" s="12">
-        <v>12896</v>
+        <v>245</v>
       </c>
       <c r="E1158" s="9" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F1158" s="9">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1158" s="9" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1159" spans="1:8" ht="13" customHeight="1">
@@ -31912,16 +31919,16 @@
         <v>200</v>
       </c>
       <c r="D1159" s="12">
-        <v>35008</v>
+        <v>245</v>
       </c>
       <c r="E1159" s="9" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F1159" s="9">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1159" s="9" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1160" spans="1:8" ht="13" customHeight="1">
@@ -31935,16 +31942,16 @@
         <v>200</v>
       </c>
       <c r="D1160" s="12">
-        <v>245</v>
+        <v>5644</v>
       </c>
       <c r="E1160" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1160" s="9">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1160" s="9" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1161" spans="1:8" ht="13" customHeight="1">
@@ -31958,16 +31965,16 @@
         <v>200</v>
       </c>
       <c r="D1161" s="12">
-        <v>245</v>
+        <v>9704</v>
       </c>
       <c r="E1161" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1161" s="9">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1161" s="9" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1162" spans="1:8" ht="13" customHeight="1">
@@ -31981,16 +31988,16 @@
         <v>200</v>
       </c>
       <c r="D1162" s="12">
-        <v>245</v>
+        <v>5174</v>
       </c>
       <c r="E1162" s="9" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F1162" s="9">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1162" s="9" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1163" spans="1:8" ht="13" customHeight="1">
@@ -31998,22 +32005,22 @@
         <v>10</v>
       </c>
       <c r="B1163" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1163" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1163" s="12">
-        <v>5644</v>
+        <v>80000</v>
       </c>
       <c r="E1163" s="9" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="F1163" s="9">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1163" s="9" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1164" spans="1:8" ht="13" customHeight="1">
@@ -32021,22 +32028,22 @@
         <v>10</v>
       </c>
       <c r="B1164" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1164" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1164" s="12">
-        <v>9704</v>
+        <v>85000</v>
       </c>
       <c r="E1164" s="9" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="F1164" s="9">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1164" s="9" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1165" spans="1:8" ht="13" customHeight="1">
@@ -32044,22 +32051,22 @@
         <v>10</v>
       </c>
       <c r="B1165" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1165" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1165" s="12">
-        <v>5174</v>
+        <v>0</v>
       </c>
       <c r="E1165" s="9" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="F1165" s="9">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1165" s="9" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1166" spans="1:8" ht="13" customHeight="1">
@@ -32067,22 +32074,22 @@
         <v>10</v>
       </c>
       <c r="B1166" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1166" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1166" s="12">
-        <v>80000</v>
+        <v>50467</v>
       </c>
       <c r="E1166" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1166" s="9">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H1166" s="9" t="s">
-        <v>270</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1167" spans="1:8" ht="13" customHeight="1">
@@ -32090,22 +32097,22 @@
         <v>10</v>
       </c>
       <c r="B1167" s="9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1167" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1167" s="12">
-        <v>85000</v>
+        <v>3000</v>
       </c>
       <c r="E1167" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1167" s="9">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H1167" s="9" t="s">
-        <v>270</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1168" spans="1:8" ht="13" customHeight="1">
@@ -32113,22 +32120,22 @@
         <v>10</v>
       </c>
       <c r="B1168" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1168" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1168" s="12">
-        <v>0</v>
+        <v>125296</v>
       </c>
       <c r="E1168" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1168" s="9">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H1168" s="9" t="s">
-        <v>270</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1169" spans="1:8" ht="13" customHeight="1">
@@ -32136,22 +32143,22 @@
         <v>10</v>
       </c>
       <c r="B1169" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1169" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1169" s="12">
-        <v>50467</v>
+        <v>2393</v>
       </c>
       <c r="E1169" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1169" s="9">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H1169" s="9" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1170" spans="1:8" ht="13" customHeight="1">
@@ -32159,22 +32166,22 @@
         <v>10</v>
       </c>
       <c r="B1170" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1170" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1170" s="12">
-        <v>3000</v>
+        <v>42446</v>
       </c>
       <c r="E1170" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1170" s="9">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H1170" s="9" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1171" spans="1:8" ht="13" customHeight="1">
@@ -32182,22 +32189,22 @@
         <v>10</v>
       </c>
       <c r="B1171" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1171" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1171" s="12">
-        <v>125296</v>
+        <v>17546</v>
       </c>
       <c r="E1171" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1171" s="9">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H1171" s="9" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1172" spans="1:8" ht="13" customHeight="1">
@@ -32211,16 +32218,16 @@
         <v>200</v>
       </c>
       <c r="D1172" s="12">
-        <v>2393</v>
+        <v>12315</v>
       </c>
       <c r="E1172" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1172" s="9">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1172" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1173" spans="1:8" ht="13" customHeight="1">
@@ -32234,16 +32241,16 @@
         <v>200</v>
       </c>
       <c r="D1173" s="12">
-        <v>42446</v>
+        <v>16550</v>
       </c>
       <c r="E1173" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1173" s="9">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1173" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1174" spans="1:8" ht="13" customHeight="1">
@@ -32257,16 +32264,16 @@
         <v>200</v>
       </c>
       <c r="D1174" s="12">
-        <v>17546</v>
+        <v>9650</v>
       </c>
       <c r="E1174" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1174" s="9">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1174" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1175" spans="1:8" ht="13" customHeight="1">
@@ -32280,16 +32287,16 @@
         <v>200</v>
       </c>
       <c r="D1175" s="12">
-        <v>12315</v>
+        <v>8000</v>
       </c>
       <c r="E1175" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1175" s="9">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1175" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1176" spans="1:8" ht="13" customHeight="1">
@@ -32303,16 +32310,16 @@
         <v>200</v>
       </c>
       <c r="D1176" s="12">
-        <v>16550</v>
+        <v>4000</v>
       </c>
       <c r="E1176" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1176" s="9">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1176" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1177" spans="1:8" ht="13" customHeight="1">
@@ -32326,16 +32333,16 @@
         <v>200</v>
       </c>
       <c r="D1177" s="12">
-        <v>9650</v>
+        <v>0</v>
       </c>
       <c r="E1177" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1177" s="9">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1177" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1178" spans="1:8" ht="13" customHeight="1">
@@ -32349,16 +32356,16 @@
         <v>200</v>
       </c>
       <c r="D1178" s="12">
-        <v>8000</v>
+        <v>10086</v>
       </c>
       <c r="E1178" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1178" s="9">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1178" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1179" spans="1:8" ht="13" customHeight="1">
@@ -32372,16 +32379,16 @@
         <v>200</v>
       </c>
       <c r="D1179" s="12">
-        <v>4000</v>
+        <v>11533</v>
       </c>
       <c r="E1179" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1179" s="9">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1179" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1180" spans="1:8" ht="13" customHeight="1">
@@ -32395,16 +32402,16 @@
         <v>200</v>
       </c>
       <c r="D1180" s="12">
-        <v>0</v>
+        <v>5823</v>
       </c>
       <c r="E1180" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1180" s="9">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1180" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1181" spans="1:8" ht="13" customHeight="1">
@@ -32418,16 +32425,16 @@
         <v>200</v>
       </c>
       <c r="D1181" s="12">
-        <v>10086</v>
+        <v>9184</v>
       </c>
       <c r="E1181" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1181" s="9">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1181" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1182" spans="1:8" ht="13" customHeight="1">
@@ -32441,16 +32448,16 @@
         <v>200</v>
       </c>
       <c r="D1182" s="12">
-        <v>11533</v>
+        <v>32423</v>
       </c>
       <c r="E1182" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1182" s="9">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1182" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1183" spans="1:8" ht="13" customHeight="1">
@@ -32464,16 +32471,16 @@
         <v>200</v>
       </c>
       <c r="D1183" s="12">
-        <v>5823</v>
+        <v>7223</v>
       </c>
       <c r="E1183" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1183" s="9">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1183" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1184" spans="1:8" ht="13" customHeight="1">
@@ -32487,16 +32494,16 @@
         <v>200</v>
       </c>
       <c r="D1184" s="12">
-        <v>9184</v>
+        <v>49075</v>
       </c>
       <c r="E1184" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1184" s="9">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H1184" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1185" spans="1:8" ht="13" customHeight="1">
@@ -32510,16 +32517,16 @@
         <v>200</v>
       </c>
       <c r="D1185" s="12">
-        <v>32423</v>
+        <v>31827</v>
       </c>
       <c r="E1185" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1185" s="9">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H1185" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1186" spans="1:8" ht="13" customHeight="1">
@@ -32533,16 +32540,16 @@
         <v>200</v>
       </c>
       <c r="D1186" s="12">
-        <v>7223</v>
+        <v>70046</v>
       </c>
       <c r="E1186" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1186" s="9">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H1186" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1187" spans="1:8" ht="13" customHeight="1">
@@ -32556,16 +32563,16 @@
         <v>200</v>
       </c>
       <c r="D1187" s="12">
-        <v>49075</v>
+        <v>10710</v>
       </c>
       <c r="E1187" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1187" s="9">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1187" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1188" spans="1:8" ht="13" customHeight="1">
@@ -32579,16 +32586,16 @@
         <v>200</v>
       </c>
       <c r="D1188" s="12">
-        <v>31827</v>
+        <v>13710</v>
       </c>
       <c r="E1188" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1188" s="9">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1188" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1189" spans="1:8" ht="13" customHeight="1">
@@ -32602,16 +32609,16 @@
         <v>200</v>
       </c>
       <c r="D1189" s="12">
-        <v>70046</v>
+        <v>10710</v>
       </c>
       <c r="E1189" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1189" s="9">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1189" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1190" spans="1:8" ht="13" customHeight="1">
@@ -32625,16 +32632,16 @@
         <v>200</v>
       </c>
       <c r="D1190" s="12">
-        <v>10710</v>
+        <v>18695</v>
       </c>
       <c r="E1190" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1190" s="9">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1190" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1191" spans="1:8" ht="13" customHeight="1">
@@ -32648,16 +32655,16 @@
         <v>200</v>
       </c>
       <c r="D1191" s="12">
-        <v>13710</v>
+        <v>10168</v>
       </c>
       <c r="E1191" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1191" s="9">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1191" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1192" spans="1:8" ht="13" customHeight="1">
@@ -32671,16 +32678,16 @@
         <v>200</v>
       </c>
       <c r="D1192" s="12">
-        <v>10710</v>
+        <v>10600</v>
       </c>
       <c r="E1192" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1192" s="9">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1192" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1193" spans="1:8" ht="13" customHeight="1">
@@ -32694,16 +32701,16 @@
         <v>200</v>
       </c>
       <c r="D1193" s="12">
-        <v>18695</v>
+        <v>11392</v>
       </c>
       <c r="E1193" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1193" s="9">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H1193" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1194" spans="1:8" ht="13" customHeight="1">
@@ -32717,16 +32724,16 @@
         <v>200</v>
       </c>
       <c r="D1194" s="12">
-        <v>10168</v>
+        <v>16747</v>
       </c>
       <c r="E1194" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1194" s="9">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H1194" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1195" spans="1:8" ht="13" customHeight="1">
@@ -32740,16 +32747,16 @@
         <v>200</v>
       </c>
       <c r="D1195" s="12">
-        <v>10600</v>
+        <v>15661</v>
       </c>
       <c r="E1195" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1195" s="9">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H1195" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1196" spans="1:8" ht="13" customHeight="1">
@@ -32763,16 +32770,16 @@
         <v>200</v>
       </c>
       <c r="D1196" s="12">
-        <v>11392</v>
+        <v>7130</v>
       </c>
       <c r="E1196" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1196" s="9">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1196" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1197" spans="1:8" ht="13" customHeight="1">
@@ -32786,16 +32793,16 @@
         <v>200</v>
       </c>
       <c r="D1197" s="12">
-        <v>16747</v>
+        <v>7241</v>
       </c>
       <c r="E1197" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1197" s="9">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1197" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1198" spans="1:8" ht="13" customHeight="1">
@@ -32809,16 +32816,16 @@
         <v>200</v>
       </c>
       <c r="D1198" s="12">
-        <v>15661</v>
+        <v>5741</v>
       </c>
       <c r="E1198" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1198" s="9">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1198" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1199" spans="1:8" ht="13" customHeight="1">
@@ -32826,22 +32833,22 @@
         <v>10</v>
       </c>
       <c r="B1199" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1199" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1199" s="12">
-        <v>7130</v>
+        <v>11112</v>
       </c>
       <c r="E1199" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1199" s="9">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H1199" s="9" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1200" spans="1:8" ht="13" customHeight="1">
@@ -32849,22 +32856,22 @@
         <v>10</v>
       </c>
       <c r="B1200" s="9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1200" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1200" s="12">
-        <v>7241</v>
+        <v>10519</v>
       </c>
       <c r="E1200" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1200" s="9">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H1200" s="9" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1201" spans="1:8" ht="13" customHeight="1">
@@ -32872,22 +32879,22 @@
         <v>10</v>
       </c>
       <c r="B1201" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1201" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1201" s="12">
-        <v>5741</v>
+        <v>11112</v>
       </c>
       <c r="E1201" s="9" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="F1201" s="9">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H1201" s="9" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1202" spans="1:8" ht="13" customHeight="1">
@@ -32895,22 +32902,22 @@
         <v>10</v>
       </c>
       <c r="B1202" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1202" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1202" s="12">
-        <v>11112</v>
+        <v>1000</v>
       </c>
       <c r="E1202" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1202" s="9">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1202" s="9" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1203" spans="1:8" ht="13" customHeight="1">
@@ -32918,22 +32925,22 @@
         <v>10</v>
       </c>
       <c r="B1203" s="9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C1203" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1203" s="12">
-        <v>10519</v>
+        <v>16800</v>
       </c>
       <c r="E1203" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1203" s="9">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1203" s="9" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1204" spans="1:8" ht="13" customHeight="1">
@@ -32941,22 +32948,22 @@
         <v>10</v>
       </c>
       <c r="B1204" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1204" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D1204" s="12">
-        <v>11112</v>
+        <v>0</v>
       </c>
       <c r="E1204" s="9" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F1204" s="9">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1204" s="9" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1205" spans="1:8" ht="13" customHeight="1">
@@ -32970,16 +32977,16 @@
         <v>200</v>
       </c>
       <c r="D1205" s="12">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="E1205" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1205" s="9">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H1205" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1206" spans="1:8" ht="13" customHeight="1">
@@ -32993,19 +33000,19 @@
         <v>200</v>
       </c>
       <c r="D1206" s="12">
-        <v>16800</v>
+        <v>8000</v>
       </c>
       <c r="E1206" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1206" s="9">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H1206" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:8" ht="13" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" ht="10" customHeight="1">
       <c r="A1207" s="9" t="s">
         <v>10</v>
       </c>
@@ -33016,16 +33023,16 @@
         <v>200</v>
       </c>
       <c r="D1207" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E1207" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1207" s="9">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H1207" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1208" spans="1:8" ht="13" customHeight="1">
@@ -33039,16 +33046,16 @@
         <v>200</v>
       </c>
       <c r="D1208" s="12">
-        <v>6000</v>
+        <v>9904</v>
       </c>
       <c r="E1208" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1208" s="9">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1208" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1209" spans="1:8" ht="13" customHeight="1">
@@ -33062,19 +33069,19 @@
         <v>200</v>
       </c>
       <c r="D1209" s="12">
-        <v>8000</v>
+        <v>9631</v>
       </c>
       <c r="E1209" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1209" s="9">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1209" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:8" ht="10" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" ht="13" customHeight="1">
       <c r="A1210" s="9" t="s">
         <v>10</v>
       </c>
@@ -33085,16 +33092,16 @@
         <v>200</v>
       </c>
       <c r="D1210" s="12">
-        <v>5000</v>
+        <v>9729</v>
       </c>
       <c r="E1210" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F1210" s="9">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1210" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1211" spans="1:8" ht="13" customHeight="1">
@@ -33108,16 +33115,16 @@
         <v>200</v>
       </c>
       <c r="D1211" s="12">
-        <v>9904</v>
+        <v>67479</v>
       </c>
       <c r="E1211" s="9" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="F1211" s="9">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H1211" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1212" spans="1:8" ht="13" customHeight="1">
@@ -33131,16 +33138,16 @@
         <v>200</v>
       </c>
       <c r="D1212" s="12">
-        <v>9631</v>
+        <v>122881</v>
       </c>
       <c r="E1212" s="9" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="F1212" s="9">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H1212" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1213" spans="1:8" ht="13" customHeight="1">
@@ -33154,16 +33161,16 @@
         <v>200</v>
       </c>
       <c r="D1213" s="12">
-        <v>9729</v>
+        <v>116835</v>
       </c>
       <c r="E1213" s="9" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="F1213" s="9">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H1213" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1214" spans="1:8" ht="13" customHeight="1">
@@ -33177,16 +33184,16 @@
         <v>200</v>
       </c>
       <c r="D1214" s="12">
-        <v>67479</v>
+        <v>49434</v>
       </c>
       <c r="E1214" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1214" s="9">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1214" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1215" spans="1:8" ht="13" customHeight="1">
@@ -33200,16 +33207,16 @@
         <v>200</v>
       </c>
       <c r="D1215" s="12">
-        <v>122881</v>
+        <v>89462</v>
       </c>
       <c r="E1215" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1215" s="9">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1215" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1216" spans="1:8" ht="13" customHeight="1">
@@ -33223,16 +33230,16 @@
         <v>200</v>
       </c>
       <c r="D1216" s="12">
-        <v>116835</v>
+        <v>85328</v>
       </c>
       <c r="E1216" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1216" s="9">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1216" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1217" spans="1:8" ht="13" customHeight="1">
@@ -33246,16 +33253,16 @@
         <v>200</v>
       </c>
       <c r="D1217" s="12">
-        <v>49434</v>
+        <v>70024</v>
       </c>
       <c r="E1217" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1217" s="9">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1217" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1218" spans="1:8" ht="13" customHeight="1">
@@ -33269,16 +33276,16 @@
         <v>200</v>
       </c>
       <c r="D1218" s="12">
-        <v>89462</v>
+        <v>146998</v>
       </c>
       <c r="E1218" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1218" s="9">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1218" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1219" spans="1:8" ht="13" customHeight="1">
@@ -33292,16 +33299,16 @@
         <v>200</v>
       </c>
       <c r="D1219" s="12">
-        <v>85328</v>
+        <v>142072</v>
       </c>
       <c r="E1219" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1219" s="9">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1219" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1220" spans="1:8" ht="13" customHeight="1">
@@ -33315,16 +33322,16 @@
         <v>200</v>
       </c>
       <c r="D1220" s="12">
-        <v>70024</v>
+        <v>8101</v>
       </c>
       <c r="E1220" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1220" s="9">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1220" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1221" spans="1:8" ht="13" customHeight="1">
@@ -33338,16 +33345,16 @@
         <v>200</v>
       </c>
       <c r="D1221" s="12">
-        <v>146998</v>
+        <v>62120</v>
       </c>
       <c r="E1221" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1221" s="9">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1221" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1222" spans="1:8" ht="13" customHeight="1">
@@ -33361,16 +33368,16 @@
         <v>200</v>
       </c>
       <c r="D1222" s="12">
-        <v>142072</v>
+        <v>57129</v>
       </c>
       <c r="E1222" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1222" s="9">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1222" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1223" spans="1:8" ht="13" customHeight="1">
@@ -33384,16 +33391,16 @@
         <v>200</v>
       </c>
       <c r="D1223" s="12">
-        <v>8101</v>
+        <v>75765</v>
       </c>
       <c r="E1223" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1223" s="9">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1223" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1224" spans="1:8" ht="13" customHeight="1">
@@ -33407,16 +33414,16 @@
         <v>200</v>
       </c>
       <c r="D1224" s="12">
-        <v>62120</v>
+        <v>140083</v>
       </c>
       <c r="E1224" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1224" s="9">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1224" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1225" spans="1:8" ht="13" customHeight="1">
@@ -33430,16 +33437,16 @@
         <v>200</v>
       </c>
       <c r="D1225" s="12">
-        <v>57129</v>
+        <v>136839</v>
       </c>
       <c r="E1225" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1225" s="9">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1225" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1226" spans="1:8" ht="13" customHeight="1">
@@ -33453,16 +33460,16 @@
         <v>200</v>
       </c>
       <c r="D1226" s="12">
-        <v>75765</v>
+        <v>41541</v>
       </c>
       <c r="E1226" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1226" s="9">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1226" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1227" spans="1:8" ht="13" customHeight="1">
@@ -33476,16 +33483,16 @@
         <v>200</v>
       </c>
       <c r="D1227" s="12">
-        <v>140083</v>
+        <v>82089</v>
       </c>
       <c r="E1227" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1227" s="9">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1227" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1228" spans="1:8" ht="13" customHeight="1">
@@ -33499,16 +33506,16 @@
         <v>200</v>
       </c>
       <c r="D1228" s="12">
-        <v>136839</v>
+        <v>81104</v>
       </c>
       <c r="E1228" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1228" s="9">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1228" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1229" spans="1:8" ht="13" customHeight="1">
@@ -33522,16 +33529,16 @@
         <v>200</v>
       </c>
       <c r="D1229" s="12">
-        <v>41541</v>
+        <v>143735</v>
       </c>
       <c r="E1229" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1229" s="9">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1229" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1230" spans="1:8" ht="13" customHeight="1">
@@ -33545,16 +33552,16 @@
         <v>200</v>
       </c>
       <c r="D1230" s="12">
-        <v>82089</v>
+        <v>235614</v>
       </c>
       <c r="E1230" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1230" s="9">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1230" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1231" spans="1:8" ht="13" customHeight="1">
@@ -33568,16 +33575,16 @@
         <v>200</v>
       </c>
       <c r="D1231" s="12">
-        <v>81104</v>
+        <v>204466</v>
       </c>
       <c r="E1231" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1231" s="9">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1231" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1232" spans="1:8" ht="13" customHeight="1">
@@ -33591,16 +33598,16 @@
         <v>200</v>
       </c>
       <c r="D1232" s="12">
-        <v>143735</v>
+        <v>89156</v>
       </c>
       <c r="E1232" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1232" s="9">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1232" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1233" spans="1:8" ht="13" customHeight="1">
@@ -33614,16 +33621,16 @@
         <v>200</v>
       </c>
       <c r="D1233" s="12">
-        <v>235614</v>
+        <v>222048</v>
       </c>
       <c r="E1233" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1233" s="9">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1233" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1234" spans="1:8" ht="13" customHeight="1">
@@ -33637,16 +33644,16 @@
         <v>200</v>
       </c>
       <c r="D1234" s="12">
-        <v>204466</v>
+        <v>161961</v>
       </c>
       <c r="E1234" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1234" s="9">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1234" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1235" spans="1:8" ht="13" customHeight="1">
@@ -33660,16 +33667,16 @@
         <v>200</v>
       </c>
       <c r="D1235" s="12">
-        <v>89156</v>
+        <v>139105</v>
       </c>
       <c r="E1235" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1235" s="9">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1235" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1236" spans="1:8" ht="13" customHeight="1">
@@ -33683,16 +33690,16 @@
         <v>200</v>
       </c>
       <c r="D1236" s="12">
-        <v>222048</v>
+        <v>190409</v>
       </c>
       <c r="E1236" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1236" s="9">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1236" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1237" spans="1:8" ht="13" customHeight="1">
@@ -33706,16 +33713,16 @@
         <v>200</v>
       </c>
       <c r="D1237" s="12">
-        <v>161961</v>
+        <v>201326</v>
       </c>
       <c r="E1237" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1237" s="9">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1237" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1238" spans="1:8" ht="13" customHeight="1">
@@ -33729,16 +33736,16 @@
         <v>200</v>
       </c>
       <c r="D1238" s="12">
-        <v>139105</v>
+        <v>90457</v>
       </c>
       <c r="E1238" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1238" s="9">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1238" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1239" spans="1:8" ht="13" customHeight="1">
@@ -33752,16 +33759,16 @@
         <v>200</v>
       </c>
       <c r="D1239" s="12">
-        <v>190409</v>
+        <v>198421</v>
       </c>
       <c r="E1239" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1239" s="9">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1239" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1240" spans="1:8" ht="13" customHeight="1">
@@ -33775,16 +33782,16 @@
         <v>200</v>
       </c>
       <c r="D1240" s="12">
-        <v>201326</v>
+        <v>188826</v>
       </c>
       <c r="E1240" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1240" s="9">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1240" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1241" spans="1:8" ht="13" customHeight="1">
@@ -33798,16 +33805,16 @@
         <v>200</v>
       </c>
       <c r="D1241" s="12">
-        <v>90457</v>
+        <v>97221</v>
       </c>
       <c r="E1241" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1241" s="9">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1241" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1242" spans="1:8" ht="13" customHeight="1">
@@ -33821,16 +33828,16 @@
         <v>200</v>
       </c>
       <c r="D1242" s="12">
-        <v>198421</v>
+        <v>246299</v>
       </c>
       <c r="E1242" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1242" s="9">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1242" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1243" spans="1:8" ht="13" customHeight="1">
@@ -33844,16 +33851,16 @@
         <v>200</v>
       </c>
       <c r="D1243" s="12">
-        <v>188826</v>
+        <v>223524</v>
       </c>
       <c r="E1243" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1243" s="9">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1243" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1244" spans="1:8" ht="13" customHeight="1">
@@ -33867,16 +33874,16 @@
         <v>200</v>
       </c>
       <c r="D1244" s="12">
-        <v>97221</v>
+        <v>135437</v>
       </c>
       <c r="E1244" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1244" s="9">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1244" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1245" spans="1:8" ht="13" customHeight="1">
@@ -33890,16 +33897,16 @@
         <v>200</v>
       </c>
       <c r="D1245" s="12">
-        <v>246299</v>
+        <v>268420</v>
       </c>
       <c r="E1245" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1245" s="9">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1245" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1246" spans="1:8" ht="13" customHeight="1">
@@ -33913,16 +33920,16 @@
         <v>200</v>
       </c>
       <c r="D1246" s="12">
-        <v>223524</v>
+        <v>263703</v>
       </c>
       <c r="E1246" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1246" s="9">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1246" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1247" spans="1:8" ht="13" customHeight="1">
@@ -33936,16 +33943,16 @@
         <v>200</v>
       </c>
       <c r="D1247" s="12">
-        <v>135437</v>
+        <v>105626</v>
       </c>
       <c r="E1247" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1247" s="9">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1247" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1248" spans="1:8" ht="13" customHeight="1">
@@ -33959,16 +33966,16 @@
         <v>200</v>
       </c>
       <c r="D1248" s="12">
-        <v>268420</v>
+        <v>223091</v>
       </c>
       <c r="E1248" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1248" s="9">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1248" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1249" spans="1:8" ht="13" customHeight="1">
@@ -33982,16 +33989,16 @@
         <v>200</v>
       </c>
       <c r="D1249" s="12">
-        <v>263703</v>
+        <v>199386</v>
       </c>
       <c r="E1249" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1249" s="9">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1249" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1250" spans="1:8" ht="13" customHeight="1">
@@ -34005,16 +34012,16 @@
         <v>200</v>
       </c>
       <c r="D1250" s="12">
-        <v>105626</v>
+        <v>104638</v>
       </c>
       <c r="E1250" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1250" s="9">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1250" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1251" spans="1:8" ht="13" customHeight="1">
@@ -34028,16 +34035,16 @@
         <v>200</v>
       </c>
       <c r="D1251" s="12">
-        <v>223091</v>
+        <v>222215</v>
       </c>
       <c r="E1251" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1251" s="9">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1251" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1252" spans="1:8" ht="13" customHeight="1">
@@ -34051,16 +34058,16 @@
         <v>200</v>
       </c>
       <c r="D1252" s="12">
-        <v>199386</v>
+        <v>204441</v>
       </c>
       <c r="E1252" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1252" s="9">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1252" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1253" spans="1:8" ht="13" customHeight="1">
@@ -34074,16 +34081,16 @@
         <v>200</v>
       </c>
       <c r="D1253" s="12">
-        <v>104638</v>
+        <v>64627</v>
       </c>
       <c r="E1253" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1253" s="9">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1253" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1254" spans="1:8" ht="13" customHeight="1">
@@ -34097,16 +34104,16 @@
         <v>200</v>
       </c>
       <c r="D1254" s="12">
-        <v>222215</v>
+        <v>161314</v>
       </c>
       <c r="E1254" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1254" s="9">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1254" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1255" spans="1:8" ht="13" customHeight="1">
@@ -34120,16 +34127,16 @@
         <v>200</v>
       </c>
       <c r="D1255" s="12">
-        <v>204441</v>
+        <v>151217</v>
       </c>
       <c r="E1255" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1255" s="9">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1255" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1256" spans="1:8" ht="13" customHeight="1">
@@ -34143,16 +34150,16 @@
         <v>200</v>
       </c>
       <c r="D1256" s="12">
-        <v>64627</v>
+        <v>34020</v>
       </c>
       <c r="E1256" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1256" s="9">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1256" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1257" spans="1:8" ht="13" customHeight="1">
@@ -34166,16 +34173,16 @@
         <v>200</v>
       </c>
       <c r="D1257" s="12">
-        <v>161314</v>
+        <v>65209</v>
       </c>
       <c r="E1257" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1257" s="9">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1257" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1258" spans="1:8" ht="13" customHeight="1">
@@ -34189,16 +34196,16 @@
         <v>200</v>
       </c>
       <c r="D1258" s="12">
-        <v>151217</v>
+        <v>62187</v>
       </c>
       <c r="E1258" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1258" s="9">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1258" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1259" spans="1:8" ht="13" customHeight="1">
@@ -34212,16 +34219,16 @@
         <v>200</v>
       </c>
       <c r="D1259" s="12">
-        <v>34020</v>
+        <v>67117</v>
       </c>
       <c r="E1259" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1259" s="9">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1259" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1260" spans="1:8" ht="13" customHeight="1">
@@ -34235,16 +34242,16 @@
         <v>200</v>
       </c>
       <c r="D1260" s="12">
-        <v>65209</v>
+        <v>96221</v>
       </c>
       <c r="E1260" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1260" s="9">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1260" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1261" spans="1:8" ht="13" customHeight="1">
@@ -34258,16 +34265,16 @@
         <v>200</v>
       </c>
       <c r="D1261" s="12">
-        <v>62187</v>
+        <v>96269</v>
       </c>
       <c r="E1261" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1261" s="9">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1261" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1262" spans="1:8" ht="13" customHeight="1">
@@ -34281,16 +34288,16 @@
         <v>200</v>
       </c>
       <c r="D1262" s="12">
-        <v>67117</v>
+        <v>82102</v>
       </c>
       <c r="E1262" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1262" s="9">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1262" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1263" spans="1:8" ht="13" customHeight="1">
@@ -34304,16 +34311,16 @@
         <v>200</v>
       </c>
       <c r="D1263" s="12">
-        <v>96221</v>
+        <v>160978</v>
       </c>
       <c r="E1263" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1263" s="9">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1263" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1264" spans="1:8" ht="13" customHeight="1">
@@ -34327,16 +34334,16 @@
         <v>200</v>
       </c>
       <c r="D1264" s="12">
-        <v>96269</v>
+        <v>161241</v>
       </c>
       <c r="E1264" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1264" s="9">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1264" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1265" spans="1:8" ht="13" customHeight="1">
@@ -34350,16 +34357,16 @@
         <v>200</v>
       </c>
       <c r="D1265" s="12">
-        <v>82102</v>
+        <v>66130</v>
       </c>
       <c r="E1265" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1265" s="9">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1265" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1266" spans="1:8" ht="13" customHeight="1">
@@ -34373,16 +34380,16 @@
         <v>200</v>
       </c>
       <c r="D1266" s="12">
-        <v>160978</v>
+        <v>109020</v>
       </c>
       <c r="E1266" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1266" s="9">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1266" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1267" spans="1:8" ht="13" customHeight="1">
@@ -34396,16 +34403,16 @@
         <v>200</v>
       </c>
       <c r="D1267" s="12">
-        <v>161241</v>
+        <v>103944</v>
       </c>
       <c r="E1267" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1267" s="9">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1267" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1268" spans="1:8" ht="13" customHeight="1">
@@ -34419,16 +34426,16 @@
         <v>200</v>
       </c>
       <c r="D1268" s="12">
-        <v>66130</v>
+        <v>179894</v>
       </c>
       <c r="E1268" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1268" s="9">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1268" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1269" spans="1:8" ht="13" customHeight="1">
@@ -34442,16 +34449,16 @@
         <v>200</v>
       </c>
       <c r="D1269" s="12">
-        <v>109020</v>
+        <v>262505</v>
       </c>
       <c r="E1269" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1269" s="9">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1269" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1270" spans="1:8" ht="13" customHeight="1">
@@ -34465,16 +34472,16 @@
         <v>200</v>
       </c>
       <c r="D1270" s="12">
-        <v>103944</v>
+        <v>158548</v>
       </c>
       <c r="E1270" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1270" s="9">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1270" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1271" spans="1:8" ht="13" customHeight="1">
@@ -34488,16 +34495,16 @@
         <v>200</v>
       </c>
       <c r="D1271" s="12">
-        <v>179894</v>
+        <v>7800</v>
       </c>
       <c r="E1271" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1271" s="9">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1271" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1272" spans="1:8" ht="13" customHeight="1">
@@ -34511,16 +34518,16 @@
         <v>200</v>
       </c>
       <c r="D1272" s="12">
-        <v>262505</v>
+        <v>138923</v>
       </c>
       <c r="E1272" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1272" s="9">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1272" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1273" spans="1:8" ht="13" customHeight="1">
@@ -34534,16 +34541,16 @@
         <v>200</v>
       </c>
       <c r="D1273" s="12">
-        <v>158548</v>
+        <v>90263</v>
       </c>
       <c r="E1273" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1273" s="9">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1273" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1274" spans="1:8" ht="13" customHeight="1">
@@ -34557,16 +34564,16 @@
         <v>200</v>
       </c>
       <c r="D1274" s="12">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="E1274" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1274" s="9">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1274" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1275" spans="1:8" ht="13" customHeight="1">
@@ -34580,16 +34587,16 @@
         <v>200</v>
       </c>
       <c r="D1275" s="12">
-        <v>138923</v>
+        <v>123612</v>
       </c>
       <c r="E1275" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1275" s="9">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1275" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1276" spans="1:8" ht="13" customHeight="1">
@@ -34603,215 +34610,218 @@
         <v>200</v>
       </c>
       <c r="D1276" s="12">
-        <v>90263</v>
+        <v>90735</v>
       </c>
       <c r="E1276" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F1276" s="9">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1276" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1277" spans="1:8" ht="13" customHeight="1">
-      <c r="A1277" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1277" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1277" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1277" s="12">
+      <c r="A1277" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1277" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1277" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1277" s="23">
         <v>0</v>
       </c>
-      <c r="E1277" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1277" s="9">
-        <v>592</v>
-      </c>
-      <c r="H1277" s="9" t="s">
-        <v>306</v>
+      <c r="E1277" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1277" s="2"/>
+      <c r="G1277" s="2"/>
+      <c r="H1277" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="1278" spans="1:8" ht="13" customHeight="1">
-      <c r="A1278" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1278" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1278" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1278" s="12">
-        <v>123612</v>
-      </c>
-      <c r="E1278" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1278" s="9">
-        <v>592</v>
-      </c>
-      <c r="H1278" s="9" t="s">
-        <v>306</v>
+      <c r="A1278" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1278" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C1278" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1278" s="23">
+        <v>3747700</v>
+      </c>
+      <c r="E1278" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1278" s="2"/>
+      <c r="G1278" s="2"/>
+      <c r="H1278" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="1279" spans="1:8" ht="13" customHeight="1">
-      <c r="A1279" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1279" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1279" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1279" s="12">
-        <v>90735</v>
-      </c>
-      <c r="E1279" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1279" s="9">
-        <v>592</v>
-      </c>
-      <c r="H1279" s="9" t="s">
-        <v>306</v>
+      <c r="A1279" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1279" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C1279" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1279" s="23">
+        <v>3753400</v>
+      </c>
+      <c r="E1279" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1279" s="2"/>
+      <c r="G1279" s="2"/>
+      <c r="H1279" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="1280" spans="1:8" ht="13" customHeight="1">
-      <c r="A1280" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1280" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1280" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1280" s="23">
+      <c r="A1280" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1280" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1280" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1280" s="12">
         <v>0</v>
       </c>
-      <c r="E1280" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1280" s="2"/>
-      <c r="G1280" s="2"/>
-      <c r="H1280" s="2" t="s">
-        <v>70</v>
+      <c r="E1280" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1280" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="1281" spans="1:10" ht="13" customHeight="1">
-      <c r="A1281" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1281" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C1281" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1281" s="23">
-        <v>3747700</v>
-      </c>
-      <c r="E1281" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1281" s="2"/>
-      <c r="G1281" s="2"/>
-      <c r="H1281" s="2" t="s">
-        <v>70</v>
+      <c r="A1281" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1281" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1281" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1281" s="12">
+        <v>777900</v>
+      </c>
+      <c r="E1281" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1281" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="1282" spans="1:10" ht="13" customHeight="1">
-      <c r="A1282" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1282" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C1282" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1282" s="23">
-        <v>3753400</v>
-      </c>
-      <c r="E1282" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1282" s="2"/>
-      <c r="G1282" s="2"/>
-      <c r="H1282" s="2" t="s">
-        <v>70</v>
+      <c r="A1282" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1282" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1282" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1282" s="12">
+        <v>491700</v>
+      </c>
+      <c r="E1282" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1282" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="1283" spans="1:10" ht="13" customHeight="1">
-      <c r="A1283" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1283" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1283" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1283" s="12">
+      <c r="A1283" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1283" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1283" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1283" s="23">
         <v>0</v>
       </c>
-      <c r="E1283" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1283" s="9" t="s">
-        <v>380</v>
+      <c r="E1283" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1283" s="2"/>
+      <c r="G1283" s="2"/>
+      <c r="H1283" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1284" spans="1:10" ht="13" customHeight="1">
-      <c r="A1284" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1284" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1284" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1284" s="12">
-        <v>777900</v>
-      </c>
-      <c r="E1284" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1284" s="9" t="s">
-        <v>380</v>
+      <c r="A1284" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1284" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C1284" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1284" s="23">
+        <v>1501700</v>
+      </c>
+      <c r="E1284" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1284" s="2"/>
+      <c r="G1284" s="2"/>
+      <c r="H1284" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1284" s="10">
+        <v>0.11816827997021594</v>
       </c>
     </row>
     <row r="1285" spans="1:10" ht="13" customHeight="1">
-      <c r="A1285" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1285" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1285" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1285" s="12">
-        <v>491700</v>
-      </c>
-      <c r="E1285" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1285" s="9" t="s">
-        <v>380</v>
+      <c r="A1285" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1285" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C1285" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1285" s="23">
+        <v>1343000</v>
+      </c>
+      <c r="E1285" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1285" s="2"/>
+      <c r="G1285" s="2"/>
+      <c r="H1285" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1285" s="10">
+        <v>0.74721051271716854</v>
       </c>
     </row>
     <row r="1286" spans="1:10" ht="13" customHeight="1">
-      <c r="A1286" s="5" t="s">
+      <c r="A1286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1286" s="2">
@@ -34820,138 +34830,126 @@
       <c r="C1286" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D1286" s="23">
+      <c r="D1286" s="27">
         <v>0</v>
       </c>
-      <c r="E1286" s="16" t="s">
-        <v>373</v>
+      <c r="E1286" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="F1286" s="2"/>
       <c r="G1286" s="2"/>
       <c r="H1286" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1287" spans="1:10" ht="13" customHeight="1">
-      <c r="A1287" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1287" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C1287" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1287" s="23">
-        <v>1501700</v>
-      </c>
-      <c r="E1287" s="16" t="s">
-        <v>373</v>
+      <c r="A1287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1287" s="27">
+        <v>1382300</v>
+      </c>
+      <c r="E1287" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="F1287" s="2"/>
       <c r="G1287" s="2"/>
       <c r="H1287" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J1287" s="10">
-        <v>0.11816827997021594</v>
+        <v>0.26932966023875116</v>
       </c>
     </row>
     <row r="1288" spans="1:10" ht="13" customHeight="1">
-      <c r="A1288" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1288" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C1288" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1288" s="23">
-        <v>1343000</v>
-      </c>
-      <c r="E1288" s="16" t="s">
-        <v>373</v>
+      <c r="A1288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1288" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1288" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1288" s="27">
+        <v>1089000</v>
+      </c>
+      <c r="E1288" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="G1288" s="2"/>
       <c r="H1288" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J1288" s="10">
-        <v>0.74721051271716854</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="1289" spans="1:10" ht="13" customHeight="1">
-      <c r="A1289" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1289" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1289" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1289" s="27">
+      <c r="A1289" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1289" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C1289" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1289" s="12">
         <v>0</v>
       </c>
-      <c r="E1289" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1289" s="2"/>
-      <c r="G1289" s="2"/>
-      <c r="H1289" s="2" t="s">
-        <v>379</v>
+      <c r="E1289" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1289" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="1290" spans="1:10" ht="13" customHeight="1">
-      <c r="A1290" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1290" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1290" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1290" s="27">
-        <v>1382300</v>
-      </c>
-      <c r="E1290" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1290" s="2"/>
-      <c r="G1290" s="2"/>
-      <c r="H1290" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1290" s="10">
-        <v>0.26932966023875116</v>
+      <c r="A1290" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1290" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1290" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1290" s="12">
+        <v>2723300</v>
+      </c>
+      <c r="E1290" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1290" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="1291" spans="1:10" ht="13" customHeight="1">
-      <c r="A1291" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1291" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1291" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1291" s="27">
-        <v>1089000</v>
-      </c>
-      <c r="E1291" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1291" s="2"/>
-      <c r="G1291" s="2"/>
-      <c r="H1291" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1291" s="10">
-        <v>0.21</v>
+      <c r="A1291" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1291" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C1291" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1291" s="12">
+        <v>1882000</v>
+      </c>
+      <c r="E1291" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1291" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="1292" spans="1:10" ht="13" customHeight="1">
@@ -34968,10 +34966,10 @@
         <v>0</v>
       </c>
       <c r="E1292" s="17" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="H1292" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1293" spans="1:10" ht="13" customHeight="1">
@@ -34985,13 +34983,13 @@
         <v>200</v>
       </c>
       <c r="D1293" s="12">
-        <v>2723300</v>
+        <v>1296000</v>
       </c>
       <c r="E1293" s="17" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="H1293" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1294" spans="1:10" ht="13" customHeight="1">
@@ -35005,13 +35003,13 @@
         <v>200</v>
       </c>
       <c r="D1294" s="12">
-        <v>1882000</v>
+        <v>1022600</v>
       </c>
       <c r="E1294" s="17" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="H1294" s="9" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1295" spans="1:10" ht="13" customHeight="1">
@@ -35028,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="E1295" s="17" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="H1295" s="9" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1296" spans="1:10" ht="13" customHeight="1">
@@ -35045,13 +35043,13 @@
         <v>200</v>
       </c>
       <c r="D1296" s="12">
-        <v>1296000</v>
+        <v>3638400</v>
       </c>
       <c r="E1296" s="17" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="H1296" s="9" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1297" spans="1:10" ht="13" customHeight="1">
@@ -35065,13 +35063,13 @@
         <v>200</v>
       </c>
       <c r="D1297" s="12">
-        <v>1022600</v>
+        <v>3462200</v>
       </c>
       <c r="E1297" s="17" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="H1297" s="9" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1298" spans="1:10" ht="13" customHeight="1">
@@ -35088,10 +35086,10 @@
         <v>0</v>
       </c>
       <c r="E1298" s="17" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="H1298" s="9" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1299" spans="1:10" ht="13" customHeight="1">
@@ -35105,13 +35103,13 @@
         <v>200</v>
       </c>
       <c r="D1299" s="12">
-        <v>3638400</v>
+        <v>227100</v>
       </c>
       <c r="E1299" s="17" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="H1299" s="9" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1300" spans="1:10" ht="13" customHeight="1">
@@ -35125,153 +35123,103 @@
         <v>200</v>
       </c>
       <c r="D1300" s="12">
-        <v>3462200</v>
+        <v>174800</v>
       </c>
       <c r="E1300" s="17" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="H1300" s="9" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1301" spans="1:10" ht="13" customHeight="1">
-      <c r="A1301" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1301" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C1301" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1301" s="12">
-        <v>0</v>
-      </c>
-      <c r="E1301" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1301" s="9" t="s">
-        <v>354</v>
+      <c r="A1301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1301" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C1301" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1301" s="27">
+        <v>10943900</v>
+      </c>
+      <c r="E1301" s="3"/>
+      <c r="F1301" s="2"/>
+      <c r="G1301" s="2"/>
+      <c r="H1301" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1302" spans="1:10" ht="13" customHeight="1">
-      <c r="A1302" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1302" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C1302" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1302" s="12">
-        <v>227100</v>
-      </c>
-      <c r="E1302" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1302" s="9" t="s">
-        <v>354</v>
+      <c r="A1302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1302" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C1302" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1302" s="27">
+        <v>13218700</v>
+      </c>
+      <c r="E1302" s="3"/>
+      <c r="F1302" s="2"/>
+      <c r="G1302" s="2"/>
+      <c r="H1302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1302" s="10">
+        <v>0.20786008644084833</v>
       </c>
     </row>
     <row r="1303" spans="1:10" ht="13" customHeight="1">
-      <c r="A1303" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1303" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C1303" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1303" s="12">
-        <v>174800</v>
-      </c>
-      <c r="E1303" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1303" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:10" ht="13" customHeight="1">
-      <c r="A1304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1304" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C1304" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1304" s="27">
-        <v>10943900</v>
-      </c>
-      <c r="E1304" s="3"/>
-      <c r="F1304" s="2"/>
-      <c r="G1304" s="2"/>
-      <c r="H1304" s="2" t="s">
+      <c r="A1303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1303" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C1303" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1303" s="27">
+        <v>15294500</v>
+      </c>
+      <c r="E1303" s="3"/>
+      <c r="F1303" s="2"/>
+      <c r="G1303" s="2"/>
+      <c r="H1303" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1305" spans="1:10" ht="13" customHeight="1">
-      <c r="A1305" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1305" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C1305" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1305" s="27">
-        <v>13218700</v>
-      </c>
-      <c r="E1305" s="3"/>
-      <c r="F1305" s="2"/>
-      <c r="G1305" s="2"/>
-      <c r="H1305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1305" s="10">
-        <v>0.20786008644084833</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:10" ht="13" customHeight="1">
-      <c r="A1306" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1306" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C1306" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1306" s="27">
-        <v>15294500</v>
-      </c>
-      <c r="E1306" s="3"/>
-      <c r="F1306" s="2"/>
-      <c r="G1306" s="2"/>
-      <c r="H1306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1306" s="10">
+      <c r="J1303" s="10">
         <v>0.13789555705175244</v>
       </c>
     </row>
-    <row r="1307" spans="1:10" ht="40" customHeight="1"/>
-    <row r="1333" spans="5:6">
-      <c r="E1333" s="18"/>
-      <c r="F1333" s="18"/>
+    <row r="1304" spans="1:10" ht="40" customHeight="1"/>
+    <row r="1308" spans="1:10">
+      <c r="D1308" s="12"/>
+    </row>
+    <row r="1310" spans="1:10">
+      <c r="D1310" s="12"/>
+    </row>
+    <row r="1314" spans="4:4">
+      <c r="D1314" s="12"/>
+    </row>
+    <row r="1330" spans="5:6">
+      <c r="E1330" s="18"/>
+      <c r="F1330" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1306">
+  <autoFilter ref="A1:J1303">
     <sortState ref="A2:J1294">
       <sortCondition ref="F1:F1294"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
